--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807387175973872</v>
+        <v>1.807387175973815</v>
       </c>
       <c r="C2">
-        <v>0.4434135177277199</v>
+        <v>0.4434135177276062</v>
       </c>
       <c r="D2">
-        <v>0.01435586688839408</v>
+        <v>0.01435586688850776</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0.9507682142786678</v>
       </c>
       <c r="H2">
-        <v>0.6865241992411413</v>
+        <v>0.6865241992411555</v>
       </c>
       <c r="I2">
-        <v>0.06195245188869514</v>
+        <v>0.0619524518887058</v>
       </c>
       <c r="J2">
         <v>0.5058048969868736</v>
       </c>
       <c r="K2">
-        <v>0.1917649419051557</v>
+        <v>0.1917649419051415</v>
       </c>
       <c r="L2">
-        <v>0.5985152447837763</v>
+        <v>0.5985152447837905</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>1.564346997202222</v>
       </c>
       <c r="C3">
-        <v>0.3848346169439196</v>
+        <v>0.3848346169438059</v>
       </c>
       <c r="D3">
-        <v>0.01332685155124125</v>
+        <v>0.01332685155125901</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.213760904637752</v>
+        <v>1.213760904637738</v>
       </c>
       <c r="G3">
-        <v>0.8734506138802729</v>
+        <v>0.8734506138802658</v>
       </c>
       <c r="H3">
-        <v>0.6488090824150774</v>
+        <v>0.6488090824150845</v>
       </c>
       <c r="I3">
-        <v>0.05775728446044148</v>
+        <v>0.05775728446046458</v>
       </c>
       <c r="J3">
-        <v>0.4378618246212582</v>
+        <v>0.4378618246212298</v>
       </c>
       <c r="K3">
-        <v>0.1674942699545205</v>
+        <v>0.1674942699544992</v>
       </c>
       <c r="L3">
-        <v>0.5180162331498934</v>
+        <v>0.5180162331498792</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416270839804099</v>
+        <v>1.4162708398039</v>
       </c>
       <c r="C4">
-        <v>0.3491604540434707</v>
+        <v>0.3491604540434992</v>
       </c>
       <c r="D4">
-        <v>0.01269195170670656</v>
+        <v>0.01269195170683091</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>1.144888831012452</v>
       </c>
       <c r="G4">
-        <v>0.828127981315788</v>
+        <v>0.8281279813157809</v>
       </c>
       <c r="H4">
-        <v>0.6272747974147563</v>
+        <v>0.6272747974147492</v>
       </c>
       <c r="I4">
-        <v>0.05532069294482689</v>
+        <v>0.05532069294483044</v>
       </c>
       <c r="J4">
-        <v>0.3964694978821797</v>
+        <v>0.3964694978822152</v>
       </c>
       <c r="K4">
-        <v>0.1528804732299882</v>
+        <v>0.1528804732300024</v>
       </c>
       <c r="L4">
-        <v>0.4691989993748251</v>
+        <v>0.469198999374818</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356167216632002</v>
+        <v>1.356167216632116</v>
       </c>
       <c r="C5">
-        <v>0.3346821839312497</v>
+        <v>0.3346821839313634</v>
       </c>
       <c r="D5">
-        <v>0.01243234525770376</v>
+        <v>0.01243234525773218</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.117478807527519</v>
+        <v>1.117478807527533</v>
       </c>
       <c r="G5">
-        <v>0.8101540137366783</v>
+        <v>0.8101540137366925</v>
       </c>
       <c r="H5">
         <v>0.6188769931214324</v>
       </c>
       <c r="I5">
-        <v>0.05435995843377839</v>
+        <v>0.05435995843379615</v>
       </c>
       <c r="J5">
-        <v>0.3796686386351453</v>
+        <v>0.3796686386351666</v>
       </c>
       <c r="K5">
-        <v>0.1469895357898565</v>
+        <v>0.1469895357898352</v>
       </c>
       <c r="L5">
-        <v>0.4494377953056414</v>
+        <v>0.4494377953056343</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.346200050530427</v>
+        <v>1.346200050530598</v>
       </c>
       <c r="C6">
-        <v>0.332281251448876</v>
+        <v>0.3322812514488476</v>
       </c>
       <c r="D6">
-        <v>0.01238918193184446</v>
+        <v>0.01238918193177341</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>1.112965293590847</v>
       </c>
       <c r="G6">
-        <v>0.8071981017877334</v>
+        <v>0.8071981017877476</v>
       </c>
       <c r="H6">
         <v>0.6175044979297795</v>
       </c>
       <c r="I6">
-        <v>0.05420229510458086</v>
+        <v>0.05420229510456309</v>
       </c>
       <c r="J6">
         <v>0.3768824927277166</v>
       </c>
       <c r="K6">
-        <v>0.1460150041918951</v>
+        <v>0.1460150041919164</v>
       </c>
       <c r="L6">
-        <v>0.4461638617787216</v>
+        <v>0.4461638617787358</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415459359750031</v>
+        <v>1.415459359749946</v>
       </c>
       <c r="C7">
         <v>0.3489649736110891</v>
       </c>
       <c r="D7">
-        <v>0.0126884542515846</v>
+        <v>0.01268845425158105</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.144516592214615</v>
+        <v>1.144516592214629</v>
       </c>
       <c r="G7">
         <v>0.8278836300695218</v>
       </c>
       <c r="H7">
-        <v>0.627160051609458</v>
+        <v>0.6271600516094367</v>
       </c>
       <c r="I7">
-        <v>0.05530760936363954</v>
+        <v>0.05530760936363421</v>
       </c>
       <c r="J7">
-        <v>0.3962426637924992</v>
+        <v>0.3962426637924921</v>
       </c>
       <c r="K7">
-        <v>0.1528007760861776</v>
+        <v>0.1528007760861811</v>
       </c>
       <c r="L7">
         <v>0.4689319842308635</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.723315986425121</v>
+        <v>1.723315986425206</v>
       </c>
       <c r="C8">
-        <v>0.4231454532215082</v>
+        <v>0.4231454532214798</v>
       </c>
       <c r="D8">
-        <v>0.01400163272636945</v>
+        <v>0.0140016327262984</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.28966762605927</v>
       </c>
       <c r="G8">
-        <v>0.9236343342666373</v>
+        <v>0.9236343342666231</v>
       </c>
       <c r="H8">
         <v>0.6731641253369389</v>
@@ -664,13 +664,13 @@
         <v>0.06047529120530371</v>
       </c>
       <c r="J8">
-        <v>0.4823013459367402</v>
+        <v>0.4823013459366976</v>
       </c>
       <c r="K8">
-        <v>0.1833313807836561</v>
+        <v>0.1833313807836916</v>
       </c>
       <c r="L8">
-        <v>0.570619506873328</v>
+        <v>0.5706195068733066</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.338693849145045</v>
+        <v>2.338693849145216</v>
       </c>
       <c r="C9">
-        <v>0.5716675506295701</v>
+        <v>0.5716675506295417</v>
       </c>
       <c r="D9">
-        <v>0.01655816739974014</v>
+        <v>0.01655816739982541</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0.7777547748220073</v>
       </c>
       <c r="I9">
-        <v>0.07185304248147872</v>
+        <v>0.07185304248148938</v>
       </c>
       <c r="J9">
-        <v>0.6543810967377581</v>
+        <v>0.6543810967377652</v>
       </c>
       <c r="K9">
-        <v>0.2458982160528791</v>
+        <v>0.2458982160528862</v>
       </c>
       <c r="L9">
-        <v>0.7759077674406853</v>
+        <v>0.7759077674406996</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.801850709802125</v>
+        <v>2.801850709802011</v>
       </c>
       <c r="C10">
-        <v>0.683773611866485</v>
+        <v>0.6837736118665418</v>
       </c>
       <c r="D10">
-        <v>0.01843506887468749</v>
+        <v>0.01843506887479762</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>1.848235527747349</v>
       </c>
       <c r="G10">
-        <v>1.298035194163575</v>
+        <v>1.298035194163589</v>
       </c>
       <c r="H10">
         <v>0.8656586145815695</v>
       </c>
       <c r="I10">
-        <v>0.08118404180687477</v>
+        <v>0.08118404180687122</v>
       </c>
       <c r="J10">
-        <v>0.7839773250294897</v>
+        <v>0.7839773250295181</v>
       </c>
       <c r="K10">
-        <v>0.2941368099078403</v>
+        <v>0.2941368099078545</v>
       </c>
       <c r="L10">
-        <v>0.931926700084432</v>
+        <v>0.9319267000844462</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,7 +757,7 @@
         <v>3.015937178333445</v>
       </c>
       <c r="C11">
-        <v>0.735706878226722</v>
+        <v>0.7357068782267788</v>
       </c>
       <c r="D11">
         <v>0.01929138499051319</v>
@@ -766,25 +766,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.966747261623041</v>
+        <v>1.96674726162307</v>
       </c>
       <c r="G11">
         <v>1.378321729772551</v>
       </c>
       <c r="H11">
-        <v>0.9086265563074249</v>
+        <v>0.9086265563074107</v>
       </c>
       <c r="I11">
-        <v>0.08569366783893173</v>
+        <v>0.08569366783894239</v>
       </c>
       <c r="J11">
-        <v>0.8439109987893403</v>
+        <v>0.8439109987893545</v>
       </c>
       <c r="K11">
         <v>0.3167324577792883</v>
       </c>
       <c r="L11">
-        <v>1.004436164680492</v>
+        <v>1.004436164680506</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.097586449302639</v>
+        <v>3.097586449302582</v>
       </c>
       <c r="C12">
-        <v>0.755534004554903</v>
+        <v>0.7555340045545336</v>
       </c>
       <c r="D12">
-        <v>0.01961628487157441</v>
+        <v>0.01961628487146427</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,22 +807,22 @@
         <v>2.012535664085803</v>
       </c>
       <c r="G12">
-        <v>1.409404412858748</v>
+        <v>1.409404412858734</v>
       </c>
       <c r="H12">
-        <v>0.9253801837642612</v>
+        <v>0.9253801837642754</v>
       </c>
       <c r="I12">
-        <v>0.08744450167131035</v>
+        <v>0.08744450167131745</v>
       </c>
       <c r="J12">
-        <v>0.8667742313202922</v>
+        <v>0.8667742313203064</v>
       </c>
       <c r="K12">
-        <v>0.3253973355339213</v>
+        <v>0.3253973355339426</v>
       </c>
       <c r="L12">
-        <v>1.032152310539225</v>
+        <v>1.032152310539217</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>3.079974485324328</v>
       </c>
       <c r="C13">
-        <v>0.7512562551385997</v>
+        <v>0.7512562551384292</v>
       </c>
       <c r="D13">
-        <v>0.0195462789777423</v>
+        <v>0.0195462789777352</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0.9217495998524186</v>
       </c>
       <c r="I13">
-        <v>0.08706542327695388</v>
+        <v>0.08706542327695743</v>
       </c>
       <c r="J13">
-        <v>0.8618423096160797</v>
+        <v>0.8618423096160939</v>
       </c>
       <c r="K13">
-        <v>0.3235261263672413</v>
+        <v>0.32352612636722</v>
       </c>
       <c r="L13">
         <v>1.026171007207289</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.022642341725088</v>
+        <v>3.022642341725032</v>
       </c>
       <c r="C14">
-        <v>0.7373346752370651</v>
+        <v>0.7373346752368946</v>
       </c>
       <c r="D14">
-        <v>0.0193181003279328</v>
+        <v>0.01931810032804648</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.970495383861845</v>
+        <v>1.970495383861817</v>
       </c>
       <c r="G14">
-        <v>1.380864798661023</v>
+        <v>1.380864798661008</v>
       </c>
       <c r="H14">
         <v>0.9099948837851457</v>
       </c>
       <c r="I14">
-        <v>0.08583681453365344</v>
+        <v>0.08583681453363923</v>
       </c>
       <c r="J14">
-        <v>0.8457884464619383</v>
+        <v>0.8457884464619241</v>
       </c>
       <c r="K14">
         <v>0.3174430600060418</v>
       </c>
       <c r="L14">
-        <v>1.006710979999013</v>
+        <v>1.006710979999028</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.987603084885279</v>
+        <v>2.987603084885109</v>
       </c>
       <c r="C15">
-        <v>0.7288291309048418</v>
+        <v>0.7288291309048134</v>
       </c>
       <c r="D15">
-        <v>0.01917842537817549</v>
+        <v>0.01917842537808312</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0.9028593381875467</v>
       </c>
       <c r="I15">
-        <v>0.08509003329256259</v>
+        <v>0.08509003329255194</v>
       </c>
       <c r="J15">
         <v>0.8359776713634233</v>
       </c>
       <c r="K15">
-        <v>0.3137315867681423</v>
+        <v>0.3137315867681281</v>
       </c>
       <c r="L15">
-        <v>0.9948259875850738</v>
+        <v>0.9948259875850809</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.787935528979688</v>
+        <v>2.787935528979801</v>
       </c>
       <c r="C16">
-        <v>0.6804006811053966</v>
+        <v>0.6804006811055388</v>
       </c>
       <c r="D16">
         <v>0.01837917920686749</v>
@@ -959,19 +959,19 @@
         <v>1.840611725102917</v>
       </c>
       <c r="G16">
-        <v>1.292878819882162</v>
+        <v>1.292878819882176</v>
       </c>
       <c r="H16">
-        <v>0.8629150114641817</v>
+        <v>0.8629150114641746</v>
       </c>
       <c r="I16">
-        <v>0.08089507603799717</v>
+        <v>0.08089507603798296</v>
       </c>
       <c r="J16">
-        <v>0.780082453084475</v>
+        <v>0.7800824530844821</v>
       </c>
       <c r="K16">
-        <v>0.2926744629756826</v>
+        <v>0.2926744629756755</v>
       </c>
       <c r="L16">
         <v>0.9272220539361342</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.66637709418859</v>
+        <v>2.666377094188533</v>
       </c>
       <c r="C17">
-        <v>0.6509490035772956</v>
+        <v>0.650949003577125</v>
       </c>
       <c r="D17">
-        <v>0.01788968858800288</v>
+        <v>0.01788968858788209</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.774434917409948</v>
+        <v>1.774434917409934</v>
       </c>
       <c r="G17">
         <v>1.24816506804261</v>
       </c>
       <c r="H17">
-        <v>0.8392103483582929</v>
+        <v>0.8392103483582858</v>
       </c>
       <c r="I17">
-        <v>0.07839286843287852</v>
+        <v>0.07839286843288917</v>
       </c>
       <c r="J17">
         <v>0.7460615930246774</v>
       </c>
       <c r="K17">
-        <v>0.2799334540664873</v>
+        <v>0.2799334540665086</v>
       </c>
       <c r="L17">
         <v>0.8861679897482801</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.596773331810766</v>
+        <v>2.596773331810709</v>
       </c>
       <c r="C18">
-        <v>0.6340954835359582</v>
+        <v>0.6340954835359867</v>
       </c>
       <c r="D18">
-        <v>0.01760836353822626</v>
+        <v>0.01760836353825113</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.736889296371174</v>
+        <v>1.736889296371203</v>
       </c>
       <c r="G18">
-        <v>1.222833705059173</v>
+        <v>1.222833705059188</v>
       </c>
       <c r="H18">
-        <v>0.8258529781229385</v>
+        <v>0.8258529781229242</v>
       </c>
       <c r="I18">
-        <v>0.07697826573062017</v>
+        <v>0.07697826573060951</v>
       </c>
       <c r="J18">
-        <v>0.726584137462666</v>
+        <v>0.7265841374626945</v>
       </c>
       <c r="K18">
-        <v>0.2726655305730148</v>
+        <v>0.2726655305730219</v>
       </c>
       <c r="L18">
-        <v>0.8626968411402132</v>
+        <v>0.8626968411402274</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>2.573257906903621</v>
       </c>
       <c r="C19">
-        <v>0.6284032337204337</v>
+        <v>0.6284032337202348</v>
       </c>
       <c r="D19">
-        <v>0.01751314141243654</v>
+        <v>0.01751314141254312</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.724262753968247</v>
+        <v>1.724262753968205</v>
       </c>
       <c r="G19">
         <v>1.214321056673924</v>
       </c>
       <c r="H19">
-        <v>0.8213764125648098</v>
+        <v>0.8213764125647955</v>
       </c>
       <c r="I19">
-        <v>0.07650338620318209</v>
+        <v>0.07650338620317498</v>
       </c>
       <c r="J19">
-        <v>0.7200041718215076</v>
+        <v>0.7200041718215218</v>
       </c>
       <c r="K19">
-        <v>0.2702146834445074</v>
+        <v>0.2702146834445145</v>
       </c>
       <c r="L19">
-        <v>0.8547732353865811</v>
+        <v>0.854773235386574</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>2.679284128542974</v>
       </c>
       <c r="C20">
-        <v>0.6540750697917872</v>
+        <v>0.6540750697916167</v>
       </c>
       <c r="D20">
-        <v>0.01794177141287534</v>
+        <v>0.01794177141298903</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.781425238377565</v>
+        <v>1.781425238377551</v>
       </c>
       <c r="G20">
         <v>1.252884333577924</v>
       </c>
       <c r="H20">
-        <v>0.8417047168008978</v>
+        <v>0.8417047168008907</v>
       </c>
       <c r="I20">
-        <v>0.0786566518634686</v>
+        <v>0.07865665186349347</v>
       </c>
       <c r="J20">
-        <v>0.7496736266994972</v>
+        <v>0.7496736266995043</v>
       </c>
       <c r="K20">
-        <v>0.2812834071542341</v>
+        <v>0.2812834071542269</v>
       </c>
       <c r="L20">
         <v>0.8905233030858497</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.039465679074794</v>
+        <v>3.039465679074738</v>
       </c>
       <c r="C21">
-        <v>0.7414191804210759</v>
+        <v>0.7414191804213317</v>
       </c>
       <c r="D21">
-        <v>0.01938510240290725</v>
+        <v>0.01938510240280067</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.979909029363995</v>
+        <v>1.979909029363981</v>
       </c>
       <c r="G21">
-        <v>1.387252891395022</v>
+        <v>1.387252891395008</v>
       </c>
       <c r="H21">
         <v>0.9134339698869098</v>
       </c>
       <c r="I21">
-        <v>0.08619647293802046</v>
+        <v>0.08619647293797783</v>
       </c>
       <c r="J21">
-        <v>0.8504990766544296</v>
+        <v>0.850499076654458</v>
       </c>
       <c r="K21">
-        <v>0.3192267368868471</v>
+        <v>0.3192267368868684</v>
       </c>
       <c r="L21">
-        <v>1.012419528790332</v>
+        <v>1.012419528790353</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.278292238684855</v>
+        <v>3.278292238684799</v>
       </c>
       <c r="C22">
-        <v>0.7994574442737132</v>
+        <v>0.799457444273429</v>
       </c>
       <c r="D22">
-        <v>0.02033224320205917</v>
+        <v>0.02033224320195259</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.114996958871387</v>
+        <v>2.114996958871401</v>
       </c>
       <c r="G22">
         <v>1.479077943442391</v>
       </c>
       <c r="H22">
-        <v>0.9631558072713062</v>
+        <v>0.9631558072713204</v>
       </c>
       <c r="I22">
-        <v>0.09137838483815841</v>
+        <v>0.09137838483815486</v>
       </c>
       <c r="J22">
-        <v>0.9173862422801307</v>
+        <v>0.9173862422801164</v>
       </c>
       <c r="K22">
         <v>0.34466477125941</v>
       </c>
       <c r="L22">
-        <v>1.093612422662794</v>
+        <v>1.093612422662822</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.150479496885453</v>
+        <v>3.150479496885509</v>
       </c>
       <c r="C23">
         <v>0.7683844324565996</v>
       </c>
       <c r="D23">
-        <v>0.01982628324707036</v>
+        <v>0.01982628324685365</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.042367592686603</v>
+        <v>2.042367592686588</v>
       </c>
       <c r="G23">
-        <v>1.429673339573498</v>
+        <v>1.429673339573469</v>
       </c>
       <c r="H23">
         <v>0.9363387226426454</v>
       </c>
       <c r="I23">
-        <v>0.0885876204505216</v>
+        <v>0.0885876204505287</v>
       </c>
       <c r="J23">
-        <v>0.881586878736897</v>
+        <v>0.8815868787368544</v>
       </c>
       <c r="K23">
-        <v>0.3310241663965883</v>
+        <v>0.3310241663965812</v>
       </c>
       <c r="L23">
-        <v>1.05012501121498</v>
+        <v>1.050125011214966</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.67344798733501</v>
+        <v>2.673447987334953</v>
       </c>
       <c r="C24">
-        <v>0.6526615322738962</v>
+        <v>0.6526615322738394</v>
       </c>
       <c r="D24">
-        <v>0.01791822450850944</v>
+        <v>0.01791822450860536</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.778263364003493</v>
+        <v>1.778263364003479</v>
       </c>
       <c r="G24">
-        <v>1.250749591056959</v>
+        <v>1.25074959105693</v>
       </c>
       <c r="H24">
         <v>0.8405761734936377</v>
@@ -1272,10 +1272,10 @@
         <v>0.07853732115018985</v>
       </c>
       <c r="J24">
-        <v>0.7480403741250683</v>
+        <v>0.748040374125047</v>
       </c>
       <c r="K24">
-        <v>0.2806729167473136</v>
+        <v>0.2806729167473279</v>
       </c>
       <c r="L24">
         <v>0.8885538594925109</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.170586543016725</v>
+        <v>2.170586543016782</v>
       </c>
       <c r="C25">
-        <v>0.5310521995028523</v>
+        <v>0.5310521995026818</v>
       </c>
       <c r="D25">
-        <v>0.01586762139499243</v>
+        <v>0.01586762139508124</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>1.072284835939215</v>
       </c>
       <c r="H25">
-        <v>0.7476974351240955</v>
+        <v>0.7476974351240884</v>
       </c>
       <c r="I25">
-        <v>0.06862112319631564</v>
+        <v>0.06862112319631208</v>
       </c>
       <c r="J25">
-        <v>0.6073622135318857</v>
+        <v>0.6073622135318786</v>
       </c>
       <c r="K25">
-        <v>0.2286225338925902</v>
+        <v>0.2286225338925831</v>
       </c>
       <c r="L25">
-        <v>0.719585771429557</v>
+        <v>0.7195857714295641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807387175973815</v>
+        <v>1.807387175973872</v>
       </c>
       <c r="C2">
-        <v>0.4434135177276062</v>
+        <v>0.4434135177277199</v>
       </c>
       <c r="D2">
-        <v>0.01435586688850776</v>
+        <v>0.01435586688839408</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0.9507682142786678</v>
       </c>
       <c r="H2">
-        <v>0.6865241992411555</v>
+        <v>0.6865241992411413</v>
       </c>
       <c r="I2">
-        <v>0.0619524518887058</v>
+        <v>0.06195245188869514</v>
       </c>
       <c r="J2">
         <v>0.5058048969868736</v>
       </c>
       <c r="K2">
-        <v>0.1917649419051415</v>
+        <v>0.1917649419051557</v>
       </c>
       <c r="L2">
-        <v>0.5985152447837905</v>
+        <v>0.5985152447837763</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>1.564346997202222</v>
       </c>
       <c r="C3">
-        <v>0.3848346169438059</v>
+        <v>0.3848346169439196</v>
       </c>
       <c r="D3">
-        <v>0.01332685155125901</v>
+        <v>0.01332685155124125</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.213760904637738</v>
+        <v>1.213760904637752</v>
       </c>
       <c r="G3">
-        <v>0.8734506138802658</v>
+        <v>0.8734506138802729</v>
       </c>
       <c r="H3">
-        <v>0.6488090824150845</v>
+        <v>0.6488090824150774</v>
       </c>
       <c r="I3">
-        <v>0.05775728446046458</v>
+        <v>0.05775728446044148</v>
       </c>
       <c r="J3">
-        <v>0.4378618246212298</v>
+        <v>0.4378618246212582</v>
       </c>
       <c r="K3">
-        <v>0.1674942699544992</v>
+        <v>0.1674942699545205</v>
       </c>
       <c r="L3">
-        <v>0.5180162331498792</v>
+        <v>0.5180162331498934</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.4162708398039</v>
+        <v>1.416270839804099</v>
       </c>
       <c r="C4">
-        <v>0.3491604540434992</v>
+        <v>0.3491604540434707</v>
       </c>
       <c r="D4">
-        <v>0.01269195170683091</v>
+        <v>0.01269195170670656</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>1.144888831012452</v>
       </c>
       <c r="G4">
-        <v>0.8281279813157809</v>
+        <v>0.828127981315788</v>
       </c>
       <c r="H4">
-        <v>0.6272747974147492</v>
+        <v>0.6272747974147563</v>
       </c>
       <c r="I4">
-        <v>0.05532069294483044</v>
+        <v>0.05532069294482689</v>
       </c>
       <c r="J4">
-        <v>0.3964694978822152</v>
+        <v>0.3964694978821797</v>
       </c>
       <c r="K4">
-        <v>0.1528804732300024</v>
+        <v>0.1528804732299882</v>
       </c>
       <c r="L4">
-        <v>0.469198999374818</v>
+        <v>0.4691989993748251</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356167216632116</v>
+        <v>1.356167216632002</v>
       </c>
       <c r="C5">
-        <v>0.3346821839313634</v>
+        <v>0.3346821839312497</v>
       </c>
       <c r="D5">
-        <v>0.01243234525773218</v>
+        <v>0.01243234525770376</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.117478807527533</v>
+        <v>1.117478807527519</v>
       </c>
       <c r="G5">
-        <v>0.8101540137366925</v>
+        <v>0.8101540137366783</v>
       </c>
       <c r="H5">
         <v>0.6188769931214324</v>
       </c>
       <c r="I5">
-        <v>0.05435995843379615</v>
+        <v>0.05435995843377839</v>
       </c>
       <c r="J5">
-        <v>0.3796686386351666</v>
+        <v>0.3796686386351453</v>
       </c>
       <c r="K5">
-        <v>0.1469895357898352</v>
+        <v>0.1469895357898565</v>
       </c>
       <c r="L5">
-        <v>0.4494377953056343</v>
+        <v>0.4494377953056414</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.346200050530598</v>
+        <v>1.346200050530427</v>
       </c>
       <c r="C6">
-        <v>0.3322812514488476</v>
+        <v>0.332281251448876</v>
       </c>
       <c r="D6">
-        <v>0.01238918193177341</v>
+        <v>0.01238918193184446</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>1.112965293590847</v>
       </c>
       <c r="G6">
-        <v>0.8071981017877476</v>
+        <v>0.8071981017877334</v>
       </c>
       <c r="H6">
         <v>0.6175044979297795</v>
       </c>
       <c r="I6">
-        <v>0.05420229510456309</v>
+        <v>0.05420229510458086</v>
       </c>
       <c r="J6">
         <v>0.3768824927277166</v>
       </c>
       <c r="K6">
-        <v>0.1460150041919164</v>
+        <v>0.1460150041918951</v>
       </c>
       <c r="L6">
-        <v>0.4461638617787358</v>
+        <v>0.4461638617787216</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415459359749946</v>
+        <v>1.415459359750031</v>
       </c>
       <c r="C7">
         <v>0.3489649736110891</v>
       </c>
       <c r="D7">
-        <v>0.01268845425158105</v>
+        <v>0.0126884542515846</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.144516592214629</v>
+        <v>1.144516592214615</v>
       </c>
       <c r="G7">
         <v>0.8278836300695218</v>
       </c>
       <c r="H7">
-        <v>0.6271600516094367</v>
+        <v>0.627160051609458</v>
       </c>
       <c r="I7">
-        <v>0.05530760936363421</v>
+        <v>0.05530760936363954</v>
       </c>
       <c r="J7">
-        <v>0.3962426637924921</v>
+        <v>0.3962426637924992</v>
       </c>
       <c r="K7">
-        <v>0.1528007760861811</v>
+        <v>0.1528007760861776</v>
       </c>
       <c r="L7">
         <v>0.4689319842308635</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.723315986425206</v>
+        <v>1.723315986425121</v>
       </c>
       <c r="C8">
-        <v>0.4231454532214798</v>
+        <v>0.4231454532215082</v>
       </c>
       <c r="D8">
-        <v>0.0140016327262984</v>
+        <v>0.01400163272636945</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.28966762605927</v>
       </c>
       <c r="G8">
-        <v>0.9236343342666231</v>
+        <v>0.9236343342666373</v>
       </c>
       <c r="H8">
         <v>0.6731641253369389</v>
@@ -664,13 +664,13 @@
         <v>0.06047529120530371</v>
       </c>
       <c r="J8">
-        <v>0.4823013459366976</v>
+        <v>0.4823013459367402</v>
       </c>
       <c r="K8">
-        <v>0.1833313807836916</v>
+        <v>0.1833313807836561</v>
       </c>
       <c r="L8">
-        <v>0.5706195068733066</v>
+        <v>0.570619506873328</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.338693849145216</v>
+        <v>2.338693849145045</v>
       </c>
       <c r="C9">
-        <v>0.5716675506295417</v>
+        <v>0.5716675506295701</v>
       </c>
       <c r="D9">
-        <v>0.01655816739982541</v>
+        <v>0.01655816739974014</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0.7777547748220073</v>
       </c>
       <c r="I9">
-        <v>0.07185304248148938</v>
+        <v>0.07185304248147872</v>
       </c>
       <c r="J9">
-        <v>0.6543810967377652</v>
+        <v>0.6543810967377581</v>
       </c>
       <c r="K9">
-        <v>0.2458982160528862</v>
+        <v>0.2458982160528791</v>
       </c>
       <c r="L9">
-        <v>0.7759077674406996</v>
+        <v>0.7759077674406853</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.801850709802011</v>
+        <v>2.801850709802125</v>
       </c>
       <c r="C10">
-        <v>0.6837736118665418</v>
+        <v>0.683773611866485</v>
       </c>
       <c r="D10">
-        <v>0.01843506887479762</v>
+        <v>0.01843506887468749</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>1.848235527747349</v>
       </c>
       <c r="G10">
-        <v>1.298035194163589</v>
+        <v>1.298035194163575</v>
       </c>
       <c r="H10">
         <v>0.8656586145815695</v>
       </c>
       <c r="I10">
-        <v>0.08118404180687122</v>
+        <v>0.08118404180687477</v>
       </c>
       <c r="J10">
-        <v>0.7839773250295181</v>
+        <v>0.7839773250294897</v>
       </c>
       <c r="K10">
-        <v>0.2941368099078545</v>
+        <v>0.2941368099078403</v>
       </c>
       <c r="L10">
-        <v>0.9319267000844462</v>
+        <v>0.931926700084432</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,7 +757,7 @@
         <v>3.015937178333445</v>
       </c>
       <c r="C11">
-        <v>0.7357068782267788</v>
+        <v>0.735706878226722</v>
       </c>
       <c r="D11">
         <v>0.01929138499051319</v>
@@ -766,25 +766,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.96674726162307</v>
+        <v>1.966747261623041</v>
       </c>
       <c r="G11">
         <v>1.378321729772551</v>
       </c>
       <c r="H11">
-        <v>0.9086265563074107</v>
+        <v>0.9086265563074249</v>
       </c>
       <c r="I11">
-        <v>0.08569366783894239</v>
+        <v>0.08569366783893173</v>
       </c>
       <c r="J11">
-        <v>0.8439109987893545</v>
+        <v>0.8439109987893403</v>
       </c>
       <c r="K11">
         <v>0.3167324577792883</v>
       </c>
       <c r="L11">
-        <v>1.004436164680506</v>
+        <v>1.004436164680492</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.097586449302582</v>
+        <v>3.097586449302639</v>
       </c>
       <c r="C12">
-        <v>0.7555340045545336</v>
+        <v>0.755534004554903</v>
       </c>
       <c r="D12">
-        <v>0.01961628487146427</v>
+        <v>0.01961628487157441</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,22 +807,22 @@
         <v>2.012535664085803</v>
       </c>
       <c r="G12">
-        <v>1.409404412858734</v>
+        <v>1.409404412858748</v>
       </c>
       <c r="H12">
-        <v>0.9253801837642754</v>
+        <v>0.9253801837642612</v>
       </c>
       <c r="I12">
-        <v>0.08744450167131745</v>
+        <v>0.08744450167131035</v>
       </c>
       <c r="J12">
-        <v>0.8667742313203064</v>
+        <v>0.8667742313202922</v>
       </c>
       <c r="K12">
-        <v>0.3253973355339426</v>
+        <v>0.3253973355339213</v>
       </c>
       <c r="L12">
-        <v>1.032152310539217</v>
+        <v>1.032152310539225</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>3.079974485324328</v>
       </c>
       <c r="C13">
-        <v>0.7512562551384292</v>
+        <v>0.7512562551385997</v>
       </c>
       <c r="D13">
-        <v>0.0195462789777352</v>
+        <v>0.0195462789777423</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0.9217495998524186</v>
       </c>
       <c r="I13">
-        <v>0.08706542327695743</v>
+        <v>0.08706542327695388</v>
       </c>
       <c r="J13">
-        <v>0.8618423096160939</v>
+        <v>0.8618423096160797</v>
       </c>
       <c r="K13">
-        <v>0.32352612636722</v>
+        <v>0.3235261263672413</v>
       </c>
       <c r="L13">
         <v>1.026171007207289</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.022642341725032</v>
+        <v>3.022642341725088</v>
       </c>
       <c r="C14">
-        <v>0.7373346752368946</v>
+        <v>0.7373346752370651</v>
       </c>
       <c r="D14">
-        <v>0.01931810032804648</v>
+        <v>0.0193181003279328</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.970495383861817</v>
+        <v>1.970495383861845</v>
       </c>
       <c r="G14">
-        <v>1.380864798661008</v>
+        <v>1.380864798661023</v>
       </c>
       <c r="H14">
         <v>0.9099948837851457</v>
       </c>
       <c r="I14">
-        <v>0.08583681453363923</v>
+        <v>0.08583681453365344</v>
       </c>
       <c r="J14">
-        <v>0.8457884464619241</v>
+        <v>0.8457884464619383</v>
       </c>
       <c r="K14">
         <v>0.3174430600060418</v>
       </c>
       <c r="L14">
-        <v>1.006710979999028</v>
+        <v>1.006710979999013</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.987603084885109</v>
+        <v>2.987603084885279</v>
       </c>
       <c r="C15">
-        <v>0.7288291309048134</v>
+        <v>0.7288291309048418</v>
       </c>
       <c r="D15">
-        <v>0.01917842537808312</v>
+        <v>0.01917842537817549</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0.9028593381875467</v>
       </c>
       <c r="I15">
-        <v>0.08509003329255194</v>
+        <v>0.08509003329256259</v>
       </c>
       <c r="J15">
         <v>0.8359776713634233</v>
       </c>
       <c r="K15">
-        <v>0.3137315867681281</v>
+        <v>0.3137315867681423</v>
       </c>
       <c r="L15">
-        <v>0.9948259875850809</v>
+        <v>0.9948259875850738</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.787935528979801</v>
+        <v>2.787935528979688</v>
       </c>
       <c r="C16">
-        <v>0.6804006811055388</v>
+        <v>0.6804006811053966</v>
       </c>
       <c r="D16">
         <v>0.01837917920686749</v>
@@ -959,19 +959,19 @@
         <v>1.840611725102917</v>
       </c>
       <c r="G16">
-        <v>1.292878819882176</v>
+        <v>1.292878819882162</v>
       </c>
       <c r="H16">
-        <v>0.8629150114641746</v>
+        <v>0.8629150114641817</v>
       </c>
       <c r="I16">
-        <v>0.08089507603798296</v>
+        <v>0.08089507603799717</v>
       </c>
       <c r="J16">
-        <v>0.7800824530844821</v>
+        <v>0.780082453084475</v>
       </c>
       <c r="K16">
-        <v>0.2926744629756755</v>
+        <v>0.2926744629756826</v>
       </c>
       <c r="L16">
         <v>0.9272220539361342</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.666377094188533</v>
+        <v>2.66637709418859</v>
       </c>
       <c r="C17">
-        <v>0.650949003577125</v>
+        <v>0.6509490035772956</v>
       </c>
       <c r="D17">
-        <v>0.01788968858788209</v>
+        <v>0.01788968858800288</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.774434917409934</v>
+        <v>1.774434917409948</v>
       </c>
       <c r="G17">
         <v>1.24816506804261</v>
       </c>
       <c r="H17">
-        <v>0.8392103483582858</v>
+        <v>0.8392103483582929</v>
       </c>
       <c r="I17">
-        <v>0.07839286843288917</v>
+        <v>0.07839286843287852</v>
       </c>
       <c r="J17">
         <v>0.7460615930246774</v>
       </c>
       <c r="K17">
-        <v>0.2799334540665086</v>
+        <v>0.2799334540664873</v>
       </c>
       <c r="L17">
         <v>0.8861679897482801</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.596773331810709</v>
+        <v>2.596773331810766</v>
       </c>
       <c r="C18">
-        <v>0.6340954835359867</v>
+        <v>0.6340954835359582</v>
       </c>
       <c r="D18">
-        <v>0.01760836353825113</v>
+        <v>0.01760836353822626</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.736889296371203</v>
+        <v>1.736889296371174</v>
       </c>
       <c r="G18">
-        <v>1.222833705059188</v>
+        <v>1.222833705059173</v>
       </c>
       <c r="H18">
-        <v>0.8258529781229242</v>
+        <v>0.8258529781229385</v>
       </c>
       <c r="I18">
-        <v>0.07697826573060951</v>
+        <v>0.07697826573062017</v>
       </c>
       <c r="J18">
-        <v>0.7265841374626945</v>
+        <v>0.726584137462666</v>
       </c>
       <c r="K18">
-        <v>0.2726655305730219</v>
+        <v>0.2726655305730148</v>
       </c>
       <c r="L18">
-        <v>0.8626968411402274</v>
+        <v>0.8626968411402132</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>2.573257906903621</v>
       </c>
       <c r="C19">
-        <v>0.6284032337202348</v>
+        <v>0.6284032337204337</v>
       </c>
       <c r="D19">
-        <v>0.01751314141254312</v>
+        <v>0.01751314141243654</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.724262753968205</v>
+        <v>1.724262753968247</v>
       </c>
       <c r="G19">
         <v>1.214321056673924</v>
       </c>
       <c r="H19">
-        <v>0.8213764125647955</v>
+        <v>0.8213764125648098</v>
       </c>
       <c r="I19">
-        <v>0.07650338620317498</v>
+        <v>0.07650338620318209</v>
       </c>
       <c r="J19">
-        <v>0.7200041718215218</v>
+        <v>0.7200041718215076</v>
       </c>
       <c r="K19">
-        <v>0.2702146834445145</v>
+        <v>0.2702146834445074</v>
       </c>
       <c r="L19">
-        <v>0.854773235386574</v>
+        <v>0.8547732353865811</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>2.679284128542974</v>
       </c>
       <c r="C20">
-        <v>0.6540750697916167</v>
+        <v>0.6540750697917872</v>
       </c>
       <c r="D20">
-        <v>0.01794177141298903</v>
+        <v>0.01794177141287534</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.781425238377551</v>
+        <v>1.781425238377565</v>
       </c>
       <c r="G20">
         <v>1.252884333577924</v>
       </c>
       <c r="H20">
-        <v>0.8417047168008907</v>
+        <v>0.8417047168008978</v>
       </c>
       <c r="I20">
-        <v>0.07865665186349347</v>
+        <v>0.0786566518634686</v>
       </c>
       <c r="J20">
-        <v>0.7496736266995043</v>
+        <v>0.7496736266994972</v>
       </c>
       <c r="K20">
-        <v>0.2812834071542269</v>
+        <v>0.2812834071542341</v>
       </c>
       <c r="L20">
         <v>0.8905233030858497</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.039465679074738</v>
+        <v>3.039465679074794</v>
       </c>
       <c r="C21">
-        <v>0.7414191804213317</v>
+        <v>0.7414191804210759</v>
       </c>
       <c r="D21">
-        <v>0.01938510240280067</v>
+        <v>0.01938510240290725</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.979909029363981</v>
+        <v>1.979909029363995</v>
       </c>
       <c r="G21">
-        <v>1.387252891395008</v>
+        <v>1.387252891395022</v>
       </c>
       <c r="H21">
         <v>0.9134339698869098</v>
       </c>
       <c r="I21">
-        <v>0.08619647293797783</v>
+        <v>0.08619647293802046</v>
       </c>
       <c r="J21">
-        <v>0.850499076654458</v>
+        <v>0.8504990766544296</v>
       </c>
       <c r="K21">
-        <v>0.3192267368868684</v>
+        <v>0.3192267368868471</v>
       </c>
       <c r="L21">
-        <v>1.012419528790353</v>
+        <v>1.012419528790332</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.278292238684799</v>
+        <v>3.278292238684855</v>
       </c>
       <c r="C22">
-        <v>0.799457444273429</v>
+        <v>0.7994574442737132</v>
       </c>
       <c r="D22">
-        <v>0.02033224320195259</v>
+        <v>0.02033224320205917</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.114996958871401</v>
+        <v>2.114996958871387</v>
       </c>
       <c r="G22">
         <v>1.479077943442391</v>
       </c>
       <c r="H22">
-        <v>0.9631558072713204</v>
+        <v>0.9631558072713062</v>
       </c>
       <c r="I22">
-        <v>0.09137838483815486</v>
+        <v>0.09137838483815841</v>
       </c>
       <c r="J22">
-        <v>0.9173862422801164</v>
+        <v>0.9173862422801307</v>
       </c>
       <c r="K22">
         <v>0.34466477125941</v>
       </c>
       <c r="L22">
-        <v>1.093612422662822</v>
+        <v>1.093612422662794</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.150479496885509</v>
+        <v>3.150479496885453</v>
       </c>
       <c r="C23">
         <v>0.7683844324565996</v>
       </c>
       <c r="D23">
-        <v>0.01982628324685365</v>
+        <v>0.01982628324707036</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.042367592686588</v>
+        <v>2.042367592686603</v>
       </c>
       <c r="G23">
-        <v>1.429673339573469</v>
+        <v>1.429673339573498</v>
       </c>
       <c r="H23">
         <v>0.9363387226426454</v>
       </c>
       <c r="I23">
-        <v>0.0885876204505287</v>
+        <v>0.0885876204505216</v>
       </c>
       <c r="J23">
-        <v>0.8815868787368544</v>
+        <v>0.881586878736897</v>
       </c>
       <c r="K23">
-        <v>0.3310241663965812</v>
+        <v>0.3310241663965883</v>
       </c>
       <c r="L23">
-        <v>1.050125011214966</v>
+        <v>1.05012501121498</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.673447987334953</v>
+        <v>2.67344798733501</v>
       </c>
       <c r="C24">
-        <v>0.6526615322738394</v>
+        <v>0.6526615322738962</v>
       </c>
       <c r="D24">
-        <v>0.01791822450860536</v>
+        <v>0.01791822450850944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.778263364003479</v>
+        <v>1.778263364003493</v>
       </c>
       <c r="G24">
-        <v>1.25074959105693</v>
+        <v>1.250749591056959</v>
       </c>
       <c r="H24">
         <v>0.8405761734936377</v>
@@ -1272,10 +1272,10 @@
         <v>0.07853732115018985</v>
       </c>
       <c r="J24">
-        <v>0.748040374125047</v>
+        <v>0.7480403741250683</v>
       </c>
       <c r="K24">
-        <v>0.2806729167473279</v>
+        <v>0.2806729167473136</v>
       </c>
       <c r="L24">
         <v>0.8885538594925109</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.170586543016782</v>
+        <v>2.170586543016725</v>
       </c>
       <c r="C25">
-        <v>0.5310521995026818</v>
+        <v>0.5310521995028523</v>
       </c>
       <c r="D25">
-        <v>0.01586762139508124</v>
+        <v>0.01586762139499243</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>1.072284835939215</v>
       </c>
       <c r="H25">
-        <v>0.7476974351240884</v>
+        <v>0.7476974351240955</v>
       </c>
       <c r="I25">
-        <v>0.06862112319631208</v>
+        <v>0.06862112319631564</v>
       </c>
       <c r="J25">
-        <v>0.6073622135318786</v>
+        <v>0.6073622135318857</v>
       </c>
       <c r="K25">
-        <v>0.2286225338925831</v>
+        <v>0.2286225338925902</v>
       </c>
       <c r="L25">
-        <v>0.7195857714295641</v>
+        <v>0.719585771429557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807387175973872</v>
+        <v>1.807405802366873</v>
       </c>
       <c r="C2">
-        <v>0.4434135177277199</v>
+        <v>0.4431834619886672</v>
       </c>
       <c r="D2">
-        <v>0.01435586688839408</v>
+        <v>0.01440671693929119</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.330575993302645</v>
+        <v>1.328802592979713</v>
       </c>
       <c r="G2">
-        <v>0.9507682142786678</v>
+        <v>0.2940870842769954</v>
       </c>
       <c r="H2">
-        <v>0.6865241992411413</v>
+        <v>0.6591814856957114</v>
       </c>
       <c r="I2">
-        <v>0.06195245188869514</v>
+        <v>0.6854402160656221</v>
       </c>
       <c r="J2">
-        <v>0.5058048969868736</v>
+        <v>0.06193693954737256</v>
       </c>
       <c r="K2">
-        <v>0.1917649419051557</v>
+        <v>0.5057365821266941</v>
       </c>
       <c r="L2">
-        <v>0.5985152447837763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1917780976004053</v>
+      </c>
+      <c r="M2">
+        <v>0.5985384323183425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.564346997202222</v>
+        <v>1.56437953829348</v>
       </c>
       <c r="C3">
-        <v>0.3848346169439196</v>
+        <v>0.3846428968251416</v>
       </c>
       <c r="D3">
-        <v>0.01332685155124125</v>
+        <v>0.01336947926455423</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.213760904637752</v>
+        <v>1.21216781262531</v>
       </c>
       <c r="G3">
-        <v>0.8734506138802729</v>
+        <v>0.2659788378447203</v>
       </c>
       <c r="H3">
-        <v>0.6488090824150774</v>
+        <v>0.6102103696426084</v>
       </c>
       <c r="I3">
-        <v>0.05775728446044148</v>
+        <v>0.6478277239856354</v>
       </c>
       <c r="J3">
-        <v>0.4378618246212582</v>
+        <v>0.05774437198444105</v>
       </c>
       <c r="K3">
-        <v>0.1674942699545205</v>
+        <v>0.437807753254063</v>
       </c>
       <c r="L3">
-        <v>0.5180162331498934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1675066231923452</v>
+      </c>
+      <c r="M3">
+        <v>0.5180392778837728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416270839804099</v>
+        <v>1.416309853402566</v>
       </c>
       <c r="C4">
-        <v>0.3491604540434707</v>
+        <v>0.3489915709730553</v>
       </c>
       <c r="D4">
-        <v>0.01269195170670656</v>
+        <v>0.01272947764343968</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.144888831012452</v>
+        <v>1.143403933101951</v>
       </c>
       <c r="G4">
-        <v>0.828127981315788</v>
+        <v>0.2494027630907709</v>
       </c>
       <c r="H4">
-        <v>0.6272747974147563</v>
+        <v>0.5816067821796409</v>
       </c>
       <c r="I4">
-        <v>0.05532069294482689</v>
+        <v>0.6263551507783305</v>
       </c>
       <c r="J4">
-        <v>0.3964694978821797</v>
+        <v>0.05530943563267066</v>
       </c>
       <c r="K4">
-        <v>0.1528804732299882</v>
+        <v>0.3964235326025758</v>
       </c>
       <c r="L4">
-        <v>0.4691989993748251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1528922551988892</v>
+      </c>
+      <c r="M4">
+        <v>0.4692213760865585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356167216632002</v>
+        <v>1.356208406847543</v>
       </c>
       <c r="C5">
-        <v>0.3346821839312497</v>
+        <v>0.334522457513458</v>
       </c>
       <c r="D5">
-        <v>0.01243234525770376</v>
+        <v>0.01246777866270676</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.117478807527519</v>
+        <v>1.116037452965969</v>
       </c>
       <c r="G5">
-        <v>0.8101540137366783</v>
+        <v>0.2428039787785963</v>
       </c>
       <c r="H5">
-        <v>0.6188769931214324</v>
+        <v>0.5702891389045845</v>
       </c>
       <c r="I5">
-        <v>0.05435995843377839</v>
+        <v>0.6179822120360043</v>
       </c>
       <c r="J5">
-        <v>0.3796686386351453</v>
+        <v>0.05434939058020838</v>
       </c>
       <c r="K5">
-        <v>0.1469895357898565</v>
+        <v>0.3796258359964426</v>
       </c>
       <c r="L5">
-        <v>0.4494377953056414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1470010687617425</v>
+      </c>
+      <c r="M5">
+        <v>0.4494597710089181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.346200050530427</v>
+        <v>1.346241575975711</v>
       </c>
       <c r="C6">
-        <v>0.332281251448876</v>
+        <v>0.3321230371848287</v>
       </c>
       <c r="D6">
-        <v>0.01238918193184446</v>
+        <v>0.01242426705360344</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.112965293590847</v>
+        <v>1.11153113872092</v>
       </c>
       <c r="G6">
-        <v>0.8071981017877334</v>
+        <v>0.2417172507174001</v>
       </c>
       <c r="H6">
-        <v>0.6175044979297795</v>
+        <v>0.5684294689624352</v>
       </c>
       <c r="I6">
-        <v>0.05420229510458086</v>
+        <v>0.6166138299107047</v>
       </c>
       <c r="J6">
-        <v>0.3768824927277166</v>
+        <v>0.05419184264244414</v>
       </c>
       <c r="K6">
-        <v>0.1460150041918951</v>
+        <v>0.3768402073026706</v>
       </c>
       <c r="L6">
-        <v>0.4461638617787216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1460264949349437</v>
+      </c>
+      <c r="M6">
+        <v>0.4461857635853761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415459359750031</v>
+        <v>1.415498404494571</v>
       </c>
       <c r="C7">
-        <v>0.3489649736110891</v>
+        <v>0.3487962146027712</v>
       </c>
       <c r="D7">
-        <v>0.0126884542515846</v>
+        <v>0.01272595202235038</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.144516592214615</v>
+        <v>1.143032283650214</v>
       </c>
       <c r="G7">
-        <v>0.8278836300695218</v>
+        <v>0.2493131572482667</v>
       </c>
       <c r="H7">
-        <v>0.627160051609458</v>
+        <v>0.5814528155627556</v>
       </c>
       <c r="I7">
-        <v>0.05530760936363954</v>
+        <v>0.6262407414065834</v>
       </c>
       <c r="J7">
-        <v>0.3962426637924992</v>
+        <v>0.05529636128902737</v>
       </c>
       <c r="K7">
-        <v>0.1528007760861776</v>
+        <v>0.3961967417095309</v>
       </c>
       <c r="L7">
-        <v>0.4689319842308635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1528125547582349</v>
+      </c>
+      <c r="M7">
+        <v>0.4689543560344802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.723315986425121</v>
+        <v>1.723339878265449</v>
       </c>
       <c r="C8">
-        <v>0.4231454532215082</v>
+        <v>0.4229287779677406</v>
       </c>
       <c r="D8">
-        <v>0.01400163272636945</v>
+        <v>0.01404965867997632</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.28966762605927</v>
+        <v>1.287956972594955</v>
       </c>
       <c r="G8">
-        <v>0.9236343342666373</v>
+        <v>0.2842440080730384</v>
       </c>
       <c r="H8">
-        <v>0.6731641253369389</v>
+        <v>0.6419735824996025</v>
       </c>
       <c r="I8">
-        <v>0.06047529120530371</v>
+        <v>0.6721158251175083</v>
       </c>
       <c r="J8">
-        <v>0.4823013459367402</v>
+        <v>0.06046066321730237</v>
       </c>
       <c r="K8">
-        <v>0.1833313807836561</v>
+        <v>0.4822380876727905</v>
       </c>
       <c r="L8">
-        <v>0.570619506873328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1833442783840766</v>
+      </c>
+      <c r="M8">
+        <v>0.570642776504485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.338693849145045</v>
+        <v>2.338668572564188</v>
       </c>
       <c r="C9">
-        <v>0.5716675506295701</v>
+        <v>0.5713500041058523</v>
       </c>
       <c r="D9">
-        <v>0.01655816739974014</v>
+        <v>0.01662642362911271</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.599970549294397</v>
+        <v>1.597791713477093</v>
       </c>
       <c r="G9">
-        <v>1.130702867211596</v>
+        <v>0.3589227245721531</v>
       </c>
       <c r="H9">
-        <v>0.7777547748220073</v>
+        <v>0.7737451100889103</v>
       </c>
       <c r="I9">
-        <v>0.07185304248147872</v>
+        <v>0.776440958204482</v>
       </c>
       <c r="J9">
-        <v>0.6543810967377581</v>
+        <v>0.07183223994306331</v>
       </c>
       <c r="K9">
-        <v>0.2458982160528791</v>
+        <v>0.6542777524285626</v>
       </c>
       <c r="L9">
-        <v>0.7759077674406853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2459124965018091</v>
+      </c>
+      <c r="M9">
+        <v>0.7759273167473708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.801850709802125</v>
+        <v>2.801772663867325</v>
       </c>
       <c r="C10">
-        <v>0.683773611866485</v>
+        <v>0.6833756226768344</v>
       </c>
       <c r="D10">
-        <v>0.01843506887468749</v>
+        <v>0.01851794538061569</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.848235527747349</v>
+        <v>1.845690975446061</v>
       </c>
       <c r="G10">
-        <v>1.298035194163575</v>
+        <v>0.4187285423601566</v>
       </c>
       <c r="H10">
-        <v>0.8656586145815695</v>
+        <v>0.8807893327256551</v>
       </c>
       <c r="I10">
-        <v>0.08118404180687477</v>
+        <v>0.8641384914746268</v>
       </c>
       <c r="J10">
-        <v>0.7839773250294897</v>
+        <v>0.08115894936083023</v>
       </c>
       <c r="K10">
-        <v>0.2941368099078403</v>
+        <v>0.7838392096548006</v>
       </c>
       <c r="L10">
-        <v>0.931926700084432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2941512974006812</v>
+      </c>
+      <c r="M10">
+        <v>0.9319387660183551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.015937178333445</v>
+        <v>3.015830247373117</v>
       </c>
       <c r="C11">
-        <v>0.735706878226722</v>
+        <v>0.7352703630761823</v>
       </c>
       <c r="D11">
-        <v>0.01929138499051319</v>
+        <v>0.01938086190262212</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.966747261623041</v>
+        <v>1.964029794629184</v>
       </c>
       <c r="G11">
-        <v>1.378321729772551</v>
+        <v>0.4473027471928361</v>
       </c>
       <c r="H11">
-        <v>0.9086265563074249</v>
+        <v>0.932273936815335</v>
       </c>
       <c r="I11">
-        <v>0.08569366783893173</v>
+        <v>0.907009202157596</v>
       </c>
       <c r="J11">
-        <v>0.8439109987893403</v>
+        <v>0.08566666651471522</v>
       </c>
       <c r="K11">
-        <v>0.3167324577792883</v>
+        <v>0.843755486881193</v>
       </c>
       <c r="L11">
-        <v>1.004436164680492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3167467749941295</v>
+      </c>
+      <c r="M11">
+        <v>1.004443415435048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.097586449302639</v>
+        <v>3.09746775364988</v>
       </c>
       <c r="C12">
-        <v>0.755534004554903</v>
+        <v>0.7550825684743643</v>
       </c>
       <c r="D12">
-        <v>0.01961628487157441</v>
+        <v>0.01970825402731435</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.012535664085803</v>
+        <v>2.009751598932326</v>
       </c>
       <c r="G12">
-        <v>1.409404412858748</v>
+        <v>0.4583475079096786</v>
       </c>
       <c r="H12">
-        <v>0.9253801837642612</v>
+        <v>0.9522242112983577</v>
       </c>
       <c r="I12">
-        <v>0.08744450167131035</v>
+        <v>0.9237254328061368</v>
       </c>
       <c r="J12">
-        <v>0.8667742313202922</v>
+        <v>0.08741678233466743</v>
       </c>
       <c r="K12">
-        <v>0.3253973355339213</v>
+        <v>0.8666118631074937</v>
       </c>
       <c r="L12">
-        <v>1.032152310539225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3254115409831044</v>
+      </c>
+      <c r="M12">
+        <v>1.03215749692923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.079974485324328</v>
+        <v>3.079858362360994</v>
       </c>
       <c r="C13">
-        <v>0.7512562551385997</v>
+        <v>0.7508080482590174</v>
       </c>
       <c r="D13">
-        <v>0.0195462789777423</v>
+        <v>0.01963771170326112</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.002631947282353</v>
+        <v>1.999862278115017</v>
       </c>
       <c r="G13">
-        <v>1.402678575920262</v>
+        <v>0.4559583711697144</v>
       </c>
       <c r="H13">
-        <v>0.9217495998524186</v>
+        <v>0.9479064542001936</v>
       </c>
       <c r="I13">
-        <v>0.08706542327695388</v>
+        <v>0.920102930249854</v>
       </c>
       <c r="J13">
-        <v>0.8618423096160797</v>
+        <v>0.08703785838676836</v>
       </c>
       <c r="K13">
-        <v>0.3235261263672413</v>
+        <v>0.861681430706156</v>
       </c>
       <c r="L13">
-        <v>1.026171007207289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3235403581568477</v>
+      </c>
+      <c r="M13">
+        <v>1.026176649585281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.022642341725088</v>
+        <v>3.022534460223994</v>
       </c>
       <c r="C14">
-        <v>0.7373346752370651</v>
+        <v>0.7368969395242289</v>
       </c>
       <c r="D14">
-        <v>0.0193181003279328</v>
+        <v>0.01940778242211039</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.970495383861845</v>
+        <v>1.967772461335983</v>
       </c>
       <c r="G14">
-        <v>1.380864798661023</v>
+        <v>0.4482067412819646</v>
       </c>
       <c r="H14">
-        <v>0.9099948837851457</v>
+        <v>0.9339058304158527</v>
       </c>
       <c r="I14">
-        <v>0.08583681453365344</v>
+        <v>0.9083744651226766</v>
       </c>
       <c r="J14">
-        <v>0.8457884464619383</v>
+        <v>0.08580975404991165</v>
       </c>
       <c r="K14">
-        <v>0.3174430600060418</v>
+        <v>0.845632376124982</v>
       </c>
       <c r="L14">
-        <v>1.006710979999013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3174573690329225</v>
+      </c>
+      <c r="M14">
+        <v>1.00671806598654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.987603084885279</v>
+        <v>2.987500139850681</v>
       </c>
       <c r="C15">
-        <v>0.7288291309048418</v>
+        <v>0.7283977641101274</v>
       </c>
       <c r="D15">
-        <v>0.01917842537817549</v>
+        <v>0.01926703422536136</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.950932837199332</v>
+        <v>1.948238396887717</v>
       </c>
       <c r="G15">
-        <v>1.367594329712787</v>
+        <v>0.4434887301269157</v>
       </c>
       <c r="H15">
-        <v>0.9028593381875467</v>
+        <v>0.9253908667573967</v>
       </c>
       <c r="I15">
-        <v>0.08509003329256259</v>
+        <v>0.9012549208358678</v>
       </c>
       <c r="J15">
-        <v>0.8359776713634233</v>
+        <v>0.08506328235748839</v>
       </c>
       <c r="K15">
-        <v>0.3137315867681423</v>
+        <v>0.8358245100965291</v>
       </c>
       <c r="L15">
-        <v>0.9948259875850738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3137459366421496</v>
+      </c>
+      <c r="M15">
+        <v>0.9948339252094129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.787935528979688</v>
+        <v>2.787859262297673</v>
       </c>
       <c r="C16">
-        <v>0.6804006811053966</v>
+        <v>0.6800051663421698</v>
       </c>
       <c r="D16">
-        <v>0.01837917920686749</v>
+        <v>0.01846162335233359</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.840611725102917</v>
+        <v>1.838078326820522</v>
       </c>
       <c r="G16">
-        <v>1.292878819882162</v>
+        <v>0.41689097134919</v>
       </c>
       <c r="H16">
-        <v>0.8629150114641817</v>
+        <v>0.877485226562527</v>
       </c>
       <c r="I16">
-        <v>0.08089507603799717</v>
+        <v>0.8614011670868038</v>
       </c>
       <c r="J16">
-        <v>0.780082453084475</v>
+        <v>0.08087010909758163</v>
       </c>
       <c r="K16">
-        <v>0.2926744629756826</v>
+        <v>0.7799454394244947</v>
       </c>
       <c r="L16">
-        <v>0.9272220539361342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2926889555230261</v>
+      </c>
+      <c r="M16">
+        <v>0.9272344030446433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.66637709418859</v>
+        <v>2.666315860768748</v>
       </c>
       <c r="C17">
-        <v>0.6509490035772956</v>
+        <v>0.6505749518227049</v>
       </c>
       <c r="D17">
-        <v>0.01788968858800288</v>
+        <v>0.01796833803144793</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.774434917409948</v>
+        <v>1.771998517571575</v>
       </c>
       <c r="G17">
-        <v>1.24816506804261</v>
+        <v>0.4009432222518399</v>
       </c>
       <c r="H17">
-        <v>0.8392103483582929</v>
+        <v>0.8488470689198522</v>
       </c>
       <c r="I17">
-        <v>0.07839286843287852</v>
+        <v>0.8377511406138467</v>
       </c>
       <c r="J17">
-        <v>0.7460615930246774</v>
+        <v>0.07836900603020069</v>
       </c>
       <c r="K17">
-        <v>0.2799334540664873</v>
+        <v>0.745934053260477</v>
       </c>
       <c r="L17">
-        <v>0.8861679897482801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2799479603508033</v>
+      </c>
+      <c r="M17">
+        <v>0.8861826585577788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.596773331810766</v>
+        <v>2.596720294276054</v>
       </c>
       <c r="C18">
-        <v>0.6340954835359582</v>
+        <v>0.6337335985294885</v>
       </c>
       <c r="D18">
-        <v>0.01760836353822626</v>
+        <v>0.01768482562084372</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.736889296371174</v>
+        <v>1.734508083125903</v>
       </c>
       <c r="G18">
-        <v>1.222833705059173</v>
+        <v>0.3918974618228788</v>
       </c>
       <c r="H18">
-        <v>0.8258529781229385</v>
+        <v>0.8326342296279137</v>
       </c>
       <c r="I18">
-        <v>0.07697826573062017</v>
+        <v>0.8244248838541566</v>
       </c>
       <c r="J18">
-        <v>0.726584137462666</v>
+        <v>0.07695504273811338</v>
       </c>
       <c r="K18">
-        <v>0.2726655305730148</v>
+        <v>0.7264619010266173</v>
       </c>
       <c r="L18">
-        <v>0.8626968411402132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2726800205136826</v>
+      </c>
+      <c r="M18">
+        <v>0.8627127139834059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.573257906903621</v>
+        <v>2.573207570430384</v>
       </c>
       <c r="C19">
-        <v>0.6284032337204337</v>
+        <v>0.6280454390860939</v>
       </c>
       <c r="D19">
-        <v>0.01751314141243654</v>
+        <v>0.01758886207405297</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.724262753968247</v>
+        <v>1.721900127156673</v>
       </c>
       <c r="G19">
-        <v>1.214321056673924</v>
+        <v>0.3888557376607196</v>
       </c>
       <c r="H19">
-        <v>0.8213764125648098</v>
+        <v>0.8271878156577088</v>
       </c>
       <c r="I19">
-        <v>0.07650338620318209</v>
+        <v>0.8199588017589576</v>
       </c>
       <c r="J19">
-        <v>0.7200041718215076</v>
+        <v>0.07648038044304428</v>
       </c>
       <c r="K19">
-        <v>0.2702146834445074</v>
+        <v>0.7198837071288651</v>
       </c>
       <c r="L19">
-        <v>0.8547732353865811</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2702291639417282</v>
+      </c>
+      <c r="M19">
+        <v>0.8547894945964174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.679284128542974</v>
+        <v>2.679221342314008</v>
       </c>
       <c r="C20">
-        <v>0.6540750697917872</v>
+        <v>0.6536987520751438</v>
       </c>
       <c r="D20">
-        <v>0.01794177141287534</v>
+        <v>0.01802082529973603</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.781425238377565</v>
+        <v>1.77897857664135</v>
       </c>
       <c r="G20">
-        <v>1.252884333577924</v>
+        <v>0.4026275571247453</v>
       </c>
       <c r="H20">
-        <v>0.8417047168008978</v>
+        <v>0.8518684713953206</v>
       </c>
       <c r="I20">
-        <v>0.0786566518634686</v>
+        <v>0.8402397258117347</v>
       </c>
       <c r="J20">
-        <v>0.7496736266994972</v>
+        <v>0.07863267146372621</v>
       </c>
       <c r="K20">
-        <v>0.2812834071542341</v>
+        <v>0.7495450937952128</v>
       </c>
       <c r="L20">
-        <v>0.8905233030858497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2812979145469896</v>
+      </c>
+      <c r="M20">
+        <v>0.8905377386906608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.039465679074794</v>
+        <v>3.039355400377758</v>
       </c>
       <c r="C21">
-        <v>0.7414191804210759</v>
+        <v>0.740978378553848</v>
       </c>
       <c r="D21">
-        <v>0.01938510240290725</v>
+        <v>0.01947529889462274</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.979909029363995</v>
+        <v>1.97717240813347</v>
       </c>
       <c r="G21">
-        <v>1.387252891395022</v>
+        <v>0.4504772592964912</v>
       </c>
       <c r="H21">
-        <v>0.9134339698869098</v>
+        <v>0.938005374361552</v>
       </c>
       <c r="I21">
-        <v>0.08619647293802046</v>
+        <v>0.9118058571551586</v>
       </c>
       <c r="J21">
-        <v>0.8504990766544296</v>
+        <v>0.08616926417882809</v>
       </c>
       <c r="K21">
-        <v>0.3192267368868471</v>
+        <v>0.8503416015750531</v>
       </c>
       <c r="L21">
-        <v>1.012419528790332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3192410245932464</v>
+      </c>
+      <c r="M21">
+        <v>1.012426197628756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.278292238684855</v>
+        <v>3.278146030881203</v>
       </c>
       <c r="C22">
-        <v>0.7994574442737132</v>
+        <v>0.7989725321868093</v>
       </c>
       <c r="D22">
-        <v>0.02033224320205917</v>
+        <v>0.02042968013362056</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.114996958871387</v>
+        <v>2.112064207136797</v>
       </c>
       <c r="G22">
-        <v>1.479077943442391</v>
+        <v>0.4830725074021842</v>
       </c>
       <c r="H22">
-        <v>0.9631558072713062</v>
+        <v>0.9969771943061545</v>
       </c>
       <c r="I22">
-        <v>0.09137838483815841</v>
+        <v>0.9614176663091598</v>
       </c>
       <c r="J22">
-        <v>0.9173862422801307</v>
+        <v>0.09134909345776165</v>
       </c>
       <c r="K22">
-        <v>0.34466477125941</v>
+        <v>0.917208262169396</v>
       </c>
       <c r="L22">
-        <v>1.093612422662794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3446786341149206</v>
+      </c>
+      <c r="M22">
+        <v>1.093612588571588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.150479496885453</v>
+        <v>3.150352958905899</v>
       </c>
       <c r="C23">
-        <v>0.7683844324565996</v>
+        <v>0.7679232627238264</v>
       </c>
       <c r="D23">
-        <v>0.01982628324707036</v>
+        <v>0.01991985964457044</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.042367592686603</v>
+        <v>2.039540191405749</v>
       </c>
       <c r="G23">
-        <v>1.429673339573498</v>
+        <v>0.4655448314584447</v>
       </c>
       <c r="H23">
-        <v>0.9363387226426454</v>
+        <v>0.9652388005467571</v>
       </c>
       <c r="I23">
-        <v>0.0885876204505216</v>
+        <v>0.9346596524217858</v>
       </c>
       <c r="J23">
-        <v>0.881586878736897</v>
+        <v>0.08855943864099558</v>
       </c>
       <c r="K23">
-        <v>0.3310241663965883</v>
+        <v>0.8814200033988016</v>
       </c>
       <c r="L23">
-        <v>1.05012501121498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3310382852837321</v>
+      </c>
+      <c r="M23">
+        <v>1.050128792687026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.67344798733501</v>
+        <v>2.673385904514078</v>
       </c>
       <c r="C24">
-        <v>0.6526615322738962</v>
+        <v>0.6522862395323159</v>
       </c>
       <c r="D24">
-        <v>0.01791822450850944</v>
+        <v>0.0179970955644464</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.778263364003493</v>
+        <v>1.775821343461999</v>
       </c>
       <c r="G24">
-        <v>1.250749591056959</v>
+        <v>0.401865688839095</v>
       </c>
       <c r="H24">
-        <v>0.8405761734936377</v>
+        <v>0.8505017155318058</v>
       </c>
       <c r="I24">
-        <v>0.07853732115018985</v>
+        <v>0.8391137980304251</v>
       </c>
       <c r="J24">
-        <v>0.7480403741250683</v>
+        <v>0.07851339408313152</v>
       </c>
       <c r="K24">
-        <v>0.2806729167473136</v>
+        <v>0.7479122906628319</v>
       </c>
       <c r="L24">
-        <v>0.8885538594925109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2806874237138075</v>
+      </c>
+      <c r="M24">
+        <v>0.8885684009300334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.170586543016725</v>
+        <v>2.170577107128508</v>
       </c>
       <c r="C25">
-        <v>0.5310521995028523</v>
+        <v>0.5307628840459699</v>
       </c>
       <c r="D25">
-        <v>0.01586762139499243</v>
+        <v>0.01593044817663269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.512826051281522</v>
+        <v>1.510777136144867</v>
       </c>
       <c r="G25">
-        <v>1.072284835939215</v>
+        <v>0.3379444745460773</v>
       </c>
       <c r="H25">
-        <v>0.7476974351240955</v>
+        <v>0.7364768283565581</v>
       </c>
       <c r="I25">
-        <v>0.06862112319631564</v>
+        <v>0.7464571346801208</v>
       </c>
       <c r="J25">
-        <v>0.6073622135318857</v>
+        <v>0.06860194491972749</v>
       </c>
       <c r="K25">
-        <v>0.2286225338925902</v>
+        <v>0.6072705191321788</v>
       </c>
       <c r="L25">
-        <v>0.719585771429557</v>
+        <v>0.2286365562481762</v>
+      </c>
+      <c r="M25">
+        <v>0.7196070473212473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807405802366873</v>
+        <v>2.454746301648186</v>
       </c>
       <c r="C2">
-        <v>0.4431834619886672</v>
+        <v>0.3051941052214602</v>
       </c>
       <c r="D2">
-        <v>0.01440671693929119</v>
+        <v>0.00746369911977407</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.328802592979713</v>
+        <v>1.87844676971622</v>
       </c>
       <c r="G2">
-        <v>0.2940870842769954</v>
+        <v>0.000834750373805861</v>
       </c>
       <c r="H2">
-        <v>0.6591814856957114</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6854402160656221</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06193693954737256</v>
+        <v>0.07082755372529004</v>
       </c>
       <c r="K2">
-        <v>0.5057365821266941</v>
+        <v>0.5647387793826155</v>
       </c>
       <c r="L2">
-        <v>0.1917780976004053</v>
+        <v>0.1684000348182124</v>
       </c>
       <c r="M2">
-        <v>0.5985384323183425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4255504532875563</v>
+      </c>
+      <c r="N2">
+        <v>1.393785251455995</v>
+      </c>
+      <c r="O2">
+        <v>1.345260822088605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.56437953829348</v>
+        <v>2.161569922445437</v>
       </c>
       <c r="C3">
-        <v>0.3846428968251416</v>
+        <v>0.2651506377686275</v>
       </c>
       <c r="D3">
-        <v>0.01336947926455423</v>
+        <v>0.006999244430316409</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.21216781262531</v>
+        <v>1.79260853250878</v>
       </c>
       <c r="G3">
-        <v>0.2659788378447203</v>
+        <v>0.0008415677608755836</v>
       </c>
       <c r="H3">
-        <v>0.6102103696426084</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6478277239856354</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05774437198444105</v>
+        <v>0.07223345404134784</v>
       </c>
       <c r="K3">
-        <v>0.437807753254063</v>
+        <v>0.4926268663477202</v>
       </c>
       <c r="L3">
-        <v>0.1675066231923452</v>
+        <v>0.1560598163153557</v>
       </c>
       <c r="M3">
-        <v>0.5180392778837728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3785404507393224</v>
+      </c>
+      <c r="N3">
+        <v>1.449690370681786</v>
+      </c>
+      <c r="O3">
+        <v>1.282580700298809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416309853402566</v>
+        <v>1.984250184054417</v>
       </c>
       <c r="C4">
-        <v>0.3489915709730553</v>
+        <v>0.2407537311317185</v>
       </c>
       <c r="D4">
-        <v>0.01272947764343968</v>
+        <v>0.006722500790949937</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.143403933101951</v>
+        <v>1.743117145937291</v>
       </c>
       <c r="G4">
-        <v>0.2494027630907709</v>
+        <v>0.0008458823359569742</v>
       </c>
       <c r="H4">
-        <v>0.5816067821796409</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6263551507783305</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05530943563267066</v>
+        <v>0.07313026203537731</v>
       </c>
       <c r="K4">
-        <v>0.3964235326025758</v>
+        <v>0.4489308630325652</v>
       </c>
       <c r="L4">
-        <v>0.1528922551988892</v>
+        <v>0.1486710064998888</v>
       </c>
       <c r="M4">
-        <v>0.4692213760865585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3501562583415492</v>
+      </c>
+      <c r="N4">
+        <v>1.485730665119341</v>
+      </c>
+      <c r="O4">
+        <v>1.246510756258388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356208406847543</v>
+        <v>1.91259813657652</v>
       </c>
       <c r="C5">
-        <v>0.334522457513458</v>
+        <v>0.2308501535649867</v>
       </c>
       <c r="D5">
-        <v>0.01246777866270676</v>
+        <v>0.006611486255109433</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.116037452965969</v>
+        <v>1.723706453731893</v>
       </c>
       <c r="G5">
-        <v>0.2428039787785963</v>
+        <v>0.0008476738489090319</v>
       </c>
       <c r="H5">
-        <v>0.5702891389045845</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6179822120360043</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05434939058020838</v>
+        <v>0.07350415244108977</v>
       </c>
       <c r="K5">
-        <v>0.3796258359964426</v>
+        <v>0.4312534969822934</v>
       </c>
       <c r="L5">
-        <v>0.1470010687617425</v>
+        <v>0.1457042707271086</v>
       </c>
       <c r="M5">
-        <v>0.4494597710089181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3386989944048793</v>
+      </c>
+      <c r="N5">
+        <v>1.500835216113892</v>
+      </c>
+      <c r="O5">
+        <v>1.232380195352235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.346241575975711</v>
+        <v>1.900735093933918</v>
       </c>
       <c r="C6">
-        <v>0.3321230371848287</v>
+        <v>0.2292077266835975</v>
       </c>
       <c r="D6">
-        <v>0.01242426705360344</v>
+        <v>0.006593148870901011</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.11153113872092</v>
+        <v>1.720527654552725</v>
       </c>
       <c r="G6">
-        <v>0.2417172507174001</v>
+        <v>0.0008479733650312201</v>
       </c>
       <c r="H6">
-        <v>0.5684294689624352</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6166138299107047</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05419184264244414</v>
+        <v>0.07356674577005551</v>
       </c>
       <c r="K6">
-        <v>0.3768402073026706</v>
+        <v>0.4283255071633931</v>
       </c>
       <c r="L6">
-        <v>0.1460264949349437</v>
+        <v>0.1452142348374323</v>
       </c>
       <c r="M6">
-        <v>0.4461857635853761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3368028261348499</v>
+      </c>
+      <c r="N6">
+        <v>1.503368181927492</v>
+      </c>
+      <c r="O6">
+        <v>1.230067048530465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415498404494571</v>
+        <v>1.983281489664193</v>
       </c>
       <c r="C7">
-        <v>0.3487962146027712</v>
+        <v>0.2406200246460202</v>
       </c>
       <c r="D7">
-        <v>0.01272595202235038</v>
+        <v>0.006720996930670076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.143032283650214</v>
+        <v>1.742852364135175</v>
       </c>
       <c r="G7">
-        <v>0.2493131572482667</v>
+        <v>0.0008459063609196157</v>
       </c>
       <c r="H7">
-        <v>0.5814528155627556</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6262407414065834</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05529636128902737</v>
+        <v>0.07313527031579348</v>
       </c>
       <c r="K7">
-        <v>0.3961967417095309</v>
+        <v>0.4486919587380669</v>
       </c>
       <c r="L7">
-        <v>0.1528125547582349</v>
+        <v>0.1486308207140823</v>
       </c>
       <c r="M7">
-        <v>0.4689543560344802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3500013124762731</v>
+      </c>
+      <c r="N7">
+        <v>1.485932695384967</v>
+      </c>
+      <c r="O7">
+        <v>1.246317935778471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.723339878265449</v>
+        <v>2.35305688913661</v>
       </c>
       <c r="C8">
-        <v>0.4229287779677406</v>
+        <v>0.2913418109234271</v>
       </c>
       <c r="D8">
-        <v>0.01404965867997632</v>
+        <v>0.007301576581804525</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.287956972594955</v>
+        <v>1.848151164842079</v>
       </c>
       <c r="G8">
-        <v>0.2842440080730384</v>
+        <v>0.0008370748829934098</v>
       </c>
       <c r="H8">
-        <v>0.6419735824996025</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6721158251175083</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06046066321730237</v>
+        <v>0.07130533263361194</v>
       </c>
       <c r="K8">
-        <v>0.4822380876727905</v>
+        <v>0.539743389270825</v>
       </c>
       <c r="L8">
-        <v>0.1833442783840766</v>
+        <v>0.1641041798405283</v>
       </c>
       <c r="M8">
-        <v>0.570642776504485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.40923474975083</v>
+      </c>
+      <c r="N8">
+        <v>1.412697274920319</v>
+      </c>
+      <c r="O8">
+        <v>1.32312279854898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.338668572564188</v>
+        <v>3.102977826281574</v>
       </c>
       <c r="C9">
-        <v>0.5713500041058523</v>
+        <v>0.3927794992512759</v>
       </c>
       <c r="D9">
-        <v>0.01662642362911271</v>
+        <v>0.008525331075440512</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.597791713477093</v>
+        <v>2.082621838558183</v>
       </c>
       <c r="G9">
-        <v>0.3589227245721531</v>
+        <v>0.00082073190194249</v>
       </c>
       <c r="H9">
-        <v>0.7737451100889103</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.776440958204482</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07183223994306331</v>
+        <v>0.06798368660165277</v>
       </c>
       <c r="K9">
-        <v>0.6542777524285626</v>
+        <v>0.7237429850355284</v>
       </c>
       <c r="L9">
-        <v>0.2459124965018091</v>
+        <v>0.1960900515264683</v>
       </c>
       <c r="M9">
-        <v>0.7759273167473708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5297534805102799</v>
+      </c>
+      <c r="N9">
+        <v>1.283328793052533</v>
+      </c>
+      <c r="O9">
+        <v>1.494830440601419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.801772663867325</v>
+        <v>3.674318584948139</v>
       </c>
       <c r="C10">
-        <v>0.6833756226768344</v>
+        <v>0.4692242316201032</v>
       </c>
       <c r="D10">
-        <v>0.01851794538061569</v>
+        <v>0.009505526066701186</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.845690975446061</v>
+        <v>2.275725529731687</v>
       </c>
       <c r="G10">
-        <v>0.4187285423601566</v>
+        <v>0.0008092506766417992</v>
       </c>
       <c r="H10">
-        <v>0.8807893327256551</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8641384914746268</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08115894936083023</v>
+        <v>0.0657065136901247</v>
       </c>
       <c r="K10">
-        <v>0.7838392096548006</v>
+        <v>0.8635331895444693</v>
       </c>
       <c r="L10">
-        <v>0.2941512974006812</v>
+        <v>0.2208206502188688</v>
       </c>
       <c r="M10">
-        <v>0.9319387660183551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6218034697916437</v>
+      </c>
+      <c r="N10">
+        <v>1.197941148647658</v>
+      </c>
+      <c r="O10">
+        <v>1.636777217868996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.015830247373117</v>
+        <v>3.939966814859361</v>
       </c>
       <c r="C11">
-        <v>0.7352703630761823</v>
+        <v>0.5045967694896376</v>
       </c>
       <c r="D11">
-        <v>0.01938086190262212</v>
+        <v>0.009976717580709504</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.964029794629184</v>
+        <v>2.369037276608395</v>
       </c>
       <c r="G11">
-        <v>0.4473027471928361</v>
+        <v>0.0008041249315473801</v>
       </c>
       <c r="H11">
-        <v>0.932273936815335</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.907009202157596</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08566666651471522</v>
+        <v>0.06470617132354795</v>
       </c>
       <c r="K11">
-        <v>0.843755486881193</v>
+        <v>0.9284469844833438</v>
       </c>
       <c r="L11">
-        <v>0.3167467749941295</v>
+        <v>0.232395175923898</v>
       </c>
       <c r="M11">
-        <v>1.004443415435048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6646503105195052</v>
+      </c>
+      <c r="N11">
+        <v>1.161437034960315</v>
+      </c>
+      <c r="O11">
+        <v>1.705511507618255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.09746775364988</v>
+        <v>4.041507374559615</v>
       </c>
       <c r="C12">
-        <v>0.7550825684743643</v>
+        <v>0.5180940397776226</v>
       </c>
       <c r="D12">
-        <v>0.01970825402731435</v>
+        <v>0.01015953186378393</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.009751598932326</v>
+        <v>2.405245631118873</v>
       </c>
       <c r="G12">
-        <v>0.4583475079096786</v>
+        <v>0.0008021963707813226</v>
       </c>
       <c r="H12">
-        <v>0.9522242112983577</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9237254328061368</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08741678233466743</v>
+        <v>0.06433250084428455</v>
       </c>
       <c r="K12">
-        <v>0.8666118631074937</v>
+        <v>0.9532478963207751</v>
       </c>
       <c r="L12">
-        <v>0.3254115409831044</v>
+        <v>0.2368300235394827</v>
       </c>
       <c r="M12">
-        <v>1.03215749692923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6810345599551866</v>
+      </c>
+      <c r="N12">
+        <v>1.147973322348513</v>
+      </c>
+      <c r="O12">
+        <v>1.732205855211078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.079858362360994</v>
+        <v>4.019594716724953</v>
       </c>
       <c r="C13">
-        <v>0.7508080482590174</v>
+        <v>0.5151823213111584</v>
       </c>
       <c r="D13">
-        <v>0.01963771170326112</v>
+        <v>0.01011995152527767</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.999862278115017</v>
+        <v>2.397407195962032</v>
       </c>
       <c r="G13">
-        <v>0.4559583711697144</v>
+        <v>0.0008026111931123467</v>
       </c>
       <c r="H13">
-        <v>0.9479064542001936</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.920102930249854</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08703785838676836</v>
+        <v>0.0644127485496071</v>
       </c>
       <c r="K13">
-        <v>0.861681430706156</v>
+        <v>0.947896316052649</v>
       </c>
       <c r="L13">
-        <v>0.3235403581568477</v>
+        <v>0.2358725068792467</v>
       </c>
       <c r="M13">
-        <v>1.026176649585281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.677498516797165</v>
+      </c>
+      <c r="N13">
+        <v>1.150856583725641</v>
+      </c>
+      <c r="O13">
+        <v>1.726425968218521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.022534460223994</v>
+        <v>3.948300942667458</v>
       </c>
       <c r="C14">
-        <v>0.7368969395242289</v>
+        <v>0.505705043387735</v>
       </c>
       <c r="D14">
-        <v>0.01940778242211039</v>
+        <v>0.009991665302669261</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.967772461335983</v>
+        <v>2.371998128885082</v>
       </c>
       <c r="G14">
-        <v>0.4482067412819646</v>
+        <v>0.0008039660274891415</v>
       </c>
       <c r="H14">
-        <v>0.9339058304158527</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9083744651226766</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08580975404991165</v>
+        <v>0.06467532611288629</v>
       </c>
       <c r="K14">
-        <v>0.845632376124982</v>
+        <v>0.9304827932939332</v>
       </c>
       <c r="L14">
-        <v>0.3174573690329225</v>
+        <v>0.2327589633719498</v>
       </c>
       <c r="M14">
-        <v>1.00671806598654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6659949474260003</v>
+      </c>
+      <c r="N14">
+        <v>1.160322018319093</v>
+      </c>
+      <c r="O14">
+        <v>1.707693903827675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.987500139850681</v>
+        <v>3.904758318320319</v>
       </c>
       <c r="C15">
-        <v>0.7283977641101274</v>
+        <v>0.4999138019477698</v>
       </c>
       <c r="D15">
-        <v>0.01926703422536136</v>
+        <v>0.009913681194968049</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.948238396887717</v>
+        <v>2.356550794590405</v>
       </c>
       <c r="G15">
-        <v>0.4434887301269157</v>
+        <v>0.0008047974761447082</v>
       </c>
       <c r="H15">
-        <v>0.9253908667573967</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9012549208358678</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08506328235748839</v>
+        <v>0.06483683229001791</v>
       </c>
       <c r="K15">
-        <v>0.8358245100965291</v>
+        <v>0.9198460101919608</v>
       </c>
       <c r="L15">
-        <v>0.3137459366421496</v>
+        <v>0.2308587396095589</v>
       </c>
       <c r="M15">
-        <v>0.9948339252094129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6589699990435776</v>
+      </c>
+      <c r="N15">
+        <v>1.166167432939361</v>
+      </c>
+      <c r="O15">
+        <v>1.69630885672602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.787859262297673</v>
+        <v>3.657083347746152</v>
       </c>
       <c r="C16">
-        <v>0.6800051663421698</v>
+        <v>0.4669259492599451</v>
       </c>
       <c r="D16">
-        <v>0.01846162335233359</v>
+        <v>0.009475303121034173</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.838078326820522</v>
+        <v>2.269744647126501</v>
       </c>
       <c r="G16">
-        <v>0.41689097134919</v>
+        <v>0.0008095874839884054</v>
       </c>
       <c r="H16">
-        <v>0.877485226562527</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8614011670868038</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08087010909758163</v>
+        <v>0.06577260591322487</v>
       </c>
       <c r="K16">
-        <v>0.7799454394244947</v>
+        <v>0.859319968450734</v>
       </c>
       <c r="L16">
-        <v>0.2926889555230261</v>
+        <v>0.2200711869361669</v>
       </c>
       <c r="M16">
-        <v>0.9272344030446433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6190245002802115</v>
+      </c>
+      <c r="N16">
+        <v>1.200375779225261</v>
+      </c>
+      <c r="O16">
+        <v>1.632374647525666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.666315860768748</v>
+        <v>3.506694875593951</v>
       </c>
       <c r="C17">
-        <v>0.6505749518227049</v>
+        <v>0.4468532124519982</v>
       </c>
       <c r="D17">
-        <v>0.01796833803144793</v>
+        <v>0.009213350920179941</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.771998517571575</v>
+        <v>2.217951468580182</v>
       </c>
       <c r="G17">
-        <v>0.4009432222518399</v>
+        <v>0.0008125498385043487</v>
       </c>
       <c r="H17">
-        <v>0.8488470689198522</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8377511406138467</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07836900603020069</v>
+        <v>0.06635579580273632</v>
       </c>
       <c r="K17">
-        <v>0.745934053260477</v>
+        <v>0.8225478410822831</v>
       </c>
       <c r="L17">
-        <v>0.2799479603508033</v>
+        <v>0.2135399933305138</v>
       </c>
       <c r="M17">
-        <v>0.8861826585577788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5947814504866571</v>
+      </c>
+      <c r="N17">
+        <v>1.221976385517102</v>
+      </c>
+      <c r="O17">
+        <v>1.594265064690006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.596720294276054</v>
+        <v>3.420728066918684</v>
       </c>
       <c r="C18">
-        <v>0.6337335985294885</v>
+        <v>0.4353630491146134</v>
       </c>
       <c r="D18">
-        <v>0.01768482562084372</v>
+        <v>0.009065013496394769</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.734508083125903</v>
+        <v>2.188670364409873</v>
       </c>
       <c r="G18">
-        <v>0.3918974618228788</v>
+        <v>0.0008142629471674656</v>
       </c>
       <c r="H18">
-        <v>0.8326342296279137</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8244248838541566</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07695504273811338</v>
+        <v>0.06669457615390728</v>
       </c>
       <c r="K18">
-        <v>0.7264619010266173</v>
+        <v>0.8015200459066563</v>
       </c>
       <c r="L18">
-        <v>0.2726800205136826</v>
+        <v>0.2098136241702093</v>
       </c>
       <c r="M18">
-        <v>0.8627127139834059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.580927799761227</v>
+      </c>
+      <c r="N18">
+        <v>1.234619127581638</v>
+      </c>
+      <c r="O18">
+        <v>1.572732744121282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.573207570430384</v>
+        <v>3.391709219762959</v>
       </c>
       <c r="C19">
-        <v>0.6280454390860939</v>
+        <v>0.4314816727002153</v>
       </c>
       <c r="D19">
-        <v>0.01758886207405297</v>
+        <v>0.009015168160024345</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.721900127156673</v>
+        <v>2.17884119367632</v>
       </c>
       <c r="G19">
-        <v>0.3888557376607196</v>
+        <v>0.0008148446074216267</v>
       </c>
       <c r="H19">
-        <v>0.8271878156577088</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8199588017589576</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07648038044304428</v>
+        <v>0.06680985515672555</v>
       </c>
       <c r="K19">
-        <v>0.7198837071288651</v>
+        <v>0.7944206015190218</v>
       </c>
       <c r="L19">
-        <v>0.2702291639417282</v>
+        <v>0.2085569772646991</v>
       </c>
       <c r="M19">
-        <v>0.8547894945964174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5762521490414088</v>
+      </c>
+      <c r="N19">
+        <v>1.238936626311279</v>
+      </c>
+      <c r="O19">
+        <v>1.565506839864099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.679221342314008</v>
+        <v>3.522648028951551</v>
       </c>
       <c r="C20">
-        <v>0.6536987520751438</v>
+        <v>0.4489841681513838</v>
       </c>
       <c r="D20">
-        <v>0.01802082529973603</v>
+        <v>0.0092409898921888</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.77897857664135</v>
+        <v>2.223411663517268</v>
       </c>
       <c r="G20">
-        <v>0.4026275571247453</v>
+        <v>0.0008122335449722052</v>
       </c>
       <c r="H20">
-        <v>0.8518684713953206</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8402397258117347</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07863267146372621</v>
+        <v>0.06629336788498996</v>
       </c>
       <c r="K20">
-        <v>0.7495450937952128</v>
+        <v>0.8264494097239634</v>
       </c>
       <c r="L20">
-        <v>0.2812979145469896</v>
+        <v>0.2142320885541125</v>
       </c>
       <c r="M20">
-        <v>0.8905377386906608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.597352684903889</v>
+      </c>
+      <c r="N20">
+        <v>1.219654174613304</v>
+      </c>
+      <c r="O20">
+        <v>1.598281342253628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.039355400377758</v>
+        <v>3.969214981424045</v>
       </c>
       <c r="C21">
-        <v>0.740978378553848</v>
+        <v>0.5084858280831099</v>
       </c>
       <c r="D21">
-        <v>0.01947529889462274</v>
+        <v>0.0100292206145598</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.97717240813347</v>
+        <v>2.379436951059532</v>
       </c>
       <c r="G21">
-        <v>0.4504772592964912</v>
+        <v>0.0008035677547854243</v>
       </c>
       <c r="H21">
-        <v>0.938005374361552</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9118058571551586</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08616926417882809</v>
+        <v>0.06459806107513621</v>
       </c>
       <c r="K21">
-        <v>0.8503416015750531</v>
+        <v>0.9355913621151615</v>
       </c>
       <c r="L21">
-        <v>0.3192410245932464</v>
+        <v>0.2336720362470999</v>
       </c>
       <c r="M21">
-        <v>1.012426197628756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6693693444678175</v>
+      </c>
+      <c r="N21">
+        <v>1.157531833720817</v>
+      </c>
+      <c r="O21">
+        <v>1.713177311122919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.278146030881203</v>
+        <v>4.266647173752119</v>
       </c>
       <c r="C22">
-        <v>0.7989725321868093</v>
+        <v>0.5479798363087411</v>
       </c>
       <c r="D22">
-        <v>0.02042968013362056</v>
+        <v>0.01057035511370952</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.112064207136797</v>
+        <v>2.486545363332027</v>
       </c>
       <c r="G22">
-        <v>0.4830725074021842</v>
+        <v>0.0007979758996003036</v>
       </c>
       <c r="H22">
-        <v>0.9969771943061545</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9614176663091598</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09134909345776165</v>
+        <v>0.06352003904388059</v>
       </c>
       <c r="K22">
-        <v>0.917208262169396</v>
+        <v>1.008217029954281</v>
       </c>
       <c r="L22">
-        <v>0.3446786341149206</v>
+        <v>0.2466820320266834</v>
       </c>
       <c r="M22">
-        <v>1.093612588571588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7173740103401585</v>
+      </c>
+      <c r="N22">
+        <v>1.119039961023887</v>
+      </c>
+      <c r="O22">
+        <v>1.79218806578973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.150352958905899</v>
+        <v>4.107349092271022</v>
       </c>
       <c r="C23">
-        <v>0.7679232627238264</v>
+        <v>0.5268397178788007</v>
       </c>
       <c r="D23">
-        <v>0.01991985964457044</v>
+        <v>0.01027888933971344</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.039540191405749</v>
+        <v>2.428878423755492</v>
       </c>
       <c r="G23">
-        <v>0.4655448314584447</v>
+        <v>0.0008009543550440457</v>
       </c>
       <c r="H23">
-        <v>0.9652388005467571</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9346596524217858</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08855943864099558</v>
+        <v>0.06409264940912163</v>
       </c>
       <c r="K23">
-        <v>0.8814200033988016</v>
+        <v>0.9693263460899857</v>
       </c>
       <c r="L23">
-        <v>0.3310382852837321</v>
+        <v>0.2397086102394326</v>
       </c>
       <c r="M23">
-        <v>1.050128792687026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6916603578395595</v>
+      </c>
+      <c r="N23">
+        <v>1.139382515047771</v>
+      </c>
+      <c r="O23">
+        <v>1.74963563901035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.673385904514078</v>
+        <v>3.515434079976842</v>
       </c>
       <c r="C24">
-        <v>0.6522862395323159</v>
+        <v>0.4480206088163357</v>
       </c>
       <c r="D24">
-        <v>0.0179970955644464</v>
+        <v>0.009228487321142786</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.775821343461999</v>
+        <v>2.220941572524907</v>
       </c>
       <c r="G24">
-        <v>0.401865688839095</v>
+        <v>0.0008123765100313213</v>
       </c>
       <c r="H24">
-        <v>0.8505017155318058</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8391137980304251</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07851339408313152</v>
+        <v>0.06632158065697702</v>
       </c>
       <c r="K24">
-        <v>0.7479122906628319</v>
+        <v>0.8246851607760135</v>
       </c>
       <c r="L24">
-        <v>0.2806874237138075</v>
+        <v>0.2139191039134545</v>
       </c>
       <c r="M24">
-        <v>0.8885684009300334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5961899696037563</v>
+      </c>
+      <c r="N24">
+        <v>1.22070334935195</v>
+      </c>
+      <c r="O24">
+        <v>1.596464412721517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.170577107128508</v>
+        <v>2.896935725680748</v>
       </c>
       <c r="C25">
-        <v>0.5307628840459699</v>
+        <v>0.3650569440634399</v>
       </c>
       <c r="D25">
-        <v>0.01593044817663269</v>
+        <v>0.008182365671589586</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.510777136144867</v>
+        <v>2.015826209508873</v>
       </c>
       <c r="G25">
-        <v>0.3379444745460773</v>
+        <v>0.0008250554351835618</v>
       </c>
       <c r="H25">
-        <v>0.7364768283565581</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7464571346801208</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06860194491972749</v>
+        <v>0.06885366049645647</v>
       </c>
       <c r="K25">
-        <v>0.6072705191321788</v>
+        <v>0.6732574205206916</v>
       </c>
       <c r="L25">
-        <v>0.2286365562481762</v>
+        <v>0.1872387234973161</v>
       </c>
       <c r="M25">
-        <v>0.7196070473212473</v>
+        <v>0.4966002427108904</v>
+      </c>
+      <c r="N25">
+        <v>1.316706299729255</v>
+      </c>
+      <c r="O25">
+        <v>1.445834054994222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.454746301648186</v>
+        <v>2.511866413515293</v>
       </c>
       <c r="C2">
-        <v>0.3051941052214602</v>
+        <v>0.5846382369311414</v>
       </c>
       <c r="D2">
-        <v>0.00746369911977407</v>
+        <v>0.09304215886812983</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.87844676971622</v>
+        <v>1.286212456118619</v>
       </c>
       <c r="G2">
-        <v>0.000834750373805861</v>
+        <v>0.9985868226494148</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6120726276963353</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07082755372529004</v>
+        <v>0.1353598840794561</v>
       </c>
       <c r="K2">
-        <v>0.5647387793826155</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1684000348182124</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4255504532875563</v>
+        <v>0.7457210915434089</v>
       </c>
       <c r="N2">
-        <v>1.393785251455995</v>
+        <v>0.669014575027822</v>
       </c>
       <c r="O2">
-        <v>1.345260822088605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161569922445437</v>
+        <v>2.175425981868273</v>
       </c>
       <c r="C3">
-        <v>0.2651506377686275</v>
+        <v>0.507120912339758</v>
       </c>
       <c r="D3">
-        <v>0.006999244430316409</v>
+        <v>0.08624484152139189</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.79260853250878</v>
+        <v>1.185780324592599</v>
       </c>
       <c r="G3">
-        <v>0.0008415677608755836</v>
+        <v>0.9074658671967057</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5778096309250316</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07223345404134784</v>
+        <v>0.1281081725692346</v>
       </c>
       <c r="K3">
-        <v>0.4926268663477202</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1560598163153557</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3785404507393224</v>
+        <v>0.6496101013944298</v>
       </c>
       <c r="N3">
-        <v>1.449690370681786</v>
+        <v>0.7172890469025621</v>
       </c>
       <c r="O3">
-        <v>1.282580700298809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.984250184054417</v>
+        <v>1.970526242859734</v>
       </c>
       <c r="C4">
-        <v>0.2407537311317185</v>
+        <v>0.4598081811636234</v>
       </c>
       <c r="D4">
-        <v>0.006722500790949937</v>
+        <v>0.08214104847399994</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.743117145937291</v>
+        <v>1.12688330267315</v>
       </c>
       <c r="G4">
-        <v>0.0008458823359569742</v>
+        <v>0.8539295661511375</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.558123626689067</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07313026203537731</v>
+        <v>0.1238987970210701</v>
       </c>
       <c r="K4">
-        <v>0.4489308630325652</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1486710064998888</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3501562583415492</v>
+        <v>0.5912422886749411</v>
       </c>
       <c r="N4">
-        <v>1.485730665119341</v>
+        <v>0.7482540877580879</v>
       </c>
       <c r="O4">
-        <v>1.246510756258388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.91259813657652</v>
+        <v>1.887384504682103</v>
       </c>
       <c r="C5">
-        <v>0.2308501535649867</v>
+        <v>0.4405846539118841</v>
       </c>
       <c r="D5">
-        <v>0.006611486255109433</v>
+        <v>0.08048516118937954</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.723706453731893</v>
+        <v>1.103524954310885</v>
       </c>
       <c r="G5">
-        <v>0.0008476738489090319</v>
+        <v>0.832668814544931</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5504177916077992</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07350415244108977</v>
+        <v>0.1222406289577478</v>
       </c>
       <c r="K5">
-        <v>0.4312534969822934</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1457042707271086</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3386989944048793</v>
+        <v>0.5675988214523287</v>
       </c>
       <c r="N5">
-        <v>1.500835216113892</v>
+        <v>0.761193992818901</v>
       </c>
       <c r="O5">
-        <v>1.232380195352235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.900735093933918</v>
+        <v>1.873598605842801</v>
       </c>
       <c r="C6">
-        <v>0.2292077266835975</v>
+        <v>0.4373956301481314</v>
       </c>
       <c r="D6">
-        <v>0.006593148870901011</v>
+        <v>0.08021116450767352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.720527654552725</v>
+        <v>1.099683635138803</v>
       </c>
       <c r="G6">
-        <v>0.0008479733650312201</v>
+        <v>0.8291706238083378</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5491566941017823</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07356674577005551</v>
+        <v>0.1219686342214743</v>
       </c>
       <c r="K6">
-        <v>0.4283255071633931</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1452142348374323</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3368028261348499</v>
+        <v>0.5636808462818053</v>
       </c>
       <c r="N6">
-        <v>1.503368181927492</v>
+        <v>0.7633617412506829</v>
       </c>
       <c r="O6">
-        <v>1.230067048530465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.983281489664193</v>
+        <v>1.969403603100034</v>
       </c>
       <c r="C7">
-        <v>0.2406200246460202</v>
+        <v>0.4595487143038213</v>
       </c>
       <c r="D7">
-        <v>0.006720996930670076</v>
+        <v>0.08211865143403685</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.742852364135175</v>
+        <v>1.126565749886595</v>
       </c>
       <c r="G7">
-        <v>0.0008459063609196157</v>
+        <v>0.853640650893027</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5580184520476763</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07313527031579348</v>
+        <v>0.1238762078964655</v>
       </c>
       <c r="K7">
-        <v>0.4486919587380669</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1486308207140823</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3500013124762731</v>
+        <v>0.5909228758365614</v>
       </c>
       <c r="N7">
-        <v>1.485932695384967</v>
+        <v>0.748427313276066</v>
       </c>
       <c r="O7">
-        <v>1.246317935778471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.35305688913661</v>
+        <v>2.395473325894272</v>
       </c>
       <c r="C8">
-        <v>0.2913418109234271</v>
+        <v>0.5578424484457969</v>
       </c>
       <c r="D8">
-        <v>0.007301576581804525</v>
+        <v>0.09068326680598204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.848151164842079</v>
+        <v>1.250975424568693</v>
       </c>
       <c r="G8">
-        <v>0.0008370748829934098</v>
+        <v>0.9666359155047957</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5999635629493554</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07130533263361194</v>
+        <v>0.1328065428385372</v>
       </c>
       <c r="K8">
-        <v>0.539743389270825</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1641041798405283</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.40923474975083</v>
+        <v>0.7124355674607088</v>
       </c>
       <c r="N8">
-        <v>1.412697274920319</v>
+        <v>0.6853775225718568</v>
       </c>
       <c r="O8">
-        <v>1.32312279854898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.102977826281574</v>
+        <v>3.247500460031745</v>
       </c>
       <c r="C9">
-        <v>0.3927794992512759</v>
+        <v>0.7535595110926749</v>
       </c>
       <c r="D9">
-        <v>0.008525331075440512</v>
+        <v>0.1080871382276527</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.082621838558183</v>
+        <v>1.519531355297588</v>
       </c>
       <c r="G9">
-        <v>0.00082073190194249</v>
+        <v>1.209849652501276</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6940924407392401</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06798368660165277</v>
+        <v>0.1524427583007295</v>
       </c>
       <c r="K9">
-        <v>0.7237429850355284</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1960900515264683</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5297534805102799</v>
+        <v>0.9568357856593082</v>
       </c>
       <c r="N9">
-        <v>1.283328793052533</v>
+        <v>0.5728070911387452</v>
       </c>
       <c r="O9">
-        <v>1.494830440601419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.674318584948139</v>
+        <v>3.888468731648345</v>
       </c>
       <c r="C10">
-        <v>0.4692242316201032</v>
+        <v>0.9002641115537813</v>
       </c>
       <c r="D10">
-        <v>0.009505526066701186</v>
+        <v>0.1213294046781073</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275725529731687</v>
+        <v>1.735817416405609</v>
       </c>
       <c r="G10">
-        <v>0.0008092506766417992</v>
+        <v>1.405514758594961</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7722390401939379</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0657065136901247</v>
+        <v>0.1684594483635067</v>
       </c>
       <c r="K10">
-        <v>0.8635331895444693</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2208206502188688</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6218034697916437</v>
+        <v>1.141654773080568</v>
       </c>
       <c r="N10">
-        <v>1.197941148647658</v>
+        <v>0.497697342472055</v>
       </c>
       <c r="O10">
-        <v>1.636777217868996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.939966814859361</v>
+        <v>4.184538555103586</v>
       </c>
       <c r="C11">
-        <v>0.5045967694896376</v>
+        <v>0.9679124447624758</v>
       </c>
       <c r="D11">
-        <v>0.009976717580709504</v>
+        <v>0.1274735607614446</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.369037276608395</v>
+        <v>1.839321645232289</v>
       </c>
       <c r="G11">
-        <v>0.0008041249315473801</v>
+        <v>1.499154839298114</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8101770205087462</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06470617132354795</v>
+        <v>0.1761641980251767</v>
       </c>
       <c r="K11">
-        <v>0.9284469844833438</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.232395175923898</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6646503105195052</v>
+        <v>1.227255725135066</v>
       </c>
       <c r="N11">
-        <v>1.161437034960315</v>
+        <v>0.4653876039102108</v>
       </c>
       <c r="O11">
-        <v>1.705511507618255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.041507374559615</v>
+        <v>4.297410965488154</v>
       </c>
       <c r="C12">
-        <v>0.5180940397776226</v>
+        <v>0.9936858518109943</v>
       </c>
       <c r="D12">
-        <v>0.01015953186378393</v>
+        <v>0.1298193935854641</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.405245631118873</v>
+        <v>1.87934339225076</v>
       </c>
       <c r="G12">
-        <v>0.0008021963707813226</v>
+        <v>1.535367366171386</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8249271417036823</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06433250084428455</v>
+        <v>0.1791487695065257</v>
       </c>
       <c r="K12">
-        <v>0.9532478963207751</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2368300235394827</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6810345599551866</v>
+        <v>1.259925083998979</v>
       </c>
       <c r="N12">
-        <v>1.147973322348513</v>
+        <v>0.4534397641421374</v>
       </c>
       <c r="O12">
-        <v>1.732205855211078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.019594716724953</v>
+        <v>4.273066295954379</v>
       </c>
       <c r="C13">
-        <v>0.5151823213111584</v>
+        <v>0.9881276958940646</v>
       </c>
       <c r="D13">
-        <v>0.01011995152527767</v>
+        <v>0.1293132915632498</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.397407195962032</v>
+        <v>1.870685656707039</v>
       </c>
       <c r="G13">
-        <v>0.0008026111931123467</v>
+        <v>1.527533373543491</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8217326807409222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0644127485496071</v>
+        <v>0.178502896262529</v>
       </c>
       <c r="K13">
-        <v>0.947896316052649</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2358725068792467</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.677498516797165</v>
+        <v>1.252877258851896</v>
       </c>
       <c r="N13">
-        <v>1.150856583725641</v>
+        <v>0.4559998340142211</v>
       </c>
       <c r="O13">
-        <v>1.726425968218521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.948300942667458</v>
+        <v>4.193808780943925</v>
       </c>
       <c r="C14">
-        <v>0.505705043387735</v>
+        <v>0.9700295478992302</v>
       </c>
       <c r="D14">
-        <v>0.009991665302669261</v>
+        <v>0.1276661580433256</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.371998128885082</v>
+        <v>1.842597127763526</v>
       </c>
       <c r="G14">
-        <v>0.0008039660274891415</v>
+        <v>1.502118441944731</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8113825832751616</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06467532611288629</v>
+        <v>0.1764083576647195</v>
       </c>
       <c r="K14">
-        <v>0.9304827932939332</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2327589633719498</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6659949474260003</v>
+        <v>1.229938148018292</v>
       </c>
       <c r="N14">
-        <v>1.160322018319093</v>
+        <v>0.4643987712563164</v>
       </c>
       <c r="O14">
-        <v>1.707693903827675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.904758318320319</v>
+        <v>4.145363379699575</v>
       </c>
       <c r="C15">
-        <v>0.4999138019477698</v>
+        <v>0.9589650835594057</v>
       </c>
       <c r="D15">
-        <v>0.009913681194968049</v>
+        <v>0.1266597976423895</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.356550794590405</v>
+        <v>1.82550265987453</v>
       </c>
       <c r="G15">
-        <v>0.0008047974761447082</v>
+        <v>1.486651872599481</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8050941044857325</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06483683229001791</v>
+        <v>0.1751343229719282</v>
       </c>
       <c r="K15">
-        <v>0.9198460101919608</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2308587396095589</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6589699990435776</v>
+        <v>1.215921467707076</v>
       </c>
       <c r="N15">
-        <v>1.166167432939361</v>
+        <v>0.4695813864146021</v>
       </c>
       <c r="O15">
-        <v>1.69630885672602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.657083347746152</v>
+        <v>3.869219500759868</v>
       </c>
       <c r="C16">
-        <v>0.4669259492599451</v>
+        <v>0.8958635850857206</v>
       </c>
       <c r="D16">
-        <v>0.009475303121034173</v>
+        <v>0.1209304455183471</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.269744647126501</v>
+        <v>1.729163699734059</v>
       </c>
       <c r="G16">
-        <v>0.0008095874839884054</v>
+        <v>1.399495593743836</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7698111256233346</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06577260591322487</v>
+        <v>0.1679649110226364</v>
       </c>
       <c r="K16">
-        <v>0.859319968450734</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2200711869361669</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6190245002802115</v>
+        <v>1.13609414176522</v>
       </c>
       <c r="N16">
-        <v>1.200375779225261</v>
+        <v>0.4998479106765911</v>
       </c>
       <c r="O16">
-        <v>1.632374647525666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.506694875593951</v>
+        <v>3.701040037425003</v>
       </c>
       <c r="C17">
-        <v>0.4468532124519982</v>
+        <v>0.8574035638393696</v>
       </c>
       <c r="D17">
-        <v>0.009213350920179941</v>
+        <v>0.1174477435897217</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.217951468580182</v>
+        <v>1.67143505900161</v>
       </c>
       <c r="G17">
-        <v>0.0008125498385043487</v>
+        <v>1.347273402932586</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7488053914611044</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06635579580273632</v>
+        <v>0.1636785330885857</v>
       </c>
       <c r="K17">
-        <v>0.8225478410822831</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2135399933305138</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5947814504866571</v>
+        <v>1.087537084964261</v>
       </c>
       <c r="N17">
-        <v>1.221976385517102</v>
+        <v>0.51890492833641</v>
       </c>
       <c r="O17">
-        <v>1.594265064690006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.420728066918684</v>
+        <v>3.604722975303616</v>
       </c>
       <c r="C18">
-        <v>0.4353630491146134</v>
+        <v>0.8353665180073619</v>
       </c>
       <c r="D18">
-        <v>0.009065013496394769</v>
+        <v>0.1154557738548547</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.188670364409873</v>
+        <v>1.638706487189765</v>
       </c>
       <c r="G18">
-        <v>0.0008142629471674656</v>
+        <v>1.31766676105579</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7369456379967119</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06669457615390728</v>
+        <v>0.161252088085412</v>
       </c>
       <c r="K18">
-        <v>0.8015200459066563</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2098136241702093</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.580927799761227</v>
+        <v>1.059749694862901</v>
       </c>
       <c r="N18">
-        <v>1.234619127581638</v>
+        <v>0.5300396025086439</v>
       </c>
       <c r="O18">
-        <v>1.572732744121282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.391709219762959</v>
+        <v>3.572179788793164</v>
       </c>
       <c r="C19">
-        <v>0.4314816727002153</v>
+        <v>0.8279188751993729</v>
       </c>
       <c r="D19">
-        <v>0.009015168160024345</v>
+        <v>0.1147831940828041</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.17884119367632</v>
+        <v>1.627704169947449</v>
       </c>
       <c r="G19">
-        <v>0.0008148446074216267</v>
+        <v>1.307713832846133</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7329671275354031</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06680985515672555</v>
+        <v>0.1604370332773328</v>
       </c>
       <c r="K19">
-        <v>0.7944206015190218</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2085569772646991</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5762521490414088</v>
+        <v>1.050364636932258</v>
       </c>
       <c r="N19">
-        <v>1.238936626311279</v>
+        <v>0.5338388482844239</v>
       </c>
       <c r="O19">
-        <v>1.565506839864099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.522648028951551</v>
+        <v>3.71889927289601</v>
       </c>
       <c r="C20">
-        <v>0.4489841681513838</v>
+        <v>0.8614888153909135</v>
       </c>
       <c r="D20">
-        <v>0.0092409898921888</v>
+        <v>0.1178173120955464</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.223411663517268</v>
+        <v>1.677530534464438</v>
       </c>
       <c r="G20">
-        <v>0.0008122335449722052</v>
+        <v>1.352787419255463</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.75101821284224</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06629336788498996</v>
+        <v>0.1641307457575394</v>
       </c>
       <c r="K20">
-        <v>0.8264494097239634</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2142320885541125</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.597352684903889</v>
+        <v>1.092691197611003</v>
       </c>
       <c r="N20">
-        <v>1.219654174613304</v>
+        <v>0.5168581729087479</v>
       </c>
       <c r="O20">
-        <v>1.598281342253628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.969214981424045</v>
+        <v>4.217067138056166</v>
       </c>
       <c r="C21">
-        <v>0.5084858280831099</v>
+        <v>0.9753409508592199</v>
       </c>
       <c r="D21">
-        <v>0.0100292206145598</v>
+        <v>0.1281494246766073</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.379436951059532</v>
+        <v>1.850824190790348</v>
       </c>
       <c r="G21">
-        <v>0.0008035677547854243</v>
+        <v>1.509562246278193</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8144118983575765</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06459806107513621</v>
+        <v>0.1770217002624932</v>
       </c>
       <c r="K21">
-        <v>0.9355913621151615</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2336720362470999</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6693693444678175</v>
+        <v>1.236668729198342</v>
       </c>
       <c r="N21">
-        <v>1.157531833720817</v>
+        <v>0.461923837182099</v>
       </c>
       <c r="O21">
-        <v>1.713177311122919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.266647173752119</v>
+        <v>4.547122493314134</v>
       </c>
       <c r="C22">
-        <v>0.5479798363087411</v>
+        <v>1.050675640157777</v>
       </c>
       <c r="D22">
-        <v>0.01057035511370952</v>
+        <v>0.1350148388558665</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.486545363332027</v>
+        <v>1.968951127981867</v>
       </c>
       <c r="G22">
-        <v>0.0007979758996003036</v>
+        <v>1.616460235949944</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8581024451708856</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06352003904388059</v>
+        <v>0.1858405592412637</v>
       </c>
       <c r="K22">
-        <v>1.008217029954281</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2466820320266834</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7173740103401585</v>
+        <v>1.332266450487793</v>
       </c>
       <c r="N22">
-        <v>1.119039961023887</v>
+        <v>0.4277056217807189</v>
       </c>
       <c r="O22">
-        <v>1.79218806578973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.107349092271022</v>
+        <v>4.370516443231622</v>
       </c>
       <c r="C23">
-        <v>0.5268397178788007</v>
+        <v>1.010374279251579</v>
       </c>
       <c r="D23">
-        <v>0.01027888933971344</v>
+        <v>0.1313396427122342</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.428878423755492</v>
+        <v>1.905426254872722</v>
       </c>
       <c r="G23">
-        <v>0.0008009543550440457</v>
+        <v>1.558969615203154</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8345628183888891</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06409264940912163</v>
+        <v>0.1810953171483334</v>
       </c>
       <c r="K23">
-        <v>0.9693263460899857</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2397086102394326</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6916603578395595</v>
+        <v>1.281094459207196</v>
       </c>
       <c r="N23">
-        <v>1.139382515047771</v>
+        <v>0.4458072499113965</v>
       </c>
       <c r="O23">
-        <v>1.74963563901035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.515434079976842</v>
+        <v>3.710823963524717</v>
       </c>
       <c r="C24">
-        <v>0.4480206088163357</v>
+        <v>0.8596416441393444</v>
       </c>
       <c r="D24">
-        <v>0.009228487321142786</v>
+        <v>0.117650198288672</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.220941572524907</v>
+        <v>1.674773342784889</v>
       </c>
       <c r="G24">
-        <v>0.0008123765100313213</v>
+        <v>1.350293241361129</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7500171242499505</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06632158065697702</v>
+        <v>0.1639261830145955</v>
       </c>
       <c r="K24">
-        <v>0.8246851607760135</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2139191039134545</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5961899696037563</v>
+        <v>1.090360624964276</v>
       </c>
       <c r="N24">
-        <v>1.22070334935195</v>
+        <v>0.5177829564079898</v>
       </c>
       <c r="O24">
-        <v>1.596464412721517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.896935725680748</v>
+        <v>3.014756188770036</v>
       </c>
       <c r="C25">
-        <v>0.3650569440634399</v>
+        <v>0.7001878657321754</v>
       </c>
       <c r="D25">
-        <v>0.008182365671589586</v>
+        <v>0.1033054862035954</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.015826209508873</v>
+        <v>1.443857329056797</v>
       </c>
       <c r="G25">
-        <v>0.0008250554351835618</v>
+        <v>1.141367639786097</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.667185637460193</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06885366049645647</v>
+        <v>0.1468743710128777</v>
       </c>
       <c r="K25">
-        <v>0.6732574205206916</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1872387234973161</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4966002427108904</v>
+        <v>0.88991476268626</v>
       </c>
       <c r="N25">
-        <v>1.316706299729255</v>
+        <v>0.6019925168317972</v>
       </c>
       <c r="O25">
-        <v>1.445834054994222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.511866413515293</v>
+        <v>1.018308750443737</v>
       </c>
       <c r="C2">
-        <v>0.5846382369311414</v>
+        <v>0.1826043342624644</v>
       </c>
       <c r="D2">
-        <v>0.09304215886812983</v>
+        <v>0.1936504619927248</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.286212456118619</v>
+        <v>1.691700264227777</v>
       </c>
       <c r="G2">
-        <v>0.9985868226494148</v>
+        <v>1.034880089528542</v>
       </c>
       <c r="H2">
-        <v>0.6120726276963353</v>
+        <v>1.007899836459046</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1353598840794561</v>
+        <v>0.2507695397009115</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7457210915434089</v>
+        <v>0.4514141866378054</v>
       </c>
       <c r="N2">
-        <v>0.669014575027822</v>
+        <v>1.383031793137036</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175425981868273</v>
+        <v>0.9259691007000583</v>
       </c>
       <c r="C3">
-        <v>0.507120912339758</v>
+        <v>0.1603048161715037</v>
       </c>
       <c r="D3">
-        <v>0.08624484152139189</v>
+        <v>0.1926493416014239</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.185780324592599</v>
+        <v>1.679769438616901</v>
       </c>
       <c r="G3">
-        <v>0.9074658671967057</v>
+        <v>1.0206957595001</v>
       </c>
       <c r="H3">
-        <v>0.5778096309250316</v>
+        <v>1.007137010388632</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1281081725692346</v>
+        <v>0.2506886421895089</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6496101013944298</v>
+        <v>0.4271570723711591</v>
       </c>
       <c r="N3">
-        <v>0.7172890469025621</v>
+        <v>1.401937714846075</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.970526242859734</v>
+        <v>0.8696061280359686</v>
       </c>
       <c r="C4">
-        <v>0.4598081811636234</v>
+        <v>0.1466179368479175</v>
       </c>
       <c r="D4">
-        <v>0.08214104847399994</v>
+        <v>0.1920882087606017</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.12688330267315</v>
+        <v>1.673525869143148</v>
       </c>
       <c r="G4">
-        <v>0.8539295661511375</v>
+        <v>1.01277849485524</v>
       </c>
       <c r="H4">
-        <v>0.558123626689067</v>
+        <v>1.007250615564217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1238987970210701</v>
+        <v>0.2507595185482998</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5912422886749411</v>
+        <v>0.4124728992235731</v>
       </c>
       <c r="N4">
-        <v>0.7482540877580879</v>
+        <v>1.414124332706895</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887384504682103</v>
+        <v>0.8467219209670418</v>
       </c>
       <c r="C5">
-        <v>0.4405846539118841</v>
+        <v>0.141041733960094</v>
       </c>
       <c r="D5">
-        <v>0.08048516118937954</v>
+        <v>0.1918730617824238</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.103524954310885</v>
+        <v>1.671253056808467</v>
       </c>
       <c r="G5">
-        <v>0.832668814544931</v>
+        <v>1.009750524098834</v>
       </c>
       <c r="H5">
-        <v>0.5504177916077992</v>
+        <v>1.00744303071059</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1222406289577478</v>
+        <v>0.2508186951601559</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5675988214523287</v>
+        <v>0.4065417942726057</v>
       </c>
       <c r="N5">
-        <v>0.761193992818901</v>
+        <v>1.419235734976677</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.873598605842801</v>
+        <v>0.8429271048618716</v>
       </c>
       <c r="C6">
-        <v>0.4373956301481314</v>
+        <v>0.1401158897575101</v>
       </c>
       <c r="D6">
-        <v>0.08021116450767352</v>
+        <v>0.1918381548338317</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.099683635138803</v>
+        <v>1.670892038528834</v>
       </c>
       <c r="G6">
-        <v>0.8291706238083378</v>
+        <v>1.009259691051597</v>
       </c>
       <c r="H6">
-        <v>0.5491566941017823</v>
+        <v>1.007483799890366</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1219686342214743</v>
+        <v>0.2508303505342226</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5636808462818053</v>
+        <v>0.4055601305827352</v>
       </c>
       <c r="N6">
-        <v>0.7633617412506829</v>
+        <v>1.420093247872558</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969403603100034</v>
+        <v>0.8692971625923178</v>
       </c>
       <c r="C7">
-        <v>0.4595487143038213</v>
+        <v>0.1465427288773355</v>
       </c>
       <c r="D7">
-        <v>0.08211865143403685</v>
+        <v>0.1920852524057395</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.126565749886595</v>
+        <v>1.673494118718281</v>
       </c>
       <c r="G7">
-        <v>0.853640650893027</v>
+        <v>1.012736856374701</v>
       </c>
       <c r="H7">
-        <v>0.5580184520476763</v>
+        <v>1.007252619210291</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1238762078964655</v>
+        <v>0.2507601939898265</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5909228758365614</v>
+        <v>0.4123926963398574</v>
       </c>
       <c r="N7">
-        <v>0.748427313276066</v>
+        <v>1.414192678948536</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395473325894272</v>
+        <v>0.9864008094093606</v>
       </c>
       <c r="C8">
-        <v>0.5578424484457969</v>
+        <v>0.1749144065923645</v>
       </c>
       <c r="D8">
-        <v>0.09068326680598204</v>
+        <v>0.1932941895668137</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.250975424568693</v>
+        <v>1.687361582691921</v>
       </c>
       <c r="G8">
-        <v>0.9666359155047957</v>
+        <v>1.029824487974082</v>
       </c>
       <c r="H8">
-        <v>0.5999635629493554</v>
+        <v>1.007515884605084</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1328065428385372</v>
+        <v>0.2507166144476471</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7124355674607088</v>
+        <v>0.4430068181392386</v>
       </c>
       <c r="N8">
-        <v>0.6853775225718568</v>
+        <v>1.389430430854066</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.247500460031745</v>
+        <v>1.218694951279929</v>
       </c>
       <c r="C9">
-        <v>0.7535595110926749</v>
+        <v>0.2305935653768358</v>
       </c>
       <c r="D9">
-        <v>0.1080871382276527</v>
+        <v>0.196087886439841</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.519531355297588</v>
+        <v>1.723171300981974</v>
       </c>
       <c r="G9">
-        <v>1.209849652501276</v>
+        <v>1.069655239959303</v>
       </c>
       <c r="H9">
-        <v>0.6940924407392401</v>
+        <v>1.012661557763835</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1524427583007295</v>
+        <v>0.2515888197819578</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9568357856593082</v>
+        <v>0.5047066609107134</v>
       </c>
       <c r="N9">
-        <v>0.5728070911387452</v>
+        <v>1.345466908601774</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.888468731648345</v>
+        <v>1.391004657586222</v>
       </c>
       <c r="C10">
-        <v>0.9002641115537813</v>
+        <v>0.2715336225799376</v>
       </c>
       <c r="D10">
-        <v>0.1213294046781073</v>
+        <v>0.1983959808048468</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.735817416405609</v>
+        <v>1.754780937684302</v>
       </c>
       <c r="G10">
-        <v>1.405514758594961</v>
+        <v>1.102830385954633</v>
       </c>
       <c r="H10">
-        <v>0.7722390401939379</v>
+        <v>1.019282588966576</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1684594483635067</v>
+        <v>0.2528155404039012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.141654773080568</v>
+        <v>0.5510598152926605</v>
       </c>
       <c r="N10">
-        <v>0.497697342472055</v>
+        <v>1.315976231907537</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.184538555103586</v>
+        <v>1.469756287192808</v>
       </c>
       <c r="C11">
-        <v>0.9679124447624758</v>
+        <v>0.2901671267158008</v>
       </c>
       <c r="D11">
-        <v>0.1274735607614446</v>
+        <v>0.1995010315099677</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.839321645232289</v>
+        <v>1.770322641967496</v>
       </c>
       <c r="G11">
-        <v>1.499154839298114</v>
+        <v>1.11878469278335</v>
       </c>
       <c r="H11">
-        <v>0.8101770205087462</v>
+        <v>1.0229155890801</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1761641980251767</v>
+        <v>0.2535013250250131</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.227255725135066</v>
+        <v>0.5723708980975033</v>
       </c>
       <c r="N11">
-        <v>0.4653876039102108</v>
+        <v>1.303171941831053</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.297410965488154</v>
+        <v>1.499630411409441</v>
       </c>
       <c r="C12">
-        <v>0.9936858518109943</v>
+        <v>0.2972245905245927</v>
       </c>
       <c r="D12">
-        <v>0.1298193935854641</v>
+        <v>0.1999273621431144</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.87934339225076</v>
+        <v>1.776375793934378</v>
       </c>
       <c r="G12">
-        <v>1.535367366171386</v>
+        <v>1.124951180876764</v>
       </c>
       <c r="H12">
-        <v>0.8249271417036823</v>
+        <v>1.024380922365538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1791487695065257</v>
+        <v>0.2537794162298539</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.259925083998979</v>
+        <v>0.5804732157810975</v>
       </c>
       <c r="N12">
-        <v>0.4534397641421374</v>
+        <v>1.298411371017744</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.273066295954379</v>
+        <v>1.493194148223665</v>
       </c>
       <c r="C13">
-        <v>0.9881276958940646</v>
+        <v>0.2957045793743305</v>
       </c>
       <c r="D13">
-        <v>0.1293132915632498</v>
+        <v>0.1998351948918753</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.870685656707039</v>
+        <v>1.775064663061485</v>
       </c>
       <c r="G13">
-        <v>1.527533373543491</v>
+        <v>1.123617546699506</v>
       </c>
       <c r="H13">
-        <v>0.8217326807409222</v>
+        <v>1.024061347249244</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.178502896262529</v>
+        <v>0.2537187055057615</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.252877258851896</v>
+        <v>0.5787268021504985</v>
       </c>
       <c r="N13">
-        <v>0.4559998340142211</v>
+        <v>1.299432721191321</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.193808780943925</v>
+        <v>1.47221299644383</v>
       </c>
       <c r="C14">
-        <v>0.9700295478992302</v>
+        <v>0.2907477214124867</v>
       </c>
       <c r="D14">
-        <v>0.1276661580433256</v>
+        <v>0.1995359485053569</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.842597127763526</v>
+        <v>1.770817270479299</v>
       </c>
       <c r="G14">
-        <v>1.502118441944731</v>
+        <v>1.119289504497118</v>
       </c>
       <c r="H14">
-        <v>0.8113825832751616</v>
+        <v>1.023034345656328</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1764083576647195</v>
+        <v>0.2535238348284139</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.229938148018292</v>
+        <v>0.5730368341394296</v>
       </c>
       <c r="N14">
-        <v>0.4643987712563164</v>
+        <v>1.302778518972279</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.145363379699575</v>
+        <v>1.459368278486352</v>
       </c>
       <c r="C15">
-        <v>0.9589650835594057</v>
+        <v>0.2877116790768071</v>
       </c>
       <c r="D15">
-        <v>0.1266597976423895</v>
+        <v>0.1993536751458436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.82550265987453</v>
+        <v>1.768237499409125</v>
       </c>
       <c r="G15">
-        <v>1.486651872599481</v>
+        <v>1.116654750354058</v>
       </c>
       <c r="H15">
-        <v>0.8050941044857325</v>
+        <v>1.022416954024322</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1751343229719282</v>
+        <v>0.2534068679692183</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.215921467707076</v>
+        <v>0.569555765838075</v>
       </c>
       <c r="N15">
-        <v>0.4695813864146021</v>
+        <v>1.304839402167141</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.869219500759868</v>
+        <v>1.385865423127996</v>
       </c>
       <c r="C16">
-        <v>0.8958635850857206</v>
+        <v>0.2703160711739656</v>
       </c>
       <c r="D16">
-        <v>0.1209304455183471</v>
+        <v>0.1983248673894664</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.729163699734059</v>
+        <v>1.753788699800097</v>
       </c>
       <c r="G16">
-        <v>1.399495593743836</v>
+        <v>1.101805170109657</v>
       </c>
       <c r="H16">
-        <v>0.7698111256233346</v>
+        <v>1.019057685662119</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1679649110226364</v>
+        <v>0.2527732958470068</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.13609414176522</v>
+        <v>0.5496716048777728</v>
       </c>
       <c r="N16">
-        <v>0.4998479106765911</v>
+        <v>1.31682534193135</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.701040037425003</v>
+        <v>1.340867678678819</v>
       </c>
       <c r="C17">
-        <v>0.8574035638393696</v>
+        <v>0.2596468830479637</v>
       </c>
       <c r="D17">
-        <v>0.1174477435897217</v>
+        <v>0.1977078008730402</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.67143505900161</v>
+        <v>1.745223027639142</v>
       </c>
       <c r="G17">
-        <v>1.347273402932586</v>
+        <v>1.092917028756176</v>
       </c>
       <c r="H17">
-        <v>0.7488053914611044</v>
+        <v>1.017156155010895</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1636785330885857</v>
+        <v>0.2524173592060635</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.087537084964261</v>
+        <v>0.5375308543181916</v>
       </c>
       <c r="N17">
-        <v>0.51890492833641</v>
+        <v>1.324335038900271</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.604722975303616</v>
+        <v>1.315020728531408</v>
       </c>
       <c r="C18">
-        <v>0.8353665180073619</v>
+        <v>0.2535111597438231</v>
       </c>
       <c r="D18">
-        <v>0.1154557738548547</v>
+        <v>0.1973580685173459</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.638706487189765</v>
+        <v>1.740405640283825</v>
       </c>
       <c r="G18">
-        <v>1.31766676105579</v>
+        <v>1.087885960084662</v>
       </c>
       <c r="H18">
-        <v>0.7369456379967119</v>
+        <v>1.016120884592453</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.161252088085412</v>
+        <v>0.2522246558248398</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.059749694862901</v>
+        <v>0.5305689779500184</v>
       </c>
       <c r="N18">
-        <v>0.5300396025086439</v>
+        <v>1.32871192852755</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.572179788793164</v>
+        <v>1.306275337519708</v>
       </c>
       <c r="C19">
-        <v>0.8279188751993729</v>
+        <v>0.2514338667643869</v>
       </c>
       <c r="D19">
-        <v>0.1147831940828041</v>
+        <v>0.197240547707942</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.627704169947449</v>
+        <v>1.738793317107678</v>
       </c>
       <c r="G19">
-        <v>1.307713832846133</v>
+        <v>1.086196438611637</v>
       </c>
       <c r="H19">
-        <v>0.7329671275354031</v>
+        <v>1.015780388187096</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1604370332773328</v>
+        <v>0.2521614736465381</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.050364636932258</v>
+        <v>0.5282154425316463</v>
       </c>
       <c r="N19">
-        <v>0.5338388482844239</v>
+        <v>1.330203738082798</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.71889927289601</v>
+        <v>1.345654189762456</v>
       </c>
       <c r="C20">
-        <v>0.8614888153909135</v>
+        <v>0.260782542218891</v>
       </c>
       <c r="D20">
-        <v>0.1178173120955464</v>
+        <v>0.1977729520801361</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.677530534464438</v>
+        <v>1.74612353458113</v>
       </c>
       <c r="G20">
-        <v>1.352787419255463</v>
+        <v>1.0938547810307</v>
       </c>
       <c r="H20">
-        <v>0.75101821284224</v>
+        <v>1.017352525854903</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1641307457575394</v>
+        <v>0.2524540048270865</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.092691197611003</v>
+        <v>0.538821068122644</v>
       </c>
       <c r="N20">
-        <v>0.5168581729087479</v>
+        <v>1.323529664936074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.217067138056166</v>
+        <v>1.478374243502742</v>
       </c>
       <c r="C21">
-        <v>0.9753409508592199</v>
+        <v>0.2922036340634691</v>
       </c>
       <c r="D21">
-        <v>0.1281494246766073</v>
+        <v>0.1996236311743615</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.850824190790348</v>
+        <v>1.772060271697043</v>
       </c>
       <c r="G21">
-        <v>1.509562246278193</v>
+        <v>1.120557357626581</v>
       </c>
       <c r="H21">
-        <v>0.8144118983575765</v>
+        <v>1.023333567029397</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1770217002624932</v>
+        <v>0.2535805734708489</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.236668729198342</v>
+        <v>0.5747072401931774</v>
       </c>
       <c r="N21">
-        <v>0.461923837182099</v>
+        <v>1.301793383047289</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.547122493314134</v>
+        <v>1.565420929560446</v>
       </c>
       <c r="C22">
-        <v>1.050675640157777</v>
+        <v>0.3127470500788831</v>
       </c>
       <c r="D22">
-        <v>0.1350148388558665</v>
+        <v>0.2008790178147279</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.968951127981867</v>
+        <v>1.789990094784926</v>
       </c>
       <c r="G22">
-        <v>1.616460235949944</v>
+        <v>1.138737680491829</v>
       </c>
       <c r="H22">
-        <v>0.8581024451708856</v>
+        <v>1.027764887146645</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1858405592412637</v>
+        <v>0.2544241117597892</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.332266450487793</v>
+        <v>0.598349018422013</v>
       </c>
       <c r="N22">
-        <v>0.4277056217807189</v>
+        <v>1.288101310577376</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.370516443231622</v>
+        <v>1.518934495689166</v>
       </c>
       <c r="C23">
-        <v>1.010374279251579</v>
+        <v>0.3017819272378972</v>
       </c>
       <c r="D23">
-        <v>0.1313396427122342</v>
+        <v>0.2002048143143469</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.905426254872722</v>
+        <v>1.780330828034252</v>
       </c>
       <c r="G23">
-        <v>1.558969615203154</v>
+        <v>1.12896753893807</v>
       </c>
       <c r="H23">
-        <v>0.8345628183888891</v>
+        <v>1.025351916045935</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1810953171483334</v>
+        <v>0.2539640750200149</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.281094459207196</v>
+        <v>0.5857137628130147</v>
       </c>
       <c r="N23">
-        <v>0.4458072499113965</v>
+        <v>1.295361926172806</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.710823963524717</v>
+        <v>1.343490136906439</v>
       </c>
       <c r="C24">
-        <v>0.8596416441393444</v>
+        <v>0.2602691165168665</v>
       </c>
       <c r="D24">
-        <v>0.117650198288672</v>
+        <v>0.1977434815564791</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.674773342784889</v>
+        <v>1.745716081742074</v>
       </c>
       <c r="G24">
-        <v>1.350293241361129</v>
+        <v>1.093430577709768</v>
       </c>
       <c r="H24">
-        <v>0.7500171242499505</v>
+        <v>1.017263566123034</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1639261830145955</v>
+        <v>0.2524374001864373</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.090360624964276</v>
+        <v>0.5382377063826027</v>
       </c>
       <c r="N24">
-        <v>0.5177829564079898</v>
+        <v>1.323893589293851</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014756188770036</v>
+        <v>1.155566517308557</v>
       </c>
       <c r="C25">
-        <v>0.7001878657321754</v>
+        <v>0.215525652017476</v>
       </c>
       <c r="D25">
-        <v>0.1033054862035954</v>
+        <v>0.1952870735939953</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.443857329056797</v>
+        <v>1.712556529289856</v>
       </c>
       <c r="G25">
-        <v>1.141367639786097</v>
+        <v>1.058197236135015</v>
       </c>
       <c r="H25">
-        <v>0.667185637460193</v>
+        <v>1.010772028089008</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1468743710128777</v>
+        <v>0.2512501265865765</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.88991476268626</v>
+        <v>0.4878362026962222</v>
       </c>
       <c r="N25">
-        <v>0.6019925168317972</v>
+        <v>1.356867458240956</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.018308750443737</v>
+        <v>2.51186641351552</v>
       </c>
       <c r="C2">
-        <v>0.1826043342624644</v>
+        <v>0.5846382369311982</v>
       </c>
       <c r="D2">
-        <v>0.1936504619927248</v>
+        <v>0.09304215886805878</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.691700264227777</v>
+        <v>1.286212456118619</v>
       </c>
       <c r="G2">
-        <v>1.034880089528542</v>
+        <v>0.998586822649429</v>
       </c>
       <c r="H2">
-        <v>1.007899836459046</v>
+        <v>0.6120726276963353</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2507695397009115</v>
+        <v>0.1353598840792998</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4514141866378054</v>
+        <v>0.7457210915434089</v>
       </c>
       <c r="N2">
-        <v>1.383031793137036</v>
+        <v>0.6690145750278753</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9259691007000583</v>
+        <v>2.175425981868159</v>
       </c>
       <c r="C3">
-        <v>0.1603048161715037</v>
+        <v>0.5071209123399854</v>
       </c>
       <c r="D3">
-        <v>0.1926493416014239</v>
+        <v>0.08624484152118583</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.679769438616901</v>
+        <v>1.185780324592571</v>
       </c>
       <c r="G3">
-        <v>1.0206957595001</v>
+        <v>0.9074658671966773</v>
       </c>
       <c r="H3">
-        <v>1.007137010388632</v>
+        <v>0.5778096309250458</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2506886421895089</v>
+        <v>0.1281081725692417</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4271570723711591</v>
+        <v>0.6496101013944298</v>
       </c>
       <c r="N3">
-        <v>1.401937714846075</v>
+        <v>0.7172890469026092</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8696061280359686</v>
+        <v>1.970526242859677</v>
       </c>
       <c r="C4">
-        <v>0.1466179368479175</v>
+        <v>0.4598081811633961</v>
       </c>
       <c r="D4">
-        <v>0.1920882087606017</v>
+        <v>0.08214104847395731</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.673525869143148</v>
+        <v>1.126883302673136</v>
       </c>
       <c r="G4">
-        <v>1.01277849485524</v>
+        <v>0.8539295661511375</v>
       </c>
       <c r="H4">
-        <v>1.007250615564217</v>
+        <v>0.5581236266890812</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2507595185482998</v>
+        <v>0.1238987970211127</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4124728992235731</v>
+        <v>0.5912422886749553</v>
       </c>
       <c r="N4">
-        <v>1.414124332706895</v>
+        <v>0.7482540877580651</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8467219209670418</v>
+        <v>1.887384504682103</v>
       </c>
       <c r="C5">
-        <v>0.141041733960094</v>
+        <v>0.4405846539118272</v>
       </c>
       <c r="D5">
-        <v>0.1918730617824238</v>
+        <v>0.0804851611891948</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.671253056808467</v>
+        <v>1.103524954310885</v>
       </c>
       <c r="G5">
-        <v>1.009750524098834</v>
+        <v>0.8326688145449168</v>
       </c>
       <c r="H5">
-        <v>1.00744303071059</v>
+        <v>0.5504177916079129</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2508186951601559</v>
+        <v>0.1222406289577478</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4065417942726057</v>
+        <v>0.5675988214523215</v>
       </c>
       <c r="N5">
-        <v>1.419235734976677</v>
+        <v>0.7611939928189047</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8429271048618716</v>
+        <v>1.873598605842574</v>
       </c>
       <c r="C6">
-        <v>0.1401158897575101</v>
+        <v>0.4373956301479041</v>
       </c>
       <c r="D6">
-        <v>0.1918381548338317</v>
+        <v>0.08021116450766641</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.670892038528834</v>
+        <v>1.099683635138788</v>
       </c>
       <c r="G6">
-        <v>1.009259691051597</v>
+        <v>0.829170623808352</v>
       </c>
       <c r="H6">
-        <v>1.007483799890366</v>
+        <v>0.5491566941017823</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2508303505342226</v>
+        <v>0.1219686342214956</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4055601305827352</v>
+        <v>0.5636808462818266</v>
       </c>
       <c r="N6">
-        <v>1.420093247872558</v>
+        <v>0.7633617412506888</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8692971625923178</v>
+        <v>1.969403603100062</v>
       </c>
       <c r="C7">
-        <v>0.1465427288773355</v>
+        <v>0.459548714303935</v>
       </c>
       <c r="D7">
-        <v>0.1920852524057395</v>
+        <v>0.08211865143403685</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.673494118718281</v>
+        <v>1.126565749886581</v>
       </c>
       <c r="G7">
-        <v>1.012736856374701</v>
+        <v>0.8536406508930554</v>
       </c>
       <c r="H7">
-        <v>1.007252619210291</v>
+        <v>0.5580184520476905</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2507601939898265</v>
+        <v>0.1238762078965294</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4123926963398574</v>
+        <v>0.5909228758365757</v>
       </c>
       <c r="N7">
-        <v>1.414192678948536</v>
+        <v>0.7484273132760674</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9864008094093606</v>
+        <v>2.395473325894216</v>
       </c>
       <c r="C8">
-        <v>0.1749144065923645</v>
+        <v>0.5578424484460527</v>
       </c>
       <c r="D8">
-        <v>0.1932941895668137</v>
+        <v>0.09068326680598204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.687361582691921</v>
+        <v>1.250975424568708</v>
       </c>
       <c r="G8">
-        <v>1.029824487974082</v>
+        <v>0.9666359155047672</v>
       </c>
       <c r="H8">
-        <v>1.007515884605084</v>
+        <v>0.5999635629493554</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2507166144476471</v>
+        <v>0.132806542838523</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4430068181392386</v>
+        <v>0.7124355674607017</v>
       </c>
       <c r="N8">
-        <v>1.389430430854066</v>
+        <v>0.6853775225718624</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.218694951279929</v>
+        <v>3.247500460031745</v>
       </c>
       <c r="C9">
-        <v>0.2305935653768358</v>
+        <v>0.7535595110925044</v>
       </c>
       <c r="D9">
-        <v>0.196087886439841</v>
+        <v>0.1080871382275603</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.723171300981974</v>
+        <v>1.519531355297588</v>
       </c>
       <c r="G9">
-        <v>1.069655239959303</v>
+        <v>1.209849652501305</v>
       </c>
       <c r="H9">
-        <v>1.012661557763835</v>
+        <v>0.6940924407393538</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2515888197819578</v>
+        <v>0.152442758300829</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5047066609107134</v>
+        <v>0.9568357856592939</v>
       </c>
       <c r="N9">
-        <v>1.345466908601774</v>
+        <v>0.5728070911387334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.391004657586222</v>
+        <v>3.888468731648572</v>
       </c>
       <c r="C10">
-        <v>0.2715336225799376</v>
+        <v>0.9002641115537529</v>
       </c>
       <c r="D10">
-        <v>0.1983959808048468</v>
+        <v>0.1213294046780078</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.754780937684302</v>
+        <v>1.735817416405595</v>
       </c>
       <c r="G10">
-        <v>1.102830385954633</v>
+        <v>1.405514758594961</v>
       </c>
       <c r="H10">
-        <v>1.019282588966576</v>
+        <v>0.7722390401939379</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2528155404039012</v>
+        <v>0.1684594483635067</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5510598152926605</v>
+        <v>1.141654773080568</v>
       </c>
       <c r="N10">
-        <v>1.315976231907537</v>
+        <v>0.4976973424720532</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469756287192808</v>
+        <v>4.1845385551037</v>
       </c>
       <c r="C11">
-        <v>0.2901671267158008</v>
+        <v>0.9679124447625327</v>
       </c>
       <c r="D11">
-        <v>0.1995010315099677</v>
+        <v>0.1274735607614303</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.770322641967496</v>
+        <v>1.839321645232303</v>
       </c>
       <c r="G11">
-        <v>1.11878469278335</v>
+        <v>1.499154839298171</v>
       </c>
       <c r="H11">
-        <v>1.0229155890801</v>
+        <v>0.8101770205086325</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2535013250250131</v>
+        <v>0.1761641980251838</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5723708980975033</v>
+        <v>1.227255725135095</v>
       </c>
       <c r="N11">
-        <v>1.303171941831053</v>
+        <v>0.4653876039102069</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.499630411409441</v>
+        <v>4.297410965488268</v>
       </c>
       <c r="C12">
-        <v>0.2972245905245927</v>
+        <v>0.9936858518111933</v>
       </c>
       <c r="D12">
-        <v>0.1999273621431144</v>
+        <v>0.1298193935854925</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.776375793934378</v>
+        <v>1.879343392250775</v>
       </c>
       <c r="G12">
-        <v>1.124951180876764</v>
+        <v>1.535367366171329</v>
       </c>
       <c r="H12">
-        <v>1.024380922365538</v>
+        <v>0.8249271417036823</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2537794162298539</v>
+        <v>0.1791487695065186</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5804732157810975</v>
+        <v>1.259925083998965</v>
       </c>
       <c r="N12">
-        <v>1.298411371017744</v>
+        <v>0.4534397641421171</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.493194148223665</v>
+        <v>4.273066295954209</v>
       </c>
       <c r="C13">
-        <v>0.2957045793743305</v>
+        <v>0.9881276958937804</v>
       </c>
       <c r="D13">
-        <v>0.1998351948918753</v>
+        <v>0.1293132915631503</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.775064663061485</v>
+        <v>1.870685656707039</v>
       </c>
       <c r="G13">
-        <v>1.123617546699506</v>
+        <v>1.527533373543491</v>
       </c>
       <c r="H13">
-        <v>1.024061347249244</v>
+        <v>0.8217326807409222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2537187055057615</v>
+        <v>0.1785028962624651</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5787268021504985</v>
+        <v>1.252877258851896</v>
       </c>
       <c r="N13">
-        <v>1.299432721191321</v>
+        <v>0.4559998340142254</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.47221299644383</v>
+        <v>4.193808780943925</v>
       </c>
       <c r="C14">
-        <v>0.2907477214124867</v>
+        <v>0.9700295478993439</v>
       </c>
       <c r="D14">
-        <v>0.1995359485053569</v>
+        <v>0.1276661580433256</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.770817270479299</v>
+        <v>1.842597127763526</v>
       </c>
       <c r="G14">
-        <v>1.119289504497118</v>
+        <v>1.502118441944759</v>
       </c>
       <c r="H14">
-        <v>1.023034345656328</v>
+        <v>0.8113825832752752</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2535238348284139</v>
+        <v>0.1764083576647337</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5730368341394296</v>
+        <v>1.229938148018292</v>
       </c>
       <c r="N14">
-        <v>1.302778518972279</v>
+        <v>0.4643987712562608</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.459368278486352</v>
+        <v>4.145363379699631</v>
       </c>
       <c r="C15">
-        <v>0.2877116790768071</v>
+        <v>0.958965083559832</v>
       </c>
       <c r="D15">
-        <v>0.1993536751458436</v>
+        <v>0.126659797642418</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.768237499409125</v>
+        <v>1.825502659874516</v>
       </c>
       <c r="G15">
-        <v>1.116654750354058</v>
+        <v>1.486651872599452</v>
       </c>
       <c r="H15">
-        <v>1.022416954024322</v>
+        <v>0.8050941044856472</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2534068679692183</v>
+        <v>0.1751343229718714</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.569555765838075</v>
+        <v>1.215921467707062</v>
       </c>
       <c r="N15">
-        <v>1.304839402167141</v>
+        <v>0.4695813864145397</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.385865423127996</v>
+        <v>3.869219500759812</v>
       </c>
       <c r="C16">
-        <v>0.2703160711739656</v>
+        <v>0.8958635850858343</v>
       </c>
       <c r="D16">
-        <v>0.1983248673894664</v>
+        <v>0.1209304455184466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.753788699800097</v>
+        <v>1.729163699734031</v>
       </c>
       <c r="G16">
-        <v>1.101805170109657</v>
+        <v>1.399495593743836</v>
       </c>
       <c r="H16">
-        <v>1.019057685662119</v>
+        <v>0.7698111256233346</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2527732958470068</v>
+        <v>0.1679649110226649</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5496716048777728</v>
+        <v>1.136094141765213</v>
       </c>
       <c r="N16">
-        <v>1.31682534193135</v>
+        <v>0.499847910676558</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.340867678678819</v>
+        <v>3.701040037425059</v>
       </c>
       <c r="C17">
-        <v>0.2596468830479637</v>
+        <v>0.857403563839398</v>
       </c>
       <c r="D17">
-        <v>0.1977078008730402</v>
+        <v>0.1174477435896151</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.745223027639142</v>
+        <v>1.67143505900161</v>
       </c>
       <c r="G17">
-        <v>1.092917028756176</v>
+        <v>1.347273402932672</v>
       </c>
       <c r="H17">
-        <v>1.017156155010895</v>
+        <v>0.7488053914609907</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2524173592060635</v>
+        <v>0.1636785330885431</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5375308543181916</v>
+        <v>1.087537084964261</v>
       </c>
       <c r="N17">
-        <v>1.324335038900271</v>
+        <v>0.5189049283364122</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.315020728531408</v>
+        <v>3.604722975303503</v>
       </c>
       <c r="C18">
-        <v>0.2535111597438231</v>
+        <v>0.8353665180077599</v>
       </c>
       <c r="D18">
-        <v>0.1973580685173459</v>
+        <v>0.1154557738545492</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.740405640283825</v>
+        <v>1.638706487189765</v>
       </c>
       <c r="G18">
-        <v>1.087885960084662</v>
+        <v>1.317666761055847</v>
       </c>
       <c r="H18">
-        <v>1.016120884592453</v>
+        <v>0.7369456379967119</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2522246558248398</v>
+        <v>0.1612520880854476</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5305689779500184</v>
+        <v>1.059749694862901</v>
       </c>
       <c r="N18">
-        <v>1.32871192852755</v>
+        <v>0.5300396025086527</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.306275337519708</v>
+        <v>3.572179788793051</v>
       </c>
       <c r="C19">
-        <v>0.2514338667643869</v>
+        <v>0.8279188751992592</v>
       </c>
       <c r="D19">
-        <v>0.197240547707942</v>
+        <v>0.1147831940828183</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.738793317107678</v>
+        <v>1.627704169947449</v>
       </c>
       <c r="G19">
-        <v>1.086196438611637</v>
+        <v>1.307713832846161</v>
       </c>
       <c r="H19">
-        <v>1.015780388187096</v>
+        <v>0.7329671275353746</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2521614736465381</v>
+        <v>0.1604370332774465</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5282154425316463</v>
+        <v>1.050364636932244</v>
       </c>
       <c r="N19">
-        <v>1.330203738082798</v>
+        <v>0.5338388482844195</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.345654189762456</v>
+        <v>3.718899272895897</v>
       </c>
       <c r="C20">
-        <v>0.260782542218891</v>
+        <v>0.8614888153907714</v>
       </c>
       <c r="D20">
-        <v>0.1977729520801361</v>
+        <v>0.1178173120954398</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.74612353458113</v>
+        <v>1.677530534464424</v>
       </c>
       <c r="G20">
-        <v>1.0938547810307</v>
+        <v>1.352787419255492</v>
       </c>
       <c r="H20">
-        <v>1.017352525854903</v>
+        <v>0.7510182128422684</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2524540048270865</v>
+        <v>0.1641307457575465</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.538821068122644</v>
+        <v>1.092691197610982</v>
       </c>
       <c r="N20">
-        <v>1.323529664936074</v>
+        <v>0.516858172908758</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.478374243502742</v>
+        <v>4.21706713805645</v>
       </c>
       <c r="C21">
-        <v>0.2922036340634691</v>
+        <v>0.975340950859362</v>
       </c>
       <c r="D21">
-        <v>0.1996236311743615</v>
+        <v>0.1281494246765931</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.772060271697043</v>
+        <v>1.850824190790348</v>
       </c>
       <c r="G21">
-        <v>1.120557357626581</v>
+        <v>1.509562246278108</v>
       </c>
       <c r="H21">
-        <v>1.023333567029397</v>
+        <v>0.8144118983575765</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2535805734708489</v>
+        <v>0.1770217002625003</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5747072401931774</v>
+        <v>1.236668729198342</v>
       </c>
       <c r="N21">
-        <v>1.301793383047289</v>
+        <v>0.4619238371821067</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.565420929560446</v>
+        <v>4.547122493313964</v>
       </c>
       <c r="C22">
-        <v>0.3127470500788831</v>
+        <v>1.050675640157692</v>
       </c>
       <c r="D22">
-        <v>0.2008790178147279</v>
+        <v>0.1350148388556676</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.789990094784926</v>
+        <v>1.968951127981882</v>
       </c>
       <c r="G22">
-        <v>1.138737680491829</v>
+        <v>1.616460235950029</v>
       </c>
       <c r="H22">
-        <v>1.027764887146645</v>
+        <v>0.8581024451708856</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2544241117597892</v>
+        <v>0.1858405592413632</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.598349018422013</v>
+        <v>1.332266450487779</v>
       </c>
       <c r="N22">
-        <v>1.288101310577376</v>
+        <v>0.4277056217807754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.518934495689166</v>
+        <v>4.370516443231509</v>
       </c>
       <c r="C23">
-        <v>0.3017819272378972</v>
+        <v>1.010374279251295</v>
       </c>
       <c r="D23">
-        <v>0.2002048143143469</v>
+        <v>0.13133964271222</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.780330828034252</v>
+        <v>1.905426254872737</v>
       </c>
       <c r="G23">
-        <v>1.12896753893807</v>
+        <v>1.558969615203011</v>
       </c>
       <c r="H23">
-        <v>1.025351916045935</v>
+        <v>0.8345628183887754</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2539640750200149</v>
+        <v>0.1810953171484329</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5857137628130147</v>
+        <v>1.281094459207196</v>
       </c>
       <c r="N23">
-        <v>1.295361926172806</v>
+        <v>0.4458072499113906</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.343490136906439</v>
+        <v>3.710823963524888</v>
       </c>
       <c r="C24">
-        <v>0.2602691165168665</v>
+        <v>0.8596416441393444</v>
       </c>
       <c r="D24">
-        <v>0.1977434815564791</v>
+        <v>0.1176501982887856</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.745716081742074</v>
+        <v>1.674773342784889</v>
       </c>
       <c r="G24">
-        <v>1.093430577709768</v>
+        <v>1.350293241361072</v>
       </c>
       <c r="H24">
-        <v>1.017263566123034</v>
+        <v>0.7500171242500642</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2524374001864373</v>
+        <v>0.1639261830146594</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5382377063826027</v>
+        <v>1.090360624964283</v>
       </c>
       <c r="N24">
-        <v>1.323893589293851</v>
+        <v>0.5177829564079937</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.155566517308557</v>
+        <v>3.014756188769866</v>
       </c>
       <c r="C25">
-        <v>0.215525652017476</v>
+        <v>0.7001878657319196</v>
       </c>
       <c r="D25">
-        <v>0.1952870735939953</v>
+        <v>0.1033054862035883</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.712556529289856</v>
+        <v>1.443857329056797</v>
       </c>
       <c r="G25">
-        <v>1.058197236135015</v>
+        <v>1.141367639786125</v>
       </c>
       <c r="H25">
-        <v>1.010772028089008</v>
+        <v>0.667185637460193</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2512501265865765</v>
+        <v>0.1468743710128706</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4878362026962222</v>
+        <v>0.88991476268626</v>
       </c>
       <c r="N25">
-        <v>1.356867458240956</v>
+        <v>0.6019925168317354</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.51186641351552</v>
+        <v>0.8613785145393535</v>
       </c>
       <c r="C2">
-        <v>0.5846382369311982</v>
+        <v>0.1415893803971926</v>
       </c>
       <c r="D2">
-        <v>0.09304215886805878</v>
+        <v>0.1209838485305568</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.286212456118619</v>
+        <v>0.6391096476618756</v>
       </c>
       <c r="G2">
-        <v>0.998586822649429</v>
+        <v>0.3770579200300688</v>
       </c>
       <c r="H2">
-        <v>0.6120726276963353</v>
+        <v>0.008292046051853727</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005903733994539806</v>
       </c>
       <c r="J2">
-        <v>0.1353598840792998</v>
+        <v>0.3454313889218028</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.392037330573153</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09064373898308808</v>
       </c>
       <c r="M2">
-        <v>0.7457210915434089</v>
+        <v>0.7476548599851469</v>
       </c>
       <c r="N2">
-        <v>0.6690145750278753</v>
+        <v>0.1943409081230101</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2054358493585582</v>
+      </c>
+      <c r="P2">
+        <v>0.9829313075070942</v>
+      </c>
+      <c r="Q2">
+        <v>1.469196382577138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175425981868159</v>
+        <v>0.7510828444874562</v>
       </c>
       <c r="C3">
-        <v>0.5071209123399854</v>
+        <v>0.135574009859873</v>
       </c>
       <c r="D3">
-        <v>0.08624484152118583</v>
+        <v>0.1108727468714008</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.185780324592571</v>
+        <v>0.6255656921141366</v>
       </c>
       <c r="G3">
-        <v>0.9074658671966773</v>
+        <v>0.3705479021537599</v>
       </c>
       <c r="H3">
-        <v>0.5778096309250458</v>
+        <v>0.01028054727105583</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007420868890369192</v>
       </c>
       <c r="J3">
-        <v>0.1281081725692417</v>
+        <v>0.3460030751325149</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3932276667506791</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08843066313302117</v>
       </c>
       <c r="M3">
-        <v>0.6496101013944298</v>
+        <v>0.6530235435561735</v>
       </c>
       <c r="N3">
-        <v>0.7172890469026092</v>
+        <v>0.1769677380641141</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1807824790659858</v>
+      </c>
+      <c r="P3">
+        <v>1.008783815023577</v>
+      </c>
+      <c r="Q3">
+        <v>1.456348522968767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.970526242859677</v>
+        <v>0.6830272262433539</v>
       </c>
       <c r="C4">
-        <v>0.4598081811633961</v>
+        <v>0.1318838871336681</v>
       </c>
       <c r="D4">
-        <v>0.08214104847395731</v>
+        <v>0.1046958813724785</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.126883302673136</v>
+        <v>0.6176555857521322</v>
       </c>
       <c r="G4">
-        <v>0.8539295661511375</v>
+        <v>0.3668542051441648</v>
       </c>
       <c r="H4">
-        <v>0.5581236266890812</v>
+        <v>0.01166136507576268</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.008517668596395023</v>
       </c>
       <c r="J4">
-        <v>0.1238987970211127</v>
+        <v>0.3465710464959173</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3941589913656038</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08702642866884958</v>
       </c>
       <c r="M4">
-        <v>0.5912422886749553</v>
+        <v>0.5947907911299097</v>
       </c>
       <c r="N4">
-        <v>0.7482540877580651</v>
+        <v>0.1663508878589042</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1656203749615806</v>
+      </c>
+      <c r="P4">
+        <v>1.025242899303569</v>
+      </c>
+      <c r="Q4">
+        <v>1.449550760153116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887384504682103</v>
+        <v>0.6546465751439996</v>
       </c>
       <c r="C5">
-        <v>0.4405846539118272</v>
+        <v>0.1304963033833033</v>
       </c>
       <c r="D5">
-        <v>0.0804851611891948</v>
+        <v>0.1021969403653245</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.103524954310885</v>
+        <v>0.6142127147206224</v>
       </c>
       <c r="G5">
-        <v>0.8326688145449168</v>
+        <v>0.3651656515632098</v>
       </c>
       <c r="H5">
-        <v>0.5504177916079129</v>
+        <v>0.01226674632269129</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009086764355236809</v>
       </c>
       <c r="J5">
-        <v>0.1222406289577478</v>
+        <v>0.3467223816278135</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.394342520840091</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0864115043086553</v>
       </c>
       <c r="M5">
-        <v>0.5675988214523215</v>
+        <v>0.5710417037143571</v>
       </c>
       <c r="N5">
-        <v>0.7611939928189047</v>
+        <v>0.1621450533914768</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1593966996930583</v>
+      </c>
+      <c r="P5">
+        <v>1.032092436391768</v>
+      </c>
+      <c r="Q5">
+        <v>1.446222223982772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.873598605842574</v>
+        <v>0.6492393631259574</v>
       </c>
       <c r="C6">
-        <v>0.4373956301479041</v>
+        <v>0.1304093462720957</v>
       </c>
       <c r="D6">
-        <v>0.08021116450766641</v>
+        <v>0.1017955111440187</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.099683635138788</v>
+        <v>0.613256967995369</v>
       </c>
       <c r="G6">
-        <v>0.829170623808352</v>
+        <v>0.3645751296008868</v>
       </c>
       <c r="H6">
-        <v>0.5491566941017823</v>
+        <v>0.01237408197361319</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.009290908456642377</v>
       </c>
       <c r="J6">
-        <v>0.1219686342214956</v>
+        <v>0.3465872397065937</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3940760228820714</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08627073477176239</v>
       </c>
       <c r="M6">
-        <v>0.5636808462818266</v>
+        <v>0.5671155038023699</v>
       </c>
       <c r="N6">
-        <v>0.7633617412506888</v>
+        <v>0.1615809068802108</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1583159626723472</v>
+      </c>
+      <c r="P6">
+        <v>1.033237100614141</v>
+      </c>
+      <c r="Q6">
+        <v>1.444676049675181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969403603100062</v>
+        <v>0.6807554519592713</v>
       </c>
       <c r="C7">
-        <v>0.459548714303935</v>
+        <v>0.1322587384751586</v>
       </c>
       <c r="D7">
-        <v>0.08211865143403685</v>
+        <v>0.10469796364616</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.126565749886581</v>
+        <v>0.6165449041323612</v>
       </c>
       <c r="G7">
-        <v>0.8536406508930554</v>
+        <v>0.3659729369530353</v>
       </c>
       <c r="H7">
-        <v>0.5580184520476905</v>
+        <v>0.01168100636792191</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.008802143643324989</v>
       </c>
       <c r="J7">
-        <v>0.1238762078965294</v>
+        <v>0.3461275042605152</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.393343647011644</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0869150323127954</v>
       </c>
       <c r="M7">
-        <v>0.5909228758365757</v>
+        <v>0.594523754703431</v>
       </c>
       <c r="N7">
-        <v>0.7484273132760674</v>
+        <v>0.1666595092791781</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.16540803780007</v>
+      </c>
+      <c r="P7">
+        <v>1.025342346708484</v>
+      </c>
+      <c r="Q7">
+        <v>1.446752128924572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.395473325894216</v>
+        <v>0.8208938059230206</v>
       </c>
       <c r="C8">
-        <v>0.5578424484460527</v>
+        <v>0.1400452359469639</v>
       </c>
       <c r="D8">
-        <v>0.09068326680598204</v>
+        <v>0.1175386215598024</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.250975424568708</v>
+        <v>0.6329523395651435</v>
       </c>
       <c r="G8">
-        <v>0.9666359155047672</v>
+        <v>0.3736179342665054</v>
       </c>
       <c r="H8">
-        <v>0.5999635629493554</v>
+        <v>0.008956418626277066</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006726228246455079</v>
       </c>
       <c r="J8">
-        <v>0.132806542838523</v>
+        <v>0.3449986985907145</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3913321654074871</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08975588099661636</v>
       </c>
       <c r="M8">
-        <v>0.7124355674607017</v>
+        <v>0.7151210314312806</v>
       </c>
       <c r="N8">
-        <v>0.6853775225718624</v>
+        <v>0.1888263153955663</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1967686419298218</v>
+      </c>
+      <c r="P8">
+        <v>0.9917822951578721</v>
+      </c>
+      <c r="Q8">
+        <v>1.460914200152914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.247500460031745</v>
+        <v>1.096502720607191</v>
       </c>
       <c r="C9">
-        <v>0.7535595110925044</v>
+        <v>0.1546726318920335</v>
       </c>
       <c r="D9">
-        <v>0.1080871382275603</v>
+        <v>0.1429226550818612</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.519531355297588</v>
+        <v>0.6703671587466289</v>
       </c>
       <c r="G9">
-        <v>1.209849652501305</v>
+        <v>0.3926592345615205</v>
       </c>
       <c r="H9">
-        <v>0.6940924407393538</v>
+        <v>0.004921593737230834</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003598232151211356</v>
       </c>
       <c r="J9">
-        <v>0.152442758300829</v>
+        <v>0.3453403974988305</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3904693050522567</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09515558415585446</v>
       </c>
       <c r="M9">
-        <v>0.9568357856592939</v>
+        <v>0.9506180727103981</v>
       </c>
       <c r="N9">
-        <v>0.5728070911387334</v>
+        <v>0.2320850894812168</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2583274142176641</v>
+      </c>
+      <c r="P9">
+        <v>0.9306446926801915</v>
+      </c>
+      <c r="Q9">
+        <v>1.502569014732742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.888468731648572</v>
+        <v>1.291153458997655</v>
       </c>
       <c r="C10">
-        <v>0.9002641115537529</v>
+        <v>0.1667118649867305</v>
       </c>
       <c r="D10">
-        <v>0.1213294046780078</v>
+        <v>0.1590824715314341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.735817416405595</v>
+        <v>0.6927805453853466</v>
       </c>
       <c r="G10">
-        <v>1.405514758594961</v>
+        <v>0.4039593063964446</v>
       </c>
       <c r="H10">
-        <v>0.7722390401939379</v>
+        <v>0.003145811277597499</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002375554042112427</v>
       </c>
       <c r="J10">
-        <v>0.1684594483635067</v>
+        <v>0.3445139668331834</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3874071953918765</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09721138789552697</v>
       </c>
       <c r="M10">
-        <v>1.141654773080568</v>
+        <v>1.122781862098321</v>
       </c>
       <c r="N10">
-        <v>0.4976973424720532</v>
+        <v>0.2554965854271387</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2986241263963549</v>
+      </c>
+      <c r="P10">
+        <v>0.8897105424018079</v>
+      </c>
+      <c r="Q10">
+        <v>1.525179961728725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.1845385551037</v>
+        <v>1.329384970114745</v>
       </c>
       <c r="C11">
-        <v>0.9679124447625327</v>
+        <v>0.1822947130227135</v>
       </c>
       <c r="D11">
-        <v>0.1274735607614303</v>
+        <v>0.1436687085228812</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.839321645232303</v>
+        <v>0.6439961074591096</v>
       </c>
       <c r="G11">
-        <v>1.499154839298171</v>
+        <v>0.3742696357013386</v>
       </c>
       <c r="H11">
-        <v>0.8101770205086325</v>
+        <v>0.02177647114185177</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00263026740630945</v>
       </c>
       <c r="J11">
-        <v>0.1761641980251838</v>
+        <v>0.3265269802994766</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3590453986173685</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08936129776737384</v>
       </c>
       <c r="M11">
-        <v>1.227255725135095</v>
+        <v>1.196530310834618</v>
       </c>
       <c r="N11">
-        <v>0.4653876039102069</v>
+        <v>0.1954646895218843</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2757678311875686</v>
+      </c>
+      <c r="P11">
+        <v>0.882625266025947</v>
+      </c>
+      <c r="Q11">
+        <v>1.424722033757718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.297410965488268</v>
+        <v>1.322880932139753</v>
       </c>
       <c r="C12">
-        <v>0.9936858518111933</v>
+        <v>0.193396320740888</v>
       </c>
       <c r="D12">
-        <v>0.1298193935854925</v>
+        <v>0.1279205552760203</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.879343392250775</v>
+        <v>0.6006081296395038</v>
       </c>
       <c r="G12">
-        <v>1.535367366171329</v>
+        <v>0.3485989089533064</v>
       </c>
       <c r="H12">
-        <v>0.8249271417036823</v>
+        <v>0.06063811902019012</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002587631468213836</v>
       </c>
       <c r="J12">
-        <v>0.1791487695065186</v>
+        <v>0.3122972656433234</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3378177197190908</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09014955068022701</v>
       </c>
       <c r="M12">
-        <v>1.259925083998965</v>
+        <v>1.222258206294043</v>
       </c>
       <c r="N12">
-        <v>0.4534397641421171</v>
+        <v>0.1473604238065676</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2490590204567624</v>
+      </c>
+      <c r="P12">
+        <v>0.8887170317055428</v>
+      </c>
+      <c r="Q12">
+        <v>1.340553005834209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.273066295954209</v>
+        <v>1.278612217395448</v>
       </c>
       <c r="C13">
-        <v>0.9881276958937804</v>
+        <v>0.202187645635874</v>
       </c>
       <c r="D13">
-        <v>0.1293132915631503</v>
+        <v>0.1111308978834487</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.870685656707039</v>
+        <v>0.5571518751353253</v>
       </c>
       <c r="G13">
-        <v>1.527533373543491</v>
+        <v>0.3231168786995369</v>
       </c>
       <c r="H13">
-        <v>0.8217326807409222</v>
+        <v>0.1167190248148131</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002697481202932117</v>
       </c>
       <c r="J13">
-        <v>0.1785028962624651</v>
+        <v>0.2993783704622501</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3195075014573376</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0972473807261629</v>
       </c>
       <c r="M13">
-        <v>1.252877258851896</v>
+        <v>1.212360883388499</v>
       </c>
       <c r="N13">
-        <v>0.4559998340142254</v>
+        <v>0.1063620862830348</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2178097738852678</v>
+      </c>
+      <c r="P13">
+        <v>0.9046783381301964</v>
+      </c>
+      <c r="Q13">
+        <v>1.259454593909481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.193808780943925</v>
+        <v>1.230121414330426</v>
       </c>
       <c r="C14">
-        <v>0.9700295478993439</v>
+        <v>0.2075457026441256</v>
       </c>
       <c r="D14">
-        <v>0.1276661580433256</v>
+        <v>0.09912130122031471</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.842597127763526</v>
+        <v>0.5268092442025392</v>
       </c>
       <c r="G14">
-        <v>1.502118441944759</v>
+        <v>0.3053580505315736</v>
       </c>
       <c r="H14">
-        <v>0.8113825832752752</v>
+        <v>0.166353878039132</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00294066462359055</v>
       </c>
       <c r="J14">
-        <v>0.1764083576647337</v>
+        <v>0.2908989746125954</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.308016404115083</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.105977388686572</v>
       </c>
       <c r="M14">
-        <v>1.229938148018292</v>
+        <v>1.189317765256959</v>
       </c>
       <c r="N14">
-        <v>0.4643987712562608</v>
+        <v>0.08223498036203836</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1941808472596023</v>
+      </c>
+      <c r="P14">
+        <v>0.9206377992055224</v>
+      </c>
+      <c r="Q14">
+        <v>1.203998671535118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.145363379699631</v>
+        <v>1.209682272529989</v>
       </c>
       <c r="C15">
-        <v>0.958965083559832</v>
+        <v>0.208446749426372</v>
       </c>
       <c r="D15">
-        <v>0.126659797642418</v>
+        <v>0.0959162721215705</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.825502659874516</v>
+        <v>0.5190105148428827</v>
       </c>
       <c r="G15">
-        <v>1.486651872599452</v>
+        <v>0.3007715683085834</v>
       </c>
       <c r="H15">
-        <v>0.8050941044856472</v>
+        <v>0.1790007763921153</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003164154890406223</v>
       </c>
       <c r="J15">
-        <v>0.1751343229718714</v>
+        <v>0.2889699930149092</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3055214086818303</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1084425600500865</v>
       </c>
       <c r="M15">
-        <v>1.215921467707062</v>
+        <v>1.176140388512721</v>
       </c>
       <c r="N15">
-        <v>0.4695813864145397</v>
+        <v>0.07692784433249145</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.187359024339262</v>
+      </c>
+      <c r="P15">
+        <v>0.9262722259568434</v>
+      </c>
+      <c r="Q15">
+        <v>1.190206697517695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.869219500759812</v>
+        <v>1.13479797911063</v>
       </c>
       <c r="C16">
-        <v>0.8958635850858343</v>
+        <v>0.2013798419014563</v>
       </c>
       <c r="D16">
-        <v>0.1209304455184466</v>
+        <v>0.09277630874972687</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.729163699734031</v>
+        <v>0.5177906225806481</v>
       </c>
       <c r="G16">
-        <v>1.399495593743836</v>
+        <v>0.300561601910303</v>
       </c>
       <c r="H16">
-        <v>0.7698111256233346</v>
+        <v>0.1670264086043005</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003785251359750497</v>
       </c>
       <c r="J16">
-        <v>0.1679649110226649</v>
+        <v>0.291565730598407</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3099975647692581</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1057188067940444</v>
       </c>
       <c r="M16">
-        <v>1.136094141765213</v>
+        <v>1.10399031577461</v>
       </c>
       <c r="N16">
-        <v>0.499847910676558</v>
+        <v>0.07632688076295935</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.177151983154463</v>
+      </c>
+      <c r="P16">
+        <v>0.938453726156034</v>
+      </c>
+      <c r="Q16">
+        <v>1.195036203840544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.701040037425059</v>
+        <v>1.103003800947221</v>
       </c>
       <c r="C17">
-        <v>0.857403563839398</v>
+        <v>0.1931027453561001</v>
       </c>
       <c r="D17">
-        <v>0.1174477435896151</v>
+        <v>0.09662006180253968</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.67143505900161</v>
+        <v>0.5328496529847371</v>
       </c>
       <c r="G17">
-        <v>1.347273402932672</v>
+        <v>0.3097890764771023</v>
       </c>
       <c r="H17">
-        <v>0.7488053914609907</v>
+        <v>0.1296896875848432</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004167043652897107</v>
       </c>
       <c r="J17">
-        <v>0.1636785330885431</v>
+        <v>0.2980716136542654</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3194651580177705</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09838092227647266</v>
       </c>
       <c r="M17">
-        <v>1.087537084964261</v>
+        <v>1.061013921126829</v>
       </c>
       <c r="N17">
-        <v>0.5189049283364122</v>
+        <v>0.08782500580729646</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1816407477350843</v>
+      </c>
+      <c r="P17">
+        <v>0.939487987790173</v>
+      </c>
+      <c r="Q17">
+        <v>1.228125663735867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.604722975303503</v>
+        <v>1.106005880179936</v>
       </c>
       <c r="C18">
-        <v>0.8353665180077599</v>
+        <v>0.182833030892894</v>
       </c>
       <c r="D18">
-        <v>0.1154557738545492</v>
+        <v>0.1073272508694458</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.638706487189765</v>
+        <v>0.5649627179423291</v>
       </c>
       <c r="G18">
-        <v>1.317666761055847</v>
+        <v>0.329087871706875</v>
       </c>
       <c r="H18">
-        <v>0.7369456379967119</v>
+        <v>0.07694248451855401</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004031990928867302</v>
       </c>
       <c r="J18">
-        <v>0.1612520880854476</v>
+        <v>0.3090830526906032</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3352952809318417</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08988035333637256</v>
       </c>
       <c r="M18">
-        <v>1.059749694862901</v>
+        <v>1.038074544813981</v>
       </c>
       <c r="N18">
-        <v>0.5300396025086527</v>
+        <v>0.1150180882587151</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1999684311281165</v>
+      </c>
+      <c r="P18">
+        <v>0.9322685472857373</v>
+      </c>
+      <c r="Q18">
+        <v>1.292049165528653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.572179788793051</v>
+        <v>1.13311792980025</v>
       </c>
       <c r="C19">
-        <v>0.8279188751992592</v>
+        <v>0.1735495178124253</v>
       </c>
       <c r="D19">
-        <v>0.1147831940828183</v>
+        <v>0.1235898729466101</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.627704169947449</v>
+        <v>0.6080097701943927</v>
       </c>
       <c r="G19">
-        <v>1.307713832846161</v>
+        <v>0.3543986081312838</v>
       </c>
       <c r="H19">
-        <v>0.7329671275353746</v>
+        <v>0.03130537996089089</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004046425867478831</v>
       </c>
       <c r="J19">
-        <v>0.1604370332774465</v>
+        <v>0.3224623614700164</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3547346955151589</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08653708355958578</v>
       </c>
       <c r="M19">
-        <v>1.050364636932244</v>
+        <v>1.032944082103427</v>
       </c>
       <c r="N19">
-        <v>0.5338388482844195</v>
+        <v>0.1596336279146655</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2289547838101846</v>
+      </c>
+      <c r="P19">
+        <v>0.9220747979802297</v>
+      </c>
+      <c r="Q19">
+        <v>1.373719722235535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.718899272895897</v>
+        <v>1.233886477537794</v>
       </c>
       <c r="C20">
-        <v>0.8614888153907714</v>
+        <v>0.1649157382149937</v>
       </c>
       <c r="D20">
-        <v>0.1178173120954398</v>
+        <v>0.1548291482458666</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.677530534464424</v>
+        <v>0.6832013073979368</v>
       </c>
       <c r="G20">
-        <v>1.352787419255492</v>
+        <v>0.3980788035720337</v>
       </c>
       <c r="H20">
-        <v>0.7510182128422684</v>
+        <v>0.003557795431250454</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003476854931255602</v>
       </c>
       <c r="J20">
-        <v>0.1641307457575465</v>
+        <v>0.3432209296024524</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3855421533985499</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09631550390829879</v>
       </c>
       <c r="M20">
-        <v>1.092691197610982</v>
+        <v>1.077734694410481</v>
       </c>
       <c r="N20">
-        <v>0.516858172908758</v>
+        <v>0.2501027668789817</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2874421393190403</v>
+      </c>
+      <c r="P20">
+        <v>0.9006768204156863</v>
+      </c>
+      <c r="Q20">
+        <v>1.509905539928624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.21706713805645</v>
+        <v>1.392269560718319</v>
       </c>
       <c r="C21">
-        <v>0.975340950859362</v>
+        <v>0.1724581196321893</v>
       </c>
       <c r="D21">
-        <v>0.1281494246765931</v>
+        <v>0.1714486809245557</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.850824190790348</v>
+        <v>0.712352257975013</v>
       </c>
       <c r="G21">
-        <v>1.509562246278108</v>
+        <v>0.4140566906372669</v>
       </c>
       <c r="H21">
-        <v>0.8144118983575765</v>
+        <v>0.002045909184769323</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0026228010067193</v>
       </c>
       <c r="J21">
-        <v>0.1770217002625003</v>
+        <v>0.3463725599553555</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.38887057240159</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1004681391372841</v>
       </c>
       <c r="M21">
-        <v>1.236668729198342</v>
+        <v>1.210549403175804</v>
       </c>
       <c r="N21">
-        <v>0.4619238371821067</v>
+        <v>0.2817337210181989</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3258537965307866</v>
+      </c>
+      <c r="P21">
+        <v>0.8690246024840498</v>
+      </c>
+      <c r="Q21">
+        <v>1.550668522062324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.547122493313964</v>
+        <v>1.495344872379491</v>
       </c>
       <c r="C22">
-        <v>1.050675640157692</v>
+        <v>0.1773724332363287</v>
       </c>
       <c r="D22">
-        <v>0.1350148388556676</v>
+        <v>0.1809329327654439</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.968951127981882</v>
+        <v>0.7297735282585762</v>
       </c>
       <c r="G22">
-        <v>1.616460235950029</v>
+        <v>0.4239330666638637</v>
       </c>
       <c r="H22">
-        <v>0.8581024451708856</v>
+        <v>0.001380332395801598</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001936090894407272</v>
       </c>
       <c r="J22">
-        <v>0.1858405592413632</v>
+        <v>0.3481969085189434</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3907102359009329</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1024296483763649</v>
       </c>
       <c r="M22">
-        <v>1.332266450487779</v>
+        <v>1.297020805284319</v>
       </c>
       <c r="N22">
-        <v>0.4277056217807754</v>
+        <v>0.2974630253038271</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3486936590514134</v>
+      </c>
+      <c r="P22">
+        <v>0.8491719452923228</v>
+      </c>
+      <c r="Q22">
+        <v>1.57560956235983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.370516443231509</v>
+        <v>1.442655071183083</v>
       </c>
       <c r="C23">
-        <v>1.010374279251295</v>
+        <v>0.1742372479749861</v>
       </c>
       <c r="D23">
-        <v>0.13133964271222</v>
+        <v>0.1758232066353571</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.905426254872737</v>
+        <v>0.7216625319966425</v>
       </c>
       <c r="G23">
-        <v>1.558969615203011</v>
+        <v>0.4196198804884261</v>
       </c>
       <c r="H23">
-        <v>0.8345628183887754</v>
+        <v>0.001713805397036028</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001965392014132483</v>
       </c>
       <c r="J23">
-        <v>0.1810953171484329</v>
+        <v>0.3477085220569478</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3906390370771007</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1014990677329237</v>
       </c>
       <c r="M23">
-        <v>1.281094459207196</v>
+        <v>1.250809061192598</v>
       </c>
       <c r="N23">
-        <v>0.4458072499113906</v>
+        <v>0.2886168579637882</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3366602576455335</v>
+      </c>
+      <c r="P23">
+        <v>0.8595297641054032</v>
+      </c>
+      <c r="Q23">
+        <v>1.565346027027374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.710823963524888</v>
+        <v>1.239023479784947</v>
       </c>
       <c r="C24">
-        <v>0.8596416441393444</v>
+        <v>0.1632490283112418</v>
       </c>
       <c r="D24">
-        <v>0.1176501982887856</v>
+        <v>0.1566289221435966</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.674773342784889</v>
+        <v>0.6899878690347876</v>
       </c>
       <c r="G24">
-        <v>1.350293241361072</v>
+        <v>0.4024921937269994</v>
       </c>
       <c r="H24">
-        <v>0.7500171242500642</v>
+        <v>0.003357705781670051</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002948006128764113</v>
       </c>
       <c r="J24">
-        <v>0.1639261830146594</v>
+        <v>0.3455440079160255</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3893673360445149</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09773523622604863</v>
       </c>
       <c r="M24">
-        <v>1.090360624964283</v>
+        <v>1.075887080203984</v>
       </c>
       <c r="N24">
-        <v>0.5177829564079937</v>
+        <v>0.2559745420969506</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2908478324642942</v>
+      </c>
+      <c r="P24">
+        <v>0.9003137446311911</v>
+      </c>
+      <c r="Q24">
+        <v>1.524124291861909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014756188769866</v>
+        <v>1.018734859335581</v>
       </c>
       <c r="C25">
-        <v>0.7001878657319196</v>
+        <v>0.1514486714693959</v>
       </c>
       <c r="D25">
-        <v>0.1033054862035883</v>
+        <v>0.1360899327900142</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.443857329056797</v>
+        <v>0.6579651797265313</v>
       </c>
       <c r="G25">
-        <v>1.141367639786125</v>
+        <v>0.3856859780036714</v>
       </c>
       <c r="H25">
-        <v>0.667185637460193</v>
+        <v>0.005876115014945282</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004758959531642404</v>
       </c>
       <c r="J25">
-        <v>0.1468743710128706</v>
+        <v>0.3442628620082715</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3890720785243609</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09355217240332259</v>
       </c>
       <c r="M25">
-        <v>0.88991476268626</v>
+        <v>0.8870805732160534</v>
       </c>
       <c r="N25">
-        <v>0.6019925168317354</v>
+        <v>0.2209982846787426</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2414512010960301</v>
+      </c>
+      <c r="P25">
+        <v>0.9468221125874106</v>
+      </c>
+      <c r="Q25">
+        <v>1.48537964036251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8613785145393535</v>
+        <v>0.8310310269752677</v>
       </c>
       <c r="C2">
-        <v>0.1415893803971926</v>
+        <v>0.1306387314555408</v>
       </c>
       <c r="D2">
-        <v>0.1209838485305568</v>
+        <v>0.1222761659266922</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6391096476618756</v>
+        <v>0.608937991518367</v>
       </c>
       <c r="G2">
-        <v>0.3770579200300688</v>
+        <v>0.339050690942905</v>
       </c>
       <c r="H2">
-        <v>0.008292046051853727</v>
+        <v>0.007180149674316849</v>
       </c>
       <c r="I2">
-        <v>0.005903733994539806</v>
+        <v>0.004487001662147883</v>
       </c>
       <c r="J2">
-        <v>0.3454313889218028</v>
+        <v>0.3532733004272544</v>
       </c>
       <c r="K2">
-        <v>0.392037330573153</v>
+        <v>0.360466895868278</v>
       </c>
       <c r="L2">
-        <v>0.09064373898308808</v>
+        <v>0.1668739636147585</v>
       </c>
       <c r="M2">
-        <v>0.7476548599851469</v>
+        <v>0.1074502755502706</v>
       </c>
       <c r="N2">
-        <v>0.1943409081230101</v>
+        <v>0.08692741919288949</v>
       </c>
       <c r="O2">
-        <v>0.2054358493585582</v>
+        <v>0.7511106822369698</v>
       </c>
       <c r="P2">
-        <v>0.9829313075070942</v>
+        <v>0.2072086943478055</v>
       </c>
       <c r="Q2">
-        <v>1.469196382577138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2032199092108478</v>
+      </c>
+      <c r="R2">
+        <v>0.9569232469417059</v>
+      </c>
+      <c r="S2">
+        <v>1.385604194415393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7510828444874562</v>
+        <v>0.7271757476748348</v>
       </c>
       <c r="C3">
-        <v>0.135574009859873</v>
+        <v>0.1225569607444683</v>
       </c>
       <c r="D3">
-        <v>0.1108727468714008</v>
+        <v>0.1121227696761693</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6255656921141366</v>
+        <v>0.5977224304355104</v>
       </c>
       <c r="G3">
-        <v>0.3705479021537599</v>
+        <v>0.335475692598763</v>
       </c>
       <c r="H3">
-        <v>0.01028054727105583</v>
+        <v>0.008927764378886496</v>
       </c>
       <c r="I3">
-        <v>0.007420868890369192</v>
+        <v>0.005644781495818485</v>
       </c>
       <c r="J3">
-        <v>0.3460030751325149</v>
+        <v>0.3522123917910918</v>
       </c>
       <c r="K3">
-        <v>0.3932276667506791</v>
+        <v>0.362897695007085</v>
       </c>
       <c r="L3">
-        <v>0.08843066313302117</v>
+        <v>0.1712862760632738</v>
       </c>
       <c r="M3">
-        <v>0.6530235435561735</v>
+        <v>0.1064986217064803</v>
       </c>
       <c r="N3">
-        <v>0.1769677380641141</v>
+        <v>0.08502380759475514</v>
       </c>
       <c r="O3">
-        <v>0.1807824790659858</v>
+        <v>0.656321692413016</v>
       </c>
       <c r="P3">
-        <v>1.008783815023577</v>
+        <v>0.1888482049015963</v>
       </c>
       <c r="Q3">
-        <v>1.456348522968767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1789657545233432</v>
+      </c>
+      <c r="R3">
+        <v>0.9799050531455169</v>
+      </c>
+      <c r="S3">
+        <v>1.377917452692031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6830272262433539</v>
+        <v>0.6629337508797164</v>
       </c>
       <c r="C4">
-        <v>0.1318838871336681</v>
+        <v>0.1176490782244528</v>
       </c>
       <c r="D4">
-        <v>0.1046958813724785</v>
+        <v>0.1059247735938769</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6176555857521322</v>
+        <v>0.591158618049711</v>
       </c>
       <c r="G4">
-        <v>0.3668542051441648</v>
+        <v>0.3335922112523946</v>
       </c>
       <c r="H4">
-        <v>0.01166136507576268</v>
+        <v>0.0101429801751481</v>
       </c>
       <c r="I4">
-        <v>0.008517668596395023</v>
+        <v>0.006499459875119129</v>
       </c>
       <c r="J4">
-        <v>0.3465710464959173</v>
+        <v>0.351640008987772</v>
       </c>
       <c r="K4">
-        <v>0.3941589913656038</v>
+        <v>0.3645281950028618</v>
       </c>
       <c r="L4">
-        <v>0.08702642866884958</v>
+        <v>0.1740990225891359</v>
       </c>
       <c r="M4">
-        <v>0.5947907911299097</v>
+        <v>0.1064183453248635</v>
       </c>
       <c r="N4">
-        <v>0.1663508878589042</v>
+        <v>0.08380966440793891</v>
       </c>
       <c r="O4">
-        <v>0.1656203749615806</v>
+        <v>0.597977339423295</v>
       </c>
       <c r="P4">
-        <v>1.025242899303569</v>
+        <v>0.1776566912135351</v>
       </c>
       <c r="Q4">
-        <v>1.449550760153116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1640361885824859</v>
+      </c>
+      <c r="R4">
+        <v>0.9946206201098207</v>
+      </c>
+      <c r="S4">
+        <v>1.374055171144306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6546465751439996</v>
+        <v>0.6360736700985115</v>
       </c>
       <c r="C5">
-        <v>0.1304963033833033</v>
+        <v>0.115799006373706</v>
       </c>
       <c r="D5">
-        <v>0.1021969403653245</v>
+        <v>0.1034187566289404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6142127147206224</v>
+        <v>0.5882466869973655</v>
       </c>
       <c r="G5">
-        <v>0.3651656515632098</v>
+        <v>0.3326514910474287</v>
       </c>
       <c r="H5">
-        <v>0.01226674632269129</v>
+        <v>0.0106762732140904</v>
       </c>
       <c r="I5">
-        <v>0.009086764355236809</v>
+        <v>0.006976837342534736</v>
       </c>
       <c r="J5">
-        <v>0.3467223816278135</v>
+        <v>0.3512877664231056</v>
       </c>
       <c r="K5">
-        <v>0.394342520840091</v>
+        <v>0.364990242946309</v>
       </c>
       <c r="L5">
-        <v>0.0864115043086553</v>
+        <v>0.1751472131654168</v>
       </c>
       <c r="M5">
-        <v>0.5710417037143571</v>
+        <v>0.1064581627946497</v>
       </c>
       <c r="N5">
-        <v>0.1621450533914768</v>
+        <v>0.08327365904335871</v>
       </c>
       <c r="O5">
-        <v>0.1593966996930583</v>
+        <v>0.5741799696232732</v>
       </c>
       <c r="P5">
-        <v>1.032092436391768</v>
+        <v>0.1732279699110535</v>
       </c>
       <c r="Q5">
-        <v>1.446222223982772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1579039077785964</v>
+      </c>
+      <c r="R5">
+        <v>1.000782654192847</v>
+      </c>
+      <c r="S5">
+        <v>1.371878055291617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6492393631259574</v>
+        <v>0.6309185827575448</v>
       </c>
       <c r="C6">
-        <v>0.1304093462720957</v>
+        <v>0.1156621683016184</v>
       </c>
       <c r="D6">
-        <v>0.1017955111440187</v>
+        <v>0.1030165811353569</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.613256967995369</v>
+        <v>0.5873815414429799</v>
       </c>
       <c r="G6">
-        <v>0.3645751296008868</v>
+        <v>0.3321957370988144</v>
       </c>
       <c r="H6">
-        <v>0.01237408197361319</v>
+        <v>0.01077102427891679</v>
       </c>
       <c r="I6">
-        <v>0.009290908456642377</v>
+        <v>0.007181847845165734</v>
       </c>
       <c r="J6">
-        <v>0.3465872397065937</v>
+        <v>0.3510610629051811</v>
       </c>
       <c r="K6">
-        <v>0.3940760228820714</v>
+        <v>0.3647803822761162</v>
       </c>
       <c r="L6">
-        <v>0.08627073477176239</v>
+        <v>0.1751718907723685</v>
       </c>
       <c r="M6">
-        <v>0.5671155038023699</v>
+        <v>0.10640582485021</v>
       </c>
       <c r="N6">
-        <v>0.1615809068802108</v>
+        <v>0.08314775887928683</v>
       </c>
       <c r="O6">
-        <v>0.1583159626723472</v>
+        <v>0.570246084800857</v>
       </c>
       <c r="P6">
-        <v>1.033237100614141</v>
+        <v>0.1726314160913631</v>
       </c>
       <c r="Q6">
-        <v>1.444676049675181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1568377738014171</v>
+      </c>
+      <c r="R6">
+        <v>1.001835911796789</v>
+      </c>
+      <c r="S6">
+        <v>1.370535732930719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6807554519592713</v>
+        <v>0.6603643536154777</v>
       </c>
       <c r="C7">
-        <v>0.1322587384751586</v>
+        <v>0.1179636215132547</v>
       </c>
       <c r="D7">
-        <v>0.10469796364616</v>
+        <v>0.1060697115326548</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6165449041323612</v>
+        <v>0.5894733079023524</v>
       </c>
       <c r="G7">
-        <v>0.3659729369530353</v>
+        <v>0.3349643345880651</v>
       </c>
       <c r="H7">
-        <v>0.01168100636792191</v>
+        <v>0.01016616132308393</v>
       </c>
       <c r="I7">
-        <v>0.008802143643324989</v>
+        <v>0.006830284913661444</v>
       </c>
       <c r="J7">
-        <v>0.3461275042605152</v>
+        <v>0.3479750248711611</v>
       </c>
       <c r="K7">
-        <v>0.393343647011644</v>
+        <v>0.3634644660021493</v>
       </c>
       <c r="L7">
-        <v>0.0869150323127954</v>
+        <v>0.1735684607612527</v>
       </c>
       <c r="M7">
-        <v>0.594523754703431</v>
+        <v>0.1061564407408611</v>
       </c>
       <c r="N7">
-        <v>0.1666595092791781</v>
+        <v>0.08369592820408123</v>
       </c>
       <c r="O7">
-        <v>0.16540803780007</v>
+        <v>0.5971279699140837</v>
       </c>
       <c r="P7">
-        <v>1.025342346708484</v>
+        <v>0.177963388661567</v>
       </c>
       <c r="Q7">
-        <v>1.446752128924572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1637707251897567</v>
+      </c>
+      <c r="R7">
+        <v>0.9948231802978995</v>
+      </c>
+      <c r="S7">
+        <v>1.369610341919341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8208938059230206</v>
+        <v>0.7917242135243896</v>
       </c>
       <c r="C8">
-        <v>0.1400452359469639</v>
+        <v>0.128048220184894</v>
       </c>
       <c r="D8">
-        <v>0.1175386215598024</v>
+        <v>0.1192931095681473</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6329523395651435</v>
+        <v>0.6016628406921214</v>
       </c>
       <c r="G8">
-        <v>0.3736179342665054</v>
+        <v>0.3440805698687441</v>
       </c>
       <c r="H8">
-        <v>0.008956418626277066</v>
+        <v>0.007778769905174565</v>
       </c>
       <c r="I8">
-        <v>0.006726228246455079</v>
+        <v>0.005257020751098906</v>
       </c>
       <c r="J8">
-        <v>0.3449986985907145</v>
+        <v>0.3419275902137926</v>
       </c>
       <c r="K8">
-        <v>0.3913321654074871</v>
+        <v>0.3593252394331259</v>
       </c>
       <c r="L8">
-        <v>0.08975588099661636</v>
+        <v>0.1674714823272261</v>
       </c>
       <c r="M8">
-        <v>0.7151210314312806</v>
+        <v>0.106448734021555</v>
       </c>
       <c r="N8">
-        <v>0.1888263153955663</v>
+        <v>0.08612885193486797</v>
       </c>
       <c r="O8">
-        <v>0.1967686419298218</v>
+        <v>0.7165718931870515</v>
       </c>
       <c r="P8">
-        <v>0.9917822951578721</v>
+        <v>0.2013301893019346</v>
       </c>
       <c r="Q8">
-        <v>1.460914200152914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1945128386958999</v>
+      </c>
+      <c r="R8">
+        <v>0.9651137882035989</v>
+      </c>
+      <c r="S8">
+        <v>1.37359844119031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.096502720607191</v>
+        <v>1.050126790863459</v>
       </c>
       <c r="C9">
-        <v>0.1546726318920335</v>
+        <v>0.1479094588124354</v>
       </c>
       <c r="D9">
-        <v>0.1429226550818612</v>
+        <v>0.1449454568294186</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6703671587466289</v>
+        <v>0.6322524224335311</v>
       </c>
       <c r="G9">
-        <v>0.3926592345615205</v>
+        <v>0.357872684135593</v>
       </c>
       <c r="H9">
-        <v>0.004921593737230834</v>
+        <v>0.004239411364697576</v>
       </c>
       <c r="I9">
-        <v>0.003598232151211356</v>
+        <v>0.002847274912819664</v>
       </c>
       <c r="J9">
-        <v>0.3453403974988305</v>
+        <v>0.3427724984853882</v>
       </c>
       <c r="K9">
-        <v>0.3904693050522567</v>
+        <v>0.3547458726585369</v>
       </c>
       <c r="L9">
-        <v>0.09515558415585446</v>
+        <v>0.157491751767953</v>
       </c>
       <c r="M9">
-        <v>0.9506180727103981</v>
+        <v>0.111691651536038</v>
       </c>
       <c r="N9">
-        <v>0.2320850894812168</v>
+        <v>0.09074790217965578</v>
       </c>
       <c r="O9">
-        <v>0.2583274142176641</v>
+        <v>0.9517795148580603</v>
       </c>
       <c r="P9">
-        <v>0.9306446926801915</v>
+        <v>0.2472067930050486</v>
       </c>
       <c r="Q9">
-        <v>1.502569014732742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2549482902901303</v>
+      </c>
+      <c r="R9">
+        <v>0.9113639668309546</v>
+      </c>
+      <c r="S9">
+        <v>1.399489229887848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.291153458997655</v>
+        <v>1.230195072537327</v>
       </c>
       <c r="C10">
-        <v>0.1667118649867305</v>
+        <v>0.1633781134398262</v>
       </c>
       <c r="D10">
-        <v>0.1590824715314341</v>
+        <v>0.1621439902127406</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6927805453853466</v>
+        <v>0.6464405347830677</v>
       </c>
       <c r="G10">
-        <v>0.4039593063964446</v>
+        <v>0.379201005246351</v>
       </c>
       <c r="H10">
-        <v>0.003145811277597499</v>
+        <v>0.002729512027593195</v>
       </c>
       <c r="I10">
-        <v>0.002375554042112427</v>
+        <v>0.002056333077226746</v>
       </c>
       <c r="J10">
-        <v>0.3445139668331834</v>
+        <v>0.3251222645644987</v>
       </c>
       <c r="K10">
-        <v>0.3874071953918765</v>
+        <v>0.347613868800785</v>
       </c>
       <c r="L10">
-        <v>0.09721138789552697</v>
+        <v>0.1490767430933779</v>
       </c>
       <c r="M10">
-        <v>1.122781862098321</v>
+        <v>0.1161836463182162</v>
       </c>
       <c r="N10">
-        <v>0.2554965854271387</v>
+        <v>0.09242109233421125</v>
       </c>
       <c r="O10">
-        <v>0.2986241263963549</v>
+        <v>1.12006756855908</v>
       </c>
       <c r="P10">
-        <v>0.8897105424018079</v>
+        <v>0.27226654288323</v>
       </c>
       <c r="Q10">
-        <v>1.525179961728725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2940970745906668</v>
+      </c>
+      <c r="R10">
+        <v>0.8771587768688569</v>
+      </c>
+      <c r="S10">
+        <v>1.401153003574947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.329384970114745</v>
+        <v>1.264865883494735</v>
       </c>
       <c r="C11">
-        <v>0.1822947130227135</v>
+        <v>0.1795163107675535</v>
       </c>
       <c r="D11">
-        <v>0.1436687085228812</v>
+        <v>0.1482097587675923</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6439961074591096</v>
+        <v>0.5939113355520718</v>
       </c>
       <c r="G11">
-        <v>0.3742696357013386</v>
+        <v>0.3798500383418855</v>
       </c>
       <c r="H11">
-        <v>0.02177647114185177</v>
+        <v>0.02140562634774312</v>
       </c>
       <c r="I11">
-        <v>0.00263026740630945</v>
+        <v>0.002521779015208558</v>
       </c>
       <c r="J11">
-        <v>0.3265269802994766</v>
+        <v>0.2808225022289008</v>
       </c>
       <c r="K11">
-        <v>0.3590453986173685</v>
+        <v>0.3195724649147742</v>
       </c>
       <c r="L11">
-        <v>0.08936129776737384</v>
+        <v>0.1370024727197361</v>
       </c>
       <c r="M11">
-        <v>1.196530310834618</v>
+        <v>0.1082405406166451</v>
       </c>
       <c r="N11">
-        <v>0.1954646895218843</v>
+        <v>0.0861729148764383</v>
       </c>
       <c r="O11">
-        <v>0.2757678311875686</v>
+        <v>1.185674726121107</v>
       </c>
       <c r="P11">
-        <v>0.882625266025947</v>
+        <v>0.2097365959269055</v>
       </c>
       <c r="Q11">
-        <v>1.424722033757718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2708327707181546</v>
+      </c>
+      <c r="R11">
+        <v>0.8792017166655626</v>
+      </c>
+      <c r="S11">
+        <v>1.289281976774831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.322880932139753</v>
+        <v>1.259773573464429</v>
       </c>
       <c r="C12">
-        <v>0.193396320740888</v>
+        <v>0.1903280668085898</v>
       </c>
       <c r="D12">
-        <v>0.1279205552760203</v>
+        <v>0.1328417018756198</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6006081296395038</v>
+        <v>0.5514683589644847</v>
       </c>
       <c r="G12">
-        <v>0.3485989089533064</v>
+        <v>0.368089579800035</v>
       </c>
       <c r="H12">
-        <v>0.06063811902019012</v>
+        <v>0.06026913328611982</v>
       </c>
       <c r="I12">
-        <v>0.002587631468213836</v>
+        <v>0.002497311790078172</v>
       </c>
       <c r="J12">
-        <v>0.3122972656433234</v>
+        <v>0.260624500263738</v>
       </c>
       <c r="K12">
-        <v>0.3378177197190908</v>
+        <v>0.3004886919657288</v>
       </c>
       <c r="L12">
-        <v>0.09014955068022701</v>
+        <v>0.1299235000646846</v>
       </c>
       <c r="M12">
-        <v>1.222258206294043</v>
+        <v>0.1014165334226576</v>
       </c>
       <c r="N12">
-        <v>0.1473604238065676</v>
+        <v>0.0882318592320086</v>
       </c>
       <c r="O12">
-        <v>0.2490590204567624</v>
+        <v>1.207465782570637</v>
       </c>
       <c r="P12">
-        <v>0.8887170317055428</v>
+        <v>0.1593251418145627</v>
       </c>
       <c r="Q12">
-        <v>1.340553005834209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2442542111403121</v>
+      </c>
+      <c r="R12">
+        <v>0.8911807291546836</v>
+      </c>
+      <c r="S12">
+        <v>1.206611761459115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.278612217395448</v>
+        <v>1.221718002844625</v>
       </c>
       <c r="C13">
-        <v>0.202187645635874</v>
+        <v>0.1988587550572447</v>
       </c>
       <c r="D13">
-        <v>0.1111308978834487</v>
+        <v>0.1154046391734624</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5571518751353253</v>
+        <v>0.5134623844267949</v>
       </c>
       <c r="G13">
-        <v>0.3231168786995369</v>
+        <v>0.339220332079492</v>
       </c>
       <c r="H13">
-        <v>0.1167190248148131</v>
+        <v>0.1163098738387589</v>
       </c>
       <c r="I13">
-        <v>0.002697481202932117</v>
+        <v>0.002553799902816678</v>
       </c>
       <c r="J13">
-        <v>0.2993783704622501</v>
+        <v>0.2559465285002887</v>
       </c>
       <c r="K13">
-        <v>0.3195075014573376</v>
+        <v>0.2861483782165877</v>
       </c>
       <c r="L13">
-        <v>0.0972473807261629</v>
+        <v>0.1254131088352448</v>
       </c>
       <c r="M13">
-        <v>1.212360883388499</v>
+        <v>0.09498228335697867</v>
       </c>
       <c r="N13">
-        <v>0.1063620862830348</v>
+        <v>0.09643027770572488</v>
       </c>
       <c r="O13">
-        <v>0.2178097738852678</v>
+        <v>1.198366118323094</v>
       </c>
       <c r="P13">
-        <v>0.9046783381301964</v>
+        <v>0.1161253880518771</v>
       </c>
       <c r="Q13">
-        <v>1.259454593909481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2136295103652017</v>
+      </c>
+      <c r="R13">
+        <v>0.9093927330825977</v>
+      </c>
+      <c r="S13">
+        <v>1.139589879994702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.230121414330426</v>
+        <v>1.179637589351529</v>
       </c>
       <c r="C14">
-        <v>0.2075457026441256</v>
+        <v>0.2040966442746566</v>
       </c>
       <c r="D14">
-        <v>0.09912130122031471</v>
+        <v>0.1025851472696075</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5268092442025392</v>
+        <v>0.4885691870307909</v>
       </c>
       <c r="G14">
-        <v>0.3053580505315736</v>
+        <v>0.3125504796051786</v>
       </c>
       <c r="H14">
-        <v>0.166353878039132</v>
+        <v>0.1658958670517734</v>
       </c>
       <c r="I14">
-        <v>0.00294066462359055</v>
+        <v>0.002739622300922839</v>
       </c>
       <c r="J14">
-        <v>0.2908989746125954</v>
+        <v>0.2581841890429004</v>
       </c>
       <c r="K14">
-        <v>0.308016404115083</v>
+        <v>0.2780181794894929</v>
       </c>
       <c r="L14">
-        <v>0.105977388686572</v>
+        <v>0.123188585232997</v>
       </c>
       <c r="M14">
-        <v>1.189317765256959</v>
+        <v>0.09071208056725411</v>
       </c>
       <c r="N14">
-        <v>0.08223498036203836</v>
+        <v>0.1058259599518969</v>
       </c>
       <c r="O14">
-        <v>0.1941808472596023</v>
+        <v>1.17795581823043</v>
       </c>
       <c r="P14">
-        <v>0.9206377992055224</v>
+        <v>0.09056406254137528</v>
       </c>
       <c r="Q14">
-        <v>1.203998671535118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1906167593557448</v>
+      </c>
+      <c r="R14">
+        <v>0.9248575535020294</v>
+      </c>
+      <c r="S14">
+        <v>1.098623468247382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.209682272529989</v>
+        <v>1.161670860825836</v>
       </c>
       <c r="C15">
-        <v>0.208446749426372</v>
+        <v>0.205038714877702</v>
       </c>
       <c r="D15">
-        <v>0.0959162721215705</v>
+        <v>0.09903783908330155</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5190105148428827</v>
+        <v>0.4828150252460759</v>
       </c>
       <c r="G15">
-        <v>0.3007715683085834</v>
+        <v>0.3031865239344498</v>
       </c>
       <c r="H15">
-        <v>0.1790007763921153</v>
+        <v>0.1785181246649898</v>
       </c>
       <c r="I15">
-        <v>0.003164154890406223</v>
+        <v>0.002953718064951261</v>
       </c>
       <c r="J15">
-        <v>0.2889699930149092</v>
+        <v>0.261133123872078</v>
       </c>
       <c r="K15">
-        <v>0.3055214086818303</v>
+        <v>0.2766208599205662</v>
       </c>
       <c r="L15">
-        <v>0.1084425600500865</v>
+        <v>0.1229625880615544</v>
       </c>
       <c r="M15">
-        <v>1.176140388512721</v>
+        <v>0.08967363154053842</v>
       </c>
       <c r="N15">
-        <v>0.07692784433249145</v>
+        <v>0.1084381284425291</v>
       </c>
       <c r="O15">
-        <v>0.187359024339262</v>
+        <v>1.166303343133961</v>
       </c>
       <c r="P15">
-        <v>0.9262722259568434</v>
+        <v>0.08492437304722955</v>
       </c>
       <c r="Q15">
-        <v>1.190206697517695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1840242256096865</v>
+      </c>
+      <c r="R15">
+        <v>0.9295359680981363</v>
+      </c>
+      <c r="S15">
+        <v>1.09038905248012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.13479797911063</v>
+        <v>1.094675274302233</v>
       </c>
       <c r="C16">
-        <v>0.2013798419014563</v>
+        <v>0.1981737923664326</v>
       </c>
       <c r="D16">
-        <v>0.09277630874972687</v>
+        <v>0.09464740850400233</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5177906225806481</v>
+        <v>0.4877748819501946</v>
       </c>
       <c r="G16">
-        <v>0.300561601910303</v>
+        <v>0.2818674291703118</v>
       </c>
       <c r="H16">
-        <v>0.1670264086043005</v>
+        <v>0.1664121020529734</v>
       </c>
       <c r="I16">
-        <v>0.003785251359750497</v>
+        <v>0.003426389229210791</v>
       </c>
       <c r="J16">
-        <v>0.291565730598407</v>
+        <v>0.284824293040721</v>
       </c>
       <c r="K16">
-        <v>0.3099975647692581</v>
+        <v>0.2834482963470215</v>
       </c>
       <c r="L16">
-        <v>0.1057188067940444</v>
+        <v>0.1265555653964228</v>
       </c>
       <c r="M16">
-        <v>1.10399031577461</v>
+        <v>0.09017325606896875</v>
       </c>
       <c r="N16">
-        <v>0.07632688076295935</v>
+        <v>0.105629638947466</v>
       </c>
       <c r="O16">
-        <v>0.177151983154463</v>
+        <v>1.101373420043188</v>
       </c>
       <c r="P16">
-        <v>0.938453726156034</v>
+        <v>0.08431864930662059</v>
       </c>
       <c r="Q16">
-        <v>1.195036203840544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1745245283378267</v>
+      </c>
+      <c r="R16">
+        <v>0.9347463097515671</v>
+      </c>
+      <c r="S16">
+        <v>1.112439814469852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.103003800947221</v>
+        <v>1.065023299669349</v>
       </c>
       <c r="C17">
-        <v>0.1931027453561001</v>
+        <v>0.1897759531196073</v>
       </c>
       <c r="D17">
-        <v>0.09662006180253968</v>
+        <v>0.0980479997385757</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5328496529847371</v>
+        <v>0.5042992126423869</v>
       </c>
       <c r="G17">
-        <v>0.3097890764771023</v>
+        <v>0.2819894326535177</v>
       </c>
       <c r="H17">
-        <v>0.1296896875848432</v>
+        <v>0.12900042910357</v>
       </c>
       <c r="I17">
-        <v>0.004167043652897107</v>
+        <v>0.003727077517898358</v>
       </c>
       <c r="J17">
-        <v>0.2980716136542654</v>
+        <v>0.3009417855314283</v>
       </c>
       <c r="K17">
-        <v>0.3194651580177705</v>
+        <v>0.2928783023154296</v>
       </c>
       <c r="L17">
-        <v>0.09838092227647266</v>
+        <v>0.1307249528765322</v>
       </c>
       <c r="M17">
-        <v>1.061013921126829</v>
+        <v>0.09259789834134402</v>
       </c>
       <c r="N17">
-        <v>0.08782500580729646</v>
+        <v>0.0978788886546802</v>
       </c>
       <c r="O17">
-        <v>0.1816407477350843</v>
+        <v>1.061488796527328</v>
       </c>
       <c r="P17">
-        <v>0.939487987790173</v>
+        <v>0.09651526071989025</v>
       </c>
       <c r="Q17">
-        <v>1.228125663735867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1791947661784228</v>
+      </c>
+      <c r="R17">
+        <v>0.9318277541546891</v>
+      </c>
+      <c r="S17">
+        <v>1.149842615729668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.106005880179936</v>
+        <v>1.066306250065736</v>
       </c>
       <c r="C18">
-        <v>0.182833030892894</v>
+        <v>0.1793085221272293</v>
       </c>
       <c r="D18">
-        <v>0.1073272508694458</v>
+        <v>0.1086713439260834</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5649627179423291</v>
+        <v>0.535054002512382</v>
       </c>
       <c r="G18">
-        <v>0.329087871706875</v>
+        <v>0.2959509706480858</v>
       </c>
       <c r="H18">
-        <v>0.07694248451855401</v>
+        <v>0.07623401536318397</v>
       </c>
       <c r="I18">
-        <v>0.004031990928867302</v>
+        <v>0.003518441140095696</v>
       </c>
       <c r="J18">
-        <v>0.3090830526906032</v>
+        <v>0.315549091265062</v>
       </c>
       <c r="K18">
-        <v>0.3352952809318417</v>
+        <v>0.306987620112313</v>
       </c>
       <c r="L18">
-        <v>0.08988035333637256</v>
+        <v>0.1364236920574307</v>
       </c>
       <c r="M18">
-        <v>1.038074544813981</v>
+        <v>0.09729427844595762</v>
       </c>
       <c r="N18">
-        <v>0.1150180882587151</v>
+        <v>0.08858595843699213</v>
       </c>
       <c r="O18">
-        <v>0.1999684311281165</v>
+        <v>1.039899999728277</v>
       </c>
       <c r="P18">
-        <v>0.9322685472857373</v>
+        <v>0.125169120826456</v>
       </c>
       <c r="Q18">
-        <v>1.292049165528653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.197379595879859</v>
+      </c>
+      <c r="R18">
+        <v>0.9217958465631426</v>
+      </c>
+      <c r="S18">
+        <v>1.21053441225493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.13311792980025</v>
+        <v>1.089056146814357</v>
       </c>
       <c r="C19">
-        <v>0.1735495178124253</v>
+        <v>0.1699506781367432</v>
       </c>
       <c r="D19">
-        <v>0.1235898729466101</v>
+        <v>0.1250586469869432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6080097701943927</v>
+        <v>0.5748764561796378</v>
       </c>
       <c r="G19">
-        <v>0.3543986081312838</v>
+        <v>0.3174931338198164</v>
       </c>
       <c r="H19">
-        <v>0.03130537996089089</v>
+        <v>0.03063655780703556</v>
       </c>
       <c r="I19">
-        <v>0.004046425867478831</v>
+        <v>0.003584953432015148</v>
       </c>
       <c r="J19">
-        <v>0.3224623614700164</v>
+        <v>0.3290202122089241</v>
       </c>
       <c r="K19">
-        <v>0.3547346955151589</v>
+        <v>0.3235813092016109</v>
       </c>
       <c r="L19">
-        <v>0.08653708355958578</v>
+        <v>0.1428128285671981</v>
       </c>
       <c r="M19">
-        <v>1.032944082103427</v>
+        <v>0.103356129084343</v>
       </c>
       <c r="N19">
-        <v>0.1596336279146655</v>
+        <v>0.08409419856098932</v>
       </c>
       <c r="O19">
-        <v>0.2289547838101846</v>
+        <v>1.035216602079089</v>
       </c>
       <c r="P19">
-        <v>0.9220747979802297</v>
+        <v>0.1719380164688218</v>
       </c>
       <c r="Q19">
-        <v>1.373719722235535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2259924398761264</v>
+      </c>
+      <c r="R19">
+        <v>0.9093820336847465</v>
+      </c>
+      <c r="S19">
+        <v>1.284157306440008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.233886477537794</v>
+        <v>1.178123241631567</v>
       </c>
       <c r="C20">
-        <v>0.1649157382149937</v>
+        <v>0.1614841114721486</v>
       </c>
       <c r="D20">
-        <v>0.1548291482458666</v>
+        <v>0.1570925038583937</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6832013073979368</v>
+        <v>0.6412567538863811</v>
       </c>
       <c r="G20">
-        <v>0.3980788035720337</v>
+        <v>0.3624959486542636</v>
       </c>
       <c r="H20">
-        <v>0.003557795431250454</v>
+        <v>0.003068845362269812</v>
       </c>
       <c r="I20">
-        <v>0.003476854931255602</v>
+        <v>0.00320310501844201</v>
       </c>
       <c r="J20">
-        <v>0.3432209296024524</v>
+        <v>0.3386296894535477</v>
       </c>
       <c r="K20">
-        <v>0.3855421533985499</v>
+        <v>0.3480084507864447</v>
       </c>
       <c r="L20">
-        <v>0.09631550390829879</v>
+        <v>0.1506980774099382</v>
       </c>
       <c r="M20">
-        <v>1.077734694410481</v>
+        <v>0.1143168388184037</v>
       </c>
       <c r="N20">
-        <v>0.2501027668789817</v>
+        <v>0.09168045268343938</v>
       </c>
       <c r="O20">
-        <v>0.2874421393190403</v>
+        <v>1.078229387791055</v>
       </c>
       <c r="P20">
-        <v>0.9006768204156863</v>
+        <v>0.2664973736352465</v>
       </c>
       <c r="Q20">
-        <v>1.509905539928624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2834206726562769</v>
+      </c>
+      <c r="R20">
+        <v>0.8862429382165864</v>
+      </c>
+      <c r="S20">
+        <v>1.397851547724429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.392269560718319</v>
+        <v>1.317489831184901</v>
       </c>
       <c r="C21">
-        <v>0.1724581196321893</v>
+        <v>0.1689875619525765</v>
       </c>
       <c r="D21">
-        <v>0.1714486809245557</v>
+        <v>0.1774367735683029</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.712352257975013</v>
+        <v>0.6519055392903823</v>
       </c>
       <c r="G21">
-        <v>0.4140566906372669</v>
+        <v>0.4320707676282325</v>
       </c>
       <c r="H21">
-        <v>0.002045909184769323</v>
+        <v>0.00177277517718788</v>
       </c>
       <c r="I21">
-        <v>0.0026228010067193</v>
+        <v>0.002639340721412253</v>
       </c>
       <c r="J21">
-        <v>0.3463725599553555</v>
+        <v>0.2816703572560399</v>
       </c>
       <c r="K21">
-        <v>0.38887057240159</v>
+        <v>0.342232350194891</v>
       </c>
       <c r="L21">
-        <v>0.1004681391372841</v>
+        <v>0.1444356143996046</v>
       </c>
       <c r="M21">
-        <v>1.210549403175804</v>
+        <v>0.1180986324377074</v>
       </c>
       <c r="N21">
-        <v>0.2817337210181989</v>
+        <v>0.09509976970150724</v>
       </c>
       <c r="O21">
-        <v>0.3258537965307866</v>
+        <v>1.196483134555621</v>
       </c>
       <c r="P21">
-        <v>0.8690246024840498</v>
+        <v>0.2998398914109686</v>
       </c>
       <c r="Q21">
-        <v>1.550668522062324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3197490509269088</v>
+      </c>
+      <c r="R21">
+        <v>0.8617213739213518</v>
+      </c>
+      <c r="S21">
+        <v>1.388173568246515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.495344872379491</v>
+        <v>1.40765894792392</v>
       </c>
       <c r="C22">
-        <v>0.1773724332363287</v>
+        <v>0.173656535140843</v>
       </c>
       <c r="D22">
-        <v>0.1809329327654439</v>
+        <v>0.1896749859752447</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7297735282585762</v>
+        <v>0.6563645546134254</v>
       </c>
       <c r="G22">
-        <v>0.4239330666638637</v>
+        <v>0.4853830731058224</v>
       </c>
       <c r="H22">
-        <v>0.001380332395801598</v>
+        <v>0.001209666820115141</v>
       </c>
       <c r="I22">
-        <v>0.001936090894407272</v>
+        <v>0.002032486656076138</v>
       </c>
       <c r="J22">
-        <v>0.3481969085189434</v>
+        <v>0.2507292325252486</v>
       </c>
       <c r="K22">
-        <v>0.3907102359009329</v>
+        <v>0.3377860277810569</v>
       </c>
       <c r="L22">
-        <v>0.1024296483763649</v>
+        <v>0.1402809371036398</v>
       </c>
       <c r="M22">
-        <v>1.297020805284319</v>
+        <v>0.1205573279282035</v>
       </c>
       <c r="N22">
-        <v>0.2974630253038271</v>
+        <v>0.09669820414425523</v>
       </c>
       <c r="O22">
-        <v>0.3486936590514134</v>
+        <v>1.272261856776453</v>
       </c>
       <c r="P22">
-        <v>0.8491719452923228</v>
+        <v>0.3164958550085402</v>
       </c>
       <c r="Q22">
-        <v>1.57560956235983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3411364625708799</v>
+      </c>
+      <c r="R22">
+        <v>0.8471448600453577</v>
+      </c>
+      <c r="S22">
+        <v>1.377673927365052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.442655071183083</v>
+        <v>1.362745662969928</v>
       </c>
       <c r="C23">
-        <v>0.1742372479749861</v>
+        <v>0.1708887846378317</v>
       </c>
       <c r="D23">
-        <v>0.1758232066353571</v>
+        <v>0.1826741486320316</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7216625319966425</v>
+        <v>0.6566865684653891</v>
       </c>
       <c r="G23">
-        <v>0.4196198804884261</v>
+        <v>0.4505113992130845</v>
       </c>
       <c r="H23">
-        <v>0.001713805397036028</v>
+        <v>0.00148857504453781</v>
       </c>
       <c r="I23">
-        <v>0.001965392014132483</v>
+        <v>0.001958717166655077</v>
       </c>
       <c r="J23">
-        <v>0.3477085220569478</v>
+        <v>0.2715227218041676</v>
       </c>
       <c r="K23">
-        <v>0.3906390370771007</v>
+        <v>0.3416854412069767</v>
       </c>
       <c r="L23">
-        <v>0.1014990677329237</v>
+        <v>0.1429830994760248</v>
       </c>
       <c r="M23">
-        <v>1.250809061192598</v>
+        <v>0.1198725679833501</v>
       </c>
       <c r="N23">
-        <v>0.2886168579637882</v>
+        <v>0.09595967460855093</v>
       </c>
       <c r="O23">
-        <v>0.3366602576455335</v>
+        <v>1.233395213920545</v>
       </c>
       <c r="P23">
-        <v>0.8595297641054032</v>
+        <v>0.3071576135351961</v>
       </c>
       <c r="Q23">
-        <v>1.565346027027374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3300320439346791</v>
+      </c>
+      <c r="R23">
+        <v>0.8540854692981945</v>
+      </c>
+      <c r="S23">
+        <v>1.390547686662302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.239023479784947</v>
+        <v>1.182871706023377</v>
       </c>
       <c r="C24">
-        <v>0.1632490283112418</v>
+        <v>0.1595572584370331</v>
       </c>
       <c r="D24">
-        <v>0.1566289221435966</v>
+        <v>0.1588854989798278</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6899878690347876</v>
+        <v>0.6477060473500273</v>
       </c>
       <c r="G24">
-        <v>0.4024921937269994</v>
+        <v>0.3661513475320888</v>
       </c>
       <c r="H24">
-        <v>0.003357705781670051</v>
+        <v>0.0028750988991183</v>
       </c>
       <c r="I24">
-        <v>0.002948006128764113</v>
+        <v>0.002577191539719692</v>
       </c>
       <c r="J24">
-        <v>0.3455440079160255</v>
+        <v>0.3412886448111507</v>
       </c>
       <c r="K24">
-        <v>0.3893673360445149</v>
+        <v>0.3514226030838721</v>
       </c>
       <c r="L24">
-        <v>0.09773523622604863</v>
+        <v>0.1520197097415341</v>
       </c>
       <c r="M24">
-        <v>1.075887080203984</v>
+        <v>0.1155515128885831</v>
       </c>
       <c r="N24">
-        <v>0.2559745420969506</v>
+        <v>0.09292253189075872</v>
       </c>
       <c r="O24">
-        <v>0.2908478324642942</v>
+        <v>1.076510779653887</v>
       </c>
       <c r="P24">
-        <v>0.9003137446311911</v>
+        <v>0.2726106156791843</v>
       </c>
       <c r="Q24">
-        <v>1.524124291861909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2867940096854014</v>
+      </c>
+      <c r="R24">
+        <v>0.8852786392636389</v>
+      </c>
+      <c r="S24">
+        <v>1.411190567148452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.018734859335581</v>
+        <v>0.977648974778333</v>
       </c>
       <c r="C25">
-        <v>0.1514486714693959</v>
+        <v>0.1435886969323903</v>
       </c>
       <c r="D25">
-        <v>0.1360899327900142</v>
+        <v>0.1378313796158892</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6579651797265313</v>
+        <v>0.6226534637116288</v>
       </c>
       <c r="G25">
-        <v>0.3856859780036714</v>
+        <v>0.3491435919117833</v>
       </c>
       <c r="H25">
-        <v>0.005876115014945282</v>
+        <v>0.005070837816276541</v>
       </c>
       <c r="I25">
-        <v>0.004758959531642404</v>
+        <v>0.003911969437160323</v>
       </c>
       <c r="J25">
-        <v>0.3442628620082715</v>
+        <v>0.3460466119050878</v>
       </c>
       <c r="K25">
-        <v>0.3890720785243609</v>
+        <v>0.3548967138403647</v>
       </c>
       <c r="L25">
-        <v>0.09355217240332259</v>
+        <v>0.1597107188754379</v>
       </c>
       <c r="M25">
-        <v>0.8870805732160534</v>
+        <v>0.1095098299320103</v>
       </c>
       <c r="N25">
-        <v>0.2209982846787426</v>
+        <v>0.08937903251382551</v>
       </c>
       <c r="O25">
-        <v>0.2414512010960301</v>
+        <v>0.8891917037855706</v>
       </c>
       <c r="P25">
-        <v>0.9468221125874106</v>
+        <v>0.2354244921823749</v>
       </c>
       <c r="Q25">
-        <v>1.48537964036251</v>
+        <v>0.2384647964848945</v>
+      </c>
+      <c r="R25">
+        <v>0.9255643248087075</v>
+      </c>
+      <c r="S25">
+        <v>1.389346514958149</v>
       </c>
     </row>
   </sheetData>
